--- a/Experiment/TestDiff.xlsx
+++ b/Experiment/TestDiff.xlsx
@@ -6,33 +6,40 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Models" sheetId="1" r:id="rId4"/>
+    <sheet name="Features" sheetId="2" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
-  <si>
-    <t>表格 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>Feature Set</t>
   </si>
   <si>
-    <t>RandomForest</t>
+    <t>Adaboost-Precision</t>
   </si>
   <si>
-    <t>C4.5</t>
+    <t>Recall</t>
   </si>
   <si>
-    <t>SMO</t>
+    <t>F1</t>
   </si>
   <si>
-    <t>NaiveBayes</t>
+    <t>RandomForest-Precision</t>
   </si>
   <si>
-    <t>noPara</t>
+    <t>C4.5-Precision</t>
+  </si>
+  <si>
+    <t>SMO-Precision</t>
+  </si>
+  <si>
+    <t>NaiveBayes-Precision</t>
+  </si>
+  <si>
+    <t>before</t>
   </si>
   <si>
     <t>lucene</t>
@@ -53,10 +60,28 @@
     <t>ant</t>
   </si>
   <si>
+    <t>noPara</t>
+  </si>
+  <si>
     <t>noGap</t>
   </si>
   <si>
     <t>noParaAndGap</t>
+  </si>
+  <si>
+    <t>before-Precision</t>
+  </si>
+  <si>
+    <t>withoutCode</t>
+  </si>
+  <si>
+    <t>withoutCoChange</t>
+  </si>
+  <si>
+    <t>withoutHistory</t>
+  </si>
+  <si>
+    <t>withoutLocation</t>
   </si>
 </sst>
 </file>
@@ -66,7 +91,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -81,6 +106,12 @@
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="10"/>
+      <color indexed="14"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
@@ -99,12 +130,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="12"/>
+        <fgColor indexed="13"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -124,6 +155,21 @@
       </top>
       <bottom style="thin">
         <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
@@ -177,6 +223,36 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
@@ -217,21 +293,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -239,28 +342,55 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -283,7 +413,9 @@
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ffed220b"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1345,17 +1477,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:N23"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6484" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
@@ -1367,959 +1499,2849 @@
     <col min="12" max="12" width="16.3516" style="1" customWidth="1"/>
     <col min="13" max="13" width="16.3516" style="1" customWidth="1"/>
     <col min="14" max="14" width="16.3516" style="1" customWidth="1"/>
-    <col min="15" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.3516" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.3516" style="1" customWidth="1"/>
+    <col min="17" max="17" width="16.3516" style="1" customWidth="1"/>
+    <col min="18" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1">
+    <row r="1" ht="32.35" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="B1" s="3"/>
+      <c r="C1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" t="s" s="3">
+      <c r="D1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" t="s" s="3">
+      <c r="E1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" t="s" s="3">
+      <c r="F1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" t="s" s="3">
+      <c r="G1" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s" s="4">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-    </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="5">
+      <c r="J1" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s" s="4">
+        <v>3</v>
+      </c>
+      <c r="L1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="M1" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="N1" t="s" s="4">
+        <v>3</v>
+      </c>
+      <c r="O1" t="s" s="4">
         <v>7</v>
       </c>
-      <c r="C3" s="7">
+      <c r="P1" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q1" t="s" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="20.7" customHeight="1">
+      <c r="A2" t="s" s="5">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.768</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.729</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0.748</v>
+      </c>
+      <c r="F2" s="9">
+        <v>0.769</v>
+      </c>
+      <c r="G2" s="9">
+        <v>0.339</v>
+      </c>
+      <c r="H2" s="9">
+        <v>0.471</v>
+      </c>
+      <c r="I2" s="9">
+        <v>0.586</v>
+      </c>
+      <c r="J2" s="9">
+        <v>0.288</v>
+      </c>
+      <c r="K2" s="9">
+        <v>0.386</v>
+      </c>
+      <c r="L2" s="9">
+        <v>0.587</v>
+      </c>
+      <c r="M2" s="9">
+        <v>0.458</v>
+      </c>
+      <c r="N2" s="9">
+        <v>0.514</v>
+      </c>
+      <c r="O2" s="9">
+        <v>0.538</v>
+      </c>
+      <c r="P2" s="9">
+        <v>0.831</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>0.653</v>
+      </c>
+    </row>
+    <row r="3" ht="20.7" customHeight="1">
+      <c r="A3" s="10"/>
+      <c r="B3" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0.866</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0.806</v>
+      </c>
+      <c r="E3" s="13">
+        <v>0.835</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0.796</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0.597</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0.6830000000000001</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0.833</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0.556</v>
+      </c>
+      <c r="K3" s="9">
+        <v>0.667</v>
+      </c>
+      <c r="L3" s="9">
+        <v>0.8159999999999999</v>
+      </c>
+      <c r="M3" s="9">
+        <v>0.556</v>
+      </c>
+      <c r="N3" s="9">
+        <v>0.661</v>
+      </c>
+      <c r="O3" s="9">
+        <v>0.46</v>
+      </c>
+      <c r="P3" s="9">
+        <v>0.792</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>0.582</v>
+      </c>
+    </row>
+    <row r="4" ht="20.7" customHeight="1">
+      <c r="A4" s="10"/>
+      <c r="B4" t="s" s="11">
+        <v>11</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0.756</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.596</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0.667</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.727</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.367</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0.488</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0.57</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0.45</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0.503</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0.5659999999999999</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0.394</v>
+      </c>
+      <c r="N4" s="9">
+        <v>0.465</v>
+      </c>
+      <c r="O4" s="9">
+        <v>0.472</v>
+      </c>
+      <c r="P4" s="9">
+        <v>0.706</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>0.5659999999999999</v>
+      </c>
+    </row>
+    <row r="5" ht="20.7" customHeight="1">
+      <c r="A5" s="10"/>
+      <c r="B5" t="s" s="11">
+        <v>12</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0.714</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0.484</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0.577</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.643</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.29</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0.611</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0.71</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0.657</v>
+      </c>
+      <c r="L5" s="9">
+        <v>0.571</v>
+      </c>
+      <c r="M5" s="9">
+        <v>0.645</v>
+      </c>
+      <c r="N5" s="9">
+        <v>0.606</v>
+      </c>
+      <c r="O5" s="9">
+        <v>0.492</v>
+      </c>
+      <c r="P5" s="9">
+        <v>0.968</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>0.652</v>
+      </c>
+    </row>
+    <row r="6" ht="20.7" customHeight="1">
+      <c r="A6" s="10"/>
+      <c r="B6" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0.626</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.655</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.641</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.602</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.621</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0.58</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0.5659999999999999</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0.573</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0.611</v>
+      </c>
+      <c r="M6" s="9">
+        <v>0.699</v>
+      </c>
+      <c r="N6" s="9">
+        <v>0.652</v>
+      </c>
+      <c r="O6" s="9">
+        <v>0.548</v>
+      </c>
+      <c r="P6" s="9">
+        <v>0.964</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0.699</v>
+      </c>
+    </row>
+    <row r="7" ht="20.7" customHeight="1">
+      <c r="A7" s="10"/>
+      <c r="B7" t="s" s="11">
+        <v>14</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0.741</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0.526</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.615</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.743</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0.704</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0.585</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0.706</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0.632</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0.667</v>
+      </c>
+      <c r="O7" s="9">
+        <v>0.441</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0.536</v>
+      </c>
+    </row>
+    <row r="8" ht="20.35" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15">
+        <f>AVERAGE(C2,C3,C4,C5,C6,C7)</f>
+        <v>0.7451666666666665</v>
+      </c>
+      <c r="D8" s="15">
+        <f>AVERAGE(D2,D3,D4,D5,D6,D7)</f>
+        <v>0.638</v>
+      </c>
+      <c r="E8" s="15">
+        <f>AVERAGE(E2,E3,E4,E5,E6,E7)</f>
+        <v>0.6828333333333334</v>
+      </c>
+      <c r="F8" s="16">
+        <f>AVERAGE(F2,F3,F4,F5,F6,F7)</f>
+        <v>0.7314999999999999</v>
+      </c>
+      <c r="G8" s="16">
+        <f>AVERAGE(G2,G3,G4,G5,G6,G7)</f>
+        <v>0.4798333333333333</v>
+      </c>
+      <c r="H8" s="16">
+        <f>AVERAGE(H2,H3,H4,H5,H6,H7)</f>
+        <v>0.5676666666666667</v>
+      </c>
+      <c r="I8" s="16">
+        <f>AVERAGE(I2,I3,I4,I5,I6,I7)</f>
+        <v>0.6473333333333332</v>
+      </c>
+      <c r="J8" s="16">
+        <f>AVERAGE(J2,J3,J4,J5,J6,J7)</f>
+        <v>0.5116666666666666</v>
+      </c>
+      <c r="K8" s="16">
+        <f>AVERAGE(K2,K3,K4,K5,K6,K7)</f>
+        <v>0.5618333333333333</v>
+      </c>
+      <c r="L8" s="16">
+        <f>AVERAGE(L2,L3,L4,L5,L6,L7)</f>
+        <v>0.6428333333333333</v>
+      </c>
+      <c r="M8" s="16">
+        <f>AVERAGE(M2,M3,M4,M5,M6,M7)</f>
+        <v>0.5639999999999999</v>
+      </c>
+      <c r="N8" s="16">
+        <f>AVERAGE(N2,N3,N4,N5,N6,N7)</f>
+        <v>0.5941666666666667</v>
+      </c>
+      <c r="O8" s="16">
+        <f>AVERAGE(O2,O3,O4,O5,O6,O7)</f>
+        <v>0.4918333333333333</v>
+      </c>
+      <c r="P8" s="16">
+        <f>AVERAGE(P2,P3,P4,P5,P6,P7)</f>
+        <v>0.8241666666666666</v>
+      </c>
+      <c r="Q8" s="16">
+        <f>AVERAGE(Q2,Q3,Q4,Q5,Q6,Q7)</f>
+        <v>0.6146666666666666</v>
+      </c>
+    </row>
+    <row r="9" ht="20.05" customHeight="1">
+      <c r="A9" t="s" s="17">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s" s="11">
+        <v>9</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0.768</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0.729</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0.748</v>
+      </c>
+      <c r="F9" s="12">
         <v>0.826</v>
       </c>
-      <c r="D3" s="7">
+      <c r="G9" s="12">
         <v>0.322</v>
       </c>
-      <c r="E3" s="7">
+      <c r="H9" s="12">
         <v>0.463</v>
       </c>
-      <c r="F3" s="7">
+      <c r="I9" s="12">
         <v>0.586</v>
       </c>
-      <c r="G3" s="7">
+      <c r="J9" s="12">
         <v>0.288</v>
       </c>
-      <c r="H3" s="7">
+      <c r="K9" s="12">
         <v>0.386</v>
       </c>
-      <c r="I3" s="7">
+      <c r="L9" s="12">
         <v>0.5679999999999999</v>
       </c>
-      <c r="J3" s="7">
+      <c r="M9" s="12">
         <v>0.424</v>
       </c>
-      <c r="K3" s="7">
+      <c r="N9" s="12">
         <v>0.485</v>
       </c>
-      <c r="L3" s="7">
+      <c r="O9" s="12">
         <v>0.538</v>
       </c>
-      <c r="M3" s="7">
+      <c r="P9" s="12">
         <v>0.831</v>
       </c>
-      <c r="N3" s="7">
+      <c r="Q9" s="12">
         <v>0.653</v>
       </c>
     </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="C4" s="10">
+    <row r="10" ht="20.05" customHeight="1">
+      <c r="A10" s="10"/>
+      <c r="B10" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0.866</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0.806</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.835</v>
+      </c>
+      <c r="F10" s="12">
         <v>0.882</v>
       </c>
-      <c r="D4" s="10">
+      <c r="G10" s="12">
         <v>0.833</v>
       </c>
-      <c r="E4" s="10">
+      <c r="H10" s="12">
         <v>0.857</v>
       </c>
-      <c r="F4" s="10">
+      <c r="I10" s="12">
         <v>0.929</v>
       </c>
-      <c r="G4" s="10">
+      <c r="J10" s="12">
         <v>0.542</v>
       </c>
-      <c r="H4" s="10">
+      <c r="K10" s="12">
         <v>0.6840000000000001</v>
       </c>
-      <c r="I4" s="10">
+      <c r="L10" s="12">
         <v>0.8159999999999999</v>
       </c>
-      <c r="J4" s="10">
+      <c r="M10" s="12">
         <v>0.556</v>
       </c>
-      <c r="K4" s="10">
+      <c r="N10" s="12">
         <v>0.661</v>
       </c>
-      <c r="L4" s="10">
+      <c r="O10" s="12">
         <v>0.459</v>
       </c>
-      <c r="M4" s="10">
+      <c r="P10" s="12">
         <v>0.778</v>
       </c>
-      <c r="N4" s="10">
+      <c r="Q10" s="12">
         <v>0.577</v>
       </c>
     </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" t="s" s="9">
+    <row r="11" ht="20.05" customHeight="1">
+      <c r="A11" s="10"/>
+      <c r="B11" t="s" s="11">
+        <v>11</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0.756</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0.596</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.667</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0.79</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0.573</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0.57</v>
+      </c>
+      <c r="J11" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="K11" s="12">
+        <v>0.503</v>
+      </c>
+      <c r="L11" s="12">
+        <v>0.602</v>
+      </c>
+      <c r="M11" s="12">
+        <v>0.459</v>
+      </c>
+      <c r="N11" s="12">
+        <v>0.521</v>
+      </c>
+      <c r="O11" s="12">
+        <v>0.472</v>
+      </c>
+      <c r="P11" s="12">
+        <v>0.697</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>0.5629999999999999</v>
+      </c>
+    </row>
+    <row r="12" ht="20.05" customHeight="1">
+      <c r="A12" s="10"/>
+      <c r="B12" t="s" s="11">
+        <v>12</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0.714</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0.484</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.577</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0.625</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0.323</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0.426</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0.611</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0.71</v>
+      </c>
+      <c r="K12" s="12">
+        <v>0.657</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0.571</v>
+      </c>
+      <c r="M12" s="12">
+        <v>0.645</v>
+      </c>
+      <c r="N12" s="12">
+        <v>0.606</v>
+      </c>
+      <c r="O12" s="12">
+        <v>0.492</v>
+      </c>
+      <c r="P12" s="12">
+        <v>0.968</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>0.652</v>
+      </c>
+    </row>
+    <row r="13" ht="20.05" customHeight="1">
+      <c r="A13" s="10"/>
+      <c r="B13" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0.626</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0.655</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0.632</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0.578</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0.604</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0.582</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0.554</v>
+      </c>
+      <c r="K13" s="12">
+        <v>0.5679999999999999</v>
+      </c>
+      <c r="L13" s="12">
+        <v>0.604</v>
+      </c>
+      <c r="M13" s="12">
+        <v>0.699</v>
+      </c>
+      <c r="N13" s="12">
+        <v>0.648</v>
+      </c>
+      <c r="O13" s="12">
+        <v>0.544</v>
+      </c>
+      <c r="P13" s="12">
+        <v>0.964</v>
+      </c>
+      <c r="Q13" s="12">
+        <v>0.696</v>
+      </c>
+    </row>
+    <row r="14" ht="20.05" customHeight="1">
+      <c r="A14" s="10"/>
+      <c r="B14" t="s" s="11">
+        <v>14</v>
+      </c>
+      <c r="C14" s="12">
+        <v>0.741</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0.526</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0.615</v>
+      </c>
+      <c r="F14" s="12">
+        <v>0.862</v>
+      </c>
+      <c r="G14" s="12">
+        <v>0.658</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0.746</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0.704</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K14" s="12">
+        <v>0.585</v>
+      </c>
+      <c r="L14" s="12">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="M14" s="12">
+        <v>0.632</v>
+      </c>
+      <c r="N14" s="12">
+        <v>0.658</v>
+      </c>
+      <c r="O14" s="12">
+        <v>0.441</v>
+      </c>
+      <c r="P14" s="12">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="Q14" s="12">
+        <v>0.536</v>
+      </c>
+    </row>
+    <row r="15" ht="20.05" customHeight="1">
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="15">
+        <f>AVERAGE(C9,C10,C11,C12,C13,C14)</f>
+        <v>0.7451666666666665</v>
+      </c>
+      <c r="D15" s="15">
+        <f>AVERAGE(D9,D10,D11,D12,D13,D14)</f>
+        <v>0.638</v>
+      </c>
+      <c r="E15" s="15">
+        <f>AVERAGE(E9,E10,E11,E12,E13,E14)</f>
+        <v>0.6828333333333334</v>
+      </c>
+      <c r="F15" s="15">
+        <f>AVERAGE(F9,F10,F11,F12,F13,F14)</f>
+        <v>0.7695</v>
+      </c>
+      <c r="G15" s="15">
+        <f>AVERAGE(G9,G10,G11,G12,G13,G14)</f>
+        <v>0.5273333333333333</v>
+      </c>
+      <c r="H15" s="15">
+        <f>AVERAGE(H9,H10,H11,H12,H13,H14)</f>
+        <v>0.6115</v>
+      </c>
+      <c r="I15" s="15">
+        <f>AVERAGE(I9,I10,I11,I12,I13,I14)</f>
+        <v>0.6636666666666665</v>
+      </c>
+      <c r="J15" s="15">
+        <f>AVERAGE(J9,J10,J11,J12,J13,J14)</f>
+        <v>0.5073333333333333</v>
+      </c>
+      <c r="K15" s="15">
+        <f>AVERAGE(K9,K10,K11,K12,K13,K14)</f>
+        <v>0.5638333333333333</v>
+      </c>
+      <c r="L15" s="15">
+        <f>AVERAGE(L9,L10,L11,L12,L13,L14)</f>
+        <v>0.6411666666666666</v>
+      </c>
+      <c r="M15" s="15">
+        <f>AVERAGE(M9,M10,M11,M12,M13,M14)</f>
+        <v>0.5691666666666667</v>
+      </c>
+      <c r="N15" s="15">
+        <f>AVERAGE(N9,N10,N11,N12,N13,N14)</f>
+        <v>0.5964999999999999</v>
+      </c>
+      <c r="O15" s="15">
+        <f>AVERAGE(O9,O10,O11,O12,O13,O14)</f>
+        <v>0.4909999999999999</v>
+      </c>
+      <c r="P15" s="15">
+        <f>AVERAGE(P9,P10,P11,P12,P13,P14)</f>
+        <v>0.8203333333333332</v>
+      </c>
+      <c r="Q15" s="15">
+        <f>AVERAGE(Q9,Q10,Q11,Q12,Q13,Q14)</f>
+        <v>0.6128333333333333</v>
+      </c>
+    </row>
+    <row r="16" ht="20.05" customHeight="1">
+      <c r="A16" t="s" s="17">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s" s="11">
         <v>9</v>
       </c>
-      <c r="C5" s="10">
-        <v>0.79</v>
-      </c>
-      <c r="D5" s="10">
-        <v>0.45</v>
-      </c>
-      <c r="E5" s="10">
-        <v>0.573</v>
-      </c>
-      <c r="F5" s="10">
+      <c r="C16" s="12">
+        <v>0.732</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0.695</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0.713</v>
+      </c>
+      <c r="F16" s="12">
+        <v>0.6919999999999999</v>
+      </c>
+      <c r="G16" s="12">
+        <v>0.305</v>
+      </c>
+      <c r="H16" s="12">
+        <v>0.424</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0.613</v>
+      </c>
+      <c r="J16" s="12">
+        <v>0.322</v>
+      </c>
+      <c r="K16" s="12">
+        <v>0.422</v>
+      </c>
+      <c r="L16" s="12">
+        <v>0.587</v>
+      </c>
+      <c r="M16" s="12">
+        <v>0.458</v>
+      </c>
+      <c r="N16" s="12">
+        <v>0.514</v>
+      </c>
+      <c r="O16" s="12">
+        <v>0.548</v>
+      </c>
+      <c r="P16" s="12">
+        <v>0.864</v>
+      </c>
+      <c r="Q16" s="12">
+        <v>0.671</v>
+      </c>
+    </row>
+    <row r="17" ht="20.05" customHeight="1">
+      <c r="A17" s="10"/>
+      <c r="B17" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0.866</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0.806</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0.835</v>
+      </c>
+      <c r="F17" s="12">
+        <v>0.867</v>
+      </c>
+      <c r="G17" s="12">
+        <v>0.722</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0.788</v>
+      </c>
+      <c r="I17" s="12">
+        <v>0.867</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0.542</v>
+      </c>
+      <c r="K17" s="12">
+        <v>0.667</v>
+      </c>
+      <c r="L17" s="12">
+        <v>0.88</v>
+      </c>
+      <c r="M17" s="12">
+        <v>0.611</v>
+      </c>
+      <c r="N17" s="12">
+        <v>0.721</v>
+      </c>
+      <c r="O17" s="12">
+        <v>0.459</v>
+      </c>
+      <c r="P17" s="12">
+        <v>0.778</v>
+      </c>
+      <c r="Q17" s="12">
+        <v>0.577</v>
+      </c>
+    </row>
+    <row r="18" ht="20.05" customHeight="1">
+      <c r="A18" s="10"/>
+      <c r="B18" t="s" s="11">
+        <v>11</v>
+      </c>
+      <c r="C18" s="12">
+        <v>0.756</v>
+      </c>
+      <c r="D18" s="12">
+        <v>0.596</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0.667</v>
+      </c>
+      <c r="F18" s="12">
+        <v>0.776</v>
+      </c>
+      <c r="G18" s="12">
+        <v>0.349</v>
+      </c>
+      <c r="H18" s="12">
+        <v>0.481</v>
+      </c>
+      <c r="I18" s="12">
         <v>0.57</v>
       </c>
-      <c r="G5" s="10">
-        <v>0.45</v>
-      </c>
-      <c r="H5" s="10">
-        <v>0.503</v>
-      </c>
-      <c r="I5" s="10">
+      <c r="J18" s="12">
+        <v>0.413</v>
+      </c>
+      <c r="K18" s="12">
+        <v>0.479</v>
+      </c>
+      <c r="L18" s="12">
         <v>0.602</v>
       </c>
-      <c r="J5" s="10">
+      <c r="M18" s="12">
         <v>0.459</v>
       </c>
-      <c r="K5" s="10">
+      <c r="N18" s="12">
         <v>0.521</v>
       </c>
-      <c r="L5" s="10">
+      <c r="O18" s="12">
         <v>0.472</v>
       </c>
-      <c r="M5" s="10">
+      <c r="P18" s="12">
+        <v>0.706</v>
+      </c>
+      <c r="Q18" s="12">
+        <v>0.5659999999999999</v>
+      </c>
+    </row>
+    <row r="19" ht="20.05" customHeight="1">
+      <c r="A19" s="10"/>
+      <c r="B19" t="s" s="11">
+        <v>12</v>
+      </c>
+      <c r="C19" s="12">
+        <v>0.714</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0.484</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0.577</v>
+      </c>
+      <c r="F19" s="12">
+        <v>0.643</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0.29</v>
+      </c>
+      <c r="H19" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="I19" s="12">
+        <v>0.611</v>
+      </c>
+      <c r="J19" s="12">
+        <v>0.71</v>
+      </c>
+      <c r="K19" s="12">
+        <v>0.657</v>
+      </c>
+      <c r="L19" s="12">
+        <v>0.571</v>
+      </c>
+      <c r="M19" s="12">
+        <v>0.645</v>
+      </c>
+      <c r="N19" s="12">
+        <v>0.606</v>
+      </c>
+      <c r="O19" s="12">
+        <v>0.492</v>
+      </c>
+      <c r="P19" s="12">
+        <v>0.968</v>
+      </c>
+      <c r="Q19" s="12">
+        <v>0.652</v>
+      </c>
+    </row>
+    <row r="20" ht="20.05" customHeight="1">
+      <c r="A20" s="10"/>
+      <c r="B20" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="C20" s="12">
+        <v>0.626</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="E20" s="12">
+        <v>0.655</v>
+      </c>
+      <c r="F20" s="12">
+        <v>0.646</v>
+      </c>
+      <c r="G20" s="12">
+        <v>0.614</v>
+      </c>
+      <c r="H20" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="I20" s="12">
+        <v>0.584</v>
+      </c>
+      <c r="J20" s="12">
+        <v>0.542</v>
+      </c>
+      <c r="K20" s="12">
+        <v>0.5629999999999999</v>
+      </c>
+      <c r="L20" s="12">
+        <v>0.628</v>
+      </c>
+      <c r="M20" s="12">
+        <v>0.711</v>
+      </c>
+      <c r="N20" s="12">
+        <v>0.667</v>
+      </c>
+      <c r="O20" s="12">
+        <v>0.552</v>
+      </c>
+      <c r="P20" s="12">
+        <v>0.964</v>
+      </c>
+      <c r="Q20" s="12">
+        <v>0.702</v>
+      </c>
+    </row>
+    <row r="21" ht="20.05" customHeight="1">
+      <c r="A21" s="10"/>
+      <c r="B21" t="s" s="11">
+        <v>14</v>
+      </c>
+      <c r="C21" s="12">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0.743</v>
+      </c>
+      <c r="F21" s="12">
+        <v>0.84</v>
+      </c>
+      <c r="G21" s="12">
+        <v>0.553</v>
+      </c>
+      <c r="H21" s="12">
+        <v>0.667</v>
+      </c>
+      <c r="I21" s="12">
+        <v>0.704</v>
+      </c>
+      <c r="J21" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K21" s="12">
+        <v>0.585</v>
+      </c>
+      <c r="L21" s="12">
+        <v>0.667</v>
+      </c>
+      <c r="M21" s="12">
+        <v>0.632</v>
+      </c>
+      <c r="N21" s="12">
+        <v>0.649</v>
+      </c>
+      <c r="O21" s="12">
+        <v>0.441</v>
+      </c>
+      <c r="P21" s="12">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="Q21" s="12">
+        <v>0.536</v>
+      </c>
+    </row>
+    <row r="22" ht="20.05" customHeight="1">
+      <c r="A22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="15">
+        <f>AVERAGE(C16,C17,C18,C19,C20,C21)</f>
+        <v>0.7511666666666666</v>
+      </c>
+      <c r="D22" s="15">
+        <f>AVERAGE(D16,D17,D18,D19,D20,D21)</f>
+        <v>0.6586666666666666</v>
+      </c>
+      <c r="E22" s="15">
+        <f>AVERAGE(E16,E17,E18,E19,E20,E21)</f>
+        <v>0.6983333333333334</v>
+      </c>
+      <c r="F22" s="15">
+        <f>AVERAGE(F16,F17,F18,F19,F20,F21)</f>
+        <v>0.7439999999999999</v>
+      </c>
+      <c r="G22" s="15">
+        <f>AVERAGE(G16,G17,G18,G19,G20,G21)</f>
+        <v>0.4721666666666666</v>
+      </c>
+      <c r="H22" s="15">
+        <f>AVERAGE(H16,H17,H18,H19,H20,H21)</f>
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="I22" s="15">
+        <f>AVERAGE(I16,I17,I18,I19,I20,I21)</f>
+        <v>0.6581666666666667</v>
+      </c>
+      <c r="J22" s="15">
+        <f>AVERAGE(J16,J17,J18,J19,J20,J21)</f>
+        <v>0.5048333333333334</v>
+      </c>
+      <c r="K22" s="15">
+        <f>AVERAGE(K16,K17,K18,K19,K20,K21)</f>
+        <v>0.5621666666666667</v>
+      </c>
+      <c r="L22" s="15">
+        <f>AVERAGE(L16,L17,L18,L19,L20,L21)</f>
+        <v>0.6558333333333333</v>
+      </c>
+      <c r="M22" s="15">
+        <f>AVERAGE(M16,M17,M18,M19,M20,M21)</f>
+        <v>0.586</v>
+      </c>
+      <c r="N22" s="15">
+        <f>AVERAGE(N16,N17,N18,N19,N20,N21)</f>
+        <v>0.613</v>
+      </c>
+      <c r="O22" s="15">
+        <f>AVERAGE(O16,O17,O18,O19,O20,O21)</f>
+        <v>0.494</v>
+      </c>
+      <c r="P22" s="15">
+        <f>AVERAGE(P16,P17,P18,P19,P20,P21)</f>
+        <v>0.8273333333333333</v>
+      </c>
+      <c r="Q22" s="15">
+        <f>AVERAGE(Q16,Q17,Q18,Q19,Q20,Q21)</f>
+        <v>0.6173333333333334</v>
+      </c>
+    </row>
+    <row r="23" ht="20.05" customHeight="1">
+      <c r="A23" t="s" s="17">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s" s="11">
+        <v>9</v>
+      </c>
+      <c r="C23" s="12">
+        <v>0.732</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0.695</v>
+      </c>
+      <c r="E23" s="12">
+        <v>0.713</v>
+      </c>
+      <c r="F23" s="12">
+        <v>0.765</v>
+      </c>
+      <c r="G23" s="12">
+        <v>0.22</v>
+      </c>
+      <c r="H23" s="12">
+        <v>0.342</v>
+      </c>
+      <c r="I23" s="12">
+        <v>0.613</v>
+      </c>
+      <c r="J23" s="12">
+        <v>0.322</v>
+      </c>
+      <c r="K23" s="12">
+        <v>0.422</v>
+      </c>
+      <c r="L23" s="12">
+        <v>0.596</v>
+      </c>
+      <c r="M23" s="12">
+        <v>0.475</v>
+      </c>
+      <c r="N23" s="12">
+        <v>0.528</v>
+      </c>
+      <c r="O23" s="12">
+        <v>0.554</v>
+      </c>
+      <c r="P23" s="12">
+        <v>0.864</v>
+      </c>
+      <c r="Q23" s="12">
+        <v>0.675</v>
+      </c>
+    </row>
+    <row r="24" ht="20.05" customHeight="1">
+      <c r="A24" s="10"/>
+      <c r="B24" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C24" s="12">
+        <v>0.866</v>
+      </c>
+      <c r="D24" s="12">
+        <v>0.806</v>
+      </c>
+      <c r="E24" s="12">
+        <v>0.835</v>
+      </c>
+      <c r="F24" s="12">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G24" s="12">
+        <v>0.472</v>
+      </c>
+      <c r="H24" s="12">
+        <v>0.596</v>
+      </c>
+      <c r="I24" s="12">
+        <v>0.792</v>
+      </c>
+      <c r="J24" s="12">
+        <v>0.583</v>
+      </c>
+      <c r="K24" s="12">
+        <v>0.672</v>
+      </c>
+      <c r="L24" s="12">
+        <v>0.878</v>
+      </c>
+      <c r="M24" s="12">
+        <v>0.597</v>
+      </c>
+      <c r="N24" s="12">
+        <v>0.711</v>
+      </c>
+      <c r="O24" s="12">
+        <v>0.455</v>
+      </c>
+      <c r="P24" s="12">
+        <v>0.764</v>
+      </c>
+      <c r="Q24" s="12">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="25" ht="20.05" customHeight="1">
+      <c r="A25" s="10"/>
+      <c r="B25" t="s" s="11">
+        <v>11</v>
+      </c>
+      <c r="C25" s="12">
+        <v>0.756</v>
+      </c>
+      <c r="D25" s="12">
+        <v>0.596</v>
+      </c>
+      <c r="E25" s="12">
+        <v>0.667</v>
+      </c>
+      <c r="F25" s="12">
+        <v>0.754</v>
+      </c>
+      <c r="G25" s="12">
+        <v>0.394</v>
+      </c>
+      <c r="H25" s="12">
+        <v>0.518</v>
+      </c>
+      <c r="I25" s="12">
+        <v>0.57</v>
+      </c>
+      <c r="J25" s="12">
+        <v>0.413</v>
+      </c>
+      <c r="K25" s="12">
+        <v>0.479</v>
+      </c>
+      <c r="L25" s="12">
+        <v>0.619</v>
+      </c>
+      <c r="M25" s="12">
+        <v>0.477</v>
+      </c>
+      <c r="N25" s="12">
+        <v>0.539</v>
+      </c>
+      <c r="O25" s="12">
+        <v>0.475</v>
+      </c>
+      <c r="P25" s="12">
         <v>0.697</v>
       </c>
-      <c r="N5" s="10">
+      <c r="Q25" s="12">
+        <v>0.5649999999999999</v>
+      </c>
+    </row>
+    <row r="26" ht="20.05" customHeight="1">
+      <c r="A26" s="10"/>
+      <c r="B26" t="s" s="11">
+        <v>12</v>
+      </c>
+      <c r="C26" s="12">
+        <v>0.714</v>
+      </c>
+      <c r="D26" s="12">
+        <v>0.484</v>
+      </c>
+      <c r="E26" s="12">
+        <v>0.577</v>
+      </c>
+      <c r="F26" s="12">
+        <v>0.611</v>
+      </c>
+      <c r="G26" s="12">
+        <v>0.355</v>
+      </c>
+      <c r="H26" s="12">
+        <v>0.449</v>
+      </c>
+      <c r="I26" s="12">
+        <v>0.611</v>
+      </c>
+      <c r="J26" s="12">
+        <v>0.71</v>
+      </c>
+      <c r="K26" s="12">
+        <v>0.657</v>
+      </c>
+      <c r="L26" s="12">
+        <v>0.571</v>
+      </c>
+      <c r="M26" s="12">
+        <v>0.645</v>
+      </c>
+      <c r="N26" s="12">
+        <v>0.606</v>
+      </c>
+      <c r="O26" s="12">
+        <v>0.492</v>
+      </c>
+      <c r="P26" s="12">
+        <v>0.968</v>
+      </c>
+      <c r="Q26" s="12">
+        <v>0.652</v>
+      </c>
+    </row>
+    <row r="27" ht="20.05" customHeight="1">
+      <c r="A27" s="10"/>
+      <c r="B27" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="C27" s="12">
+        <v>0.626</v>
+      </c>
+      <c r="D27" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="E27" s="12">
+        <v>0.655</v>
+      </c>
+      <c r="F27" s="12">
+        <v>0.628</v>
+      </c>
+      <c r="G27" s="12">
+        <v>0.59</v>
+      </c>
+      <c r="H27" s="12">
+        <v>0.609</v>
+      </c>
+      <c r="I27" s="12">
+        <v>0.584</v>
+      </c>
+      <c r="J27" s="12">
+        <v>0.542</v>
+      </c>
+      <c r="K27" s="12">
         <v>0.5629999999999999</v>
       </c>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="C6" s="10">
-        <v>0.625</v>
-      </c>
-      <c r="D6" s="10">
-        <v>0.323</v>
-      </c>
-      <c r="E6" s="10">
-        <v>0.426</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0.611</v>
-      </c>
-      <c r="G6" s="10">
-        <v>0.71</v>
-      </c>
-      <c r="H6" s="10">
-        <v>0.657</v>
-      </c>
-      <c r="I6" s="10">
-        <v>0.571</v>
-      </c>
-      <c r="J6" s="10">
+      <c r="L27" s="12">
+        <v>0.628</v>
+      </c>
+      <c r="M27" s="12">
+        <v>0.711</v>
+      </c>
+      <c r="N27" s="12">
+        <v>0.667</v>
+      </c>
+      <c r="O27" s="12">
+        <v>0.548</v>
+      </c>
+      <c r="P27" s="12">
+        <v>0.964</v>
+      </c>
+      <c r="Q27" s="12">
+        <v>0.699</v>
+      </c>
+    </row>
+    <row r="28" ht="20.05" customHeight="1">
+      <c r="A28" s="10"/>
+      <c r="B28" t="s" s="11">
+        <v>14</v>
+      </c>
+      <c r="C28" s="12">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="D28" s="12">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="E28" s="12">
+        <v>0.743</v>
+      </c>
+      <c r="F28" s="12">
+        <v>0.833</v>
+      </c>
+      <c r="G28" s="12">
+        <v>0.526</v>
+      </c>
+      <c r="H28" s="12">
         <v>0.645</v>
       </c>
-      <c r="K6" s="10">
-        <v>0.606</v>
-      </c>
-      <c r="L6" s="10">
-        <v>0.492</v>
-      </c>
-      <c r="M6" s="10">
-        <v>0.968</v>
-      </c>
-      <c r="N6" s="10">
-        <v>0.652</v>
-      </c>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="C7" s="10">
+      <c r="I28" s="12">
+        <v>0.704</v>
+      </c>
+      <c r="J28" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K28" s="12">
+        <v>0.585</v>
+      </c>
+      <c r="L28" s="12">
+        <v>0.667</v>
+      </c>
+      <c r="M28" s="12">
         <v>0.632</v>
       </c>
-      <c r="D7" s="10">
-        <v>0.578</v>
-      </c>
-      <c r="E7" s="10">
-        <v>0.604</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0.582</v>
-      </c>
-      <c r="G7" s="10">
-        <v>0.554</v>
-      </c>
-      <c r="H7" s="10">
-        <v>0.5679999999999999</v>
-      </c>
-      <c r="I7" s="10">
-        <v>0.604</v>
-      </c>
-      <c r="J7" s="10">
-        <v>0.699</v>
-      </c>
-      <c r="K7" s="10">
-        <v>0.648</v>
-      </c>
-      <c r="L7" s="10">
-        <v>0.544</v>
-      </c>
-      <c r="M7" s="10">
-        <v>0.964</v>
-      </c>
-      <c r="N7" s="10">
-        <v>0.696</v>
-      </c>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C8" s="10">
-        <v>0.862</v>
-      </c>
-      <c r="D8" s="10">
-        <v>0.658</v>
-      </c>
-      <c r="E8" s="10">
-        <v>0.746</v>
-      </c>
-      <c r="F8" s="10">
-        <v>0.704</v>
-      </c>
-      <c r="G8" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="H8" s="10">
-        <v>0.585</v>
-      </c>
-      <c r="I8" s="10">
-        <v>0.6860000000000001</v>
-      </c>
-      <c r="J8" s="10">
-        <v>0.632</v>
-      </c>
-      <c r="K8" s="10">
-        <v>0.658</v>
-      </c>
-      <c r="L8" s="10">
+      <c r="N28" s="12">
+        <v>0.649</v>
+      </c>
+      <c r="O28" s="12">
         <v>0.441</v>
       </c>
-      <c r="M8" s="10">
+      <c r="P28" s="12">
         <v>0.6840000000000001</v>
       </c>
-      <c r="N8" s="10">
+      <c r="Q28" s="12">
         <v>0.536</v>
       </c>
     </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="10">
-        <f>AVERAGE(C3,C4,C5,C6,C7,C8)</f>
-        <v>0.7695</v>
-      </c>
-      <c r="D9" s="10">
-        <f>AVERAGE(D3,D4,D5,D6,D7,D8)</f>
-        <v>0.5273333333333333</v>
-      </c>
-      <c r="E9" s="10">
-        <f>AVERAGE(E3,E4,E5,E6,E7,E8)</f>
-        <v>0.6115</v>
-      </c>
-      <c r="F9" s="10">
-        <f>AVERAGE(F3,F4,F5,F6,F7,F8)</f>
-        <v>0.6636666666666665</v>
-      </c>
-      <c r="G9" s="10">
-        <f>AVERAGE(G3,G4,G5,G6,G7,G8)</f>
-        <v>0.5073333333333333</v>
-      </c>
-      <c r="H9" s="10">
-        <f>AVERAGE(H3,H4,H5,H6,H7,H8)</f>
-        <v>0.5638333333333333</v>
-      </c>
-      <c r="I9" s="10">
-        <f>AVERAGE(I3,I4,I5,I6,I7,I8)</f>
-        <v>0.6411666666666666</v>
-      </c>
-      <c r="J9" s="10">
-        <f>AVERAGE(J3,J4,J5,J6,J7,J8)</f>
-        <v>0.5691666666666667</v>
-      </c>
-      <c r="K9" s="10">
-        <f>AVERAGE(K3,K4,K5,K6,K7,K8)</f>
-        <v>0.5964999999999999</v>
-      </c>
-      <c r="L9" s="10">
-        <f>AVERAGE(L3,L4,L5,L6,L7,L8)</f>
-        <v>0.4909999999999999</v>
-      </c>
-      <c r="M9" s="10">
-        <f>AVERAGE(M3,M4,M5,M6,M7,M8)</f>
-        <v>0.8203333333333332</v>
-      </c>
-      <c r="N9" s="10">
-        <f>AVERAGE(N3,N4,N5,N6,N7,N8)</f>
-        <v>0.6128333333333333</v>
-      </c>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="12">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s" s="9">
-        <v>7</v>
-      </c>
-      <c r="C10" s="10">
-        <v>0.6919999999999999</v>
-      </c>
-      <c r="D10" s="10">
-        <v>0.305</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0.424</v>
-      </c>
-      <c r="F10" s="10">
-        <v>0.613</v>
-      </c>
-      <c r="G10" s="10">
-        <v>0.322</v>
-      </c>
-      <c r="H10" s="10">
-        <v>0.422</v>
-      </c>
-      <c r="I10" s="10">
-        <v>0.587</v>
-      </c>
-      <c r="J10" s="10">
-        <v>0.458</v>
-      </c>
-      <c r="K10" s="10">
-        <v>0.514</v>
-      </c>
-      <c r="L10" s="10">
-        <v>0.548</v>
-      </c>
-      <c r="M10" s="10">
-        <v>0.864</v>
-      </c>
-      <c r="N10" s="10">
-        <v>0.671</v>
-      </c>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="10">
-        <v>0.867</v>
-      </c>
-      <c r="D11" s="10">
-        <v>0.722</v>
-      </c>
-      <c r="E11" s="10">
-        <v>0.788</v>
-      </c>
-      <c r="F11" s="10">
-        <v>0.867</v>
-      </c>
-      <c r="G11" s="10">
-        <v>0.542</v>
-      </c>
-      <c r="H11" s="10">
-        <v>0.667</v>
-      </c>
-      <c r="I11" s="10">
-        <v>0.88</v>
-      </c>
-      <c r="J11" s="10">
-        <v>0.611</v>
-      </c>
-      <c r="K11" s="10">
-        <v>0.721</v>
-      </c>
-      <c r="L11" s="10">
-        <v>0.459</v>
-      </c>
-      <c r="M11" s="10">
-        <v>0.778</v>
-      </c>
-      <c r="N11" s="10">
-        <v>0.577</v>
-      </c>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="10">
-        <v>0.776</v>
-      </c>
-      <c r="D12" s="10">
-        <v>0.349</v>
-      </c>
-      <c r="E12" s="10">
-        <v>0.481</v>
-      </c>
-      <c r="F12" s="10">
-        <v>0.57</v>
-      </c>
-      <c r="G12" s="10">
-        <v>0.413</v>
-      </c>
-      <c r="H12" s="10">
-        <v>0.479</v>
-      </c>
-      <c r="I12" s="10">
-        <v>0.602</v>
-      </c>
-      <c r="J12" s="10">
-        <v>0.459</v>
-      </c>
-      <c r="K12" s="10">
-        <v>0.521</v>
-      </c>
-      <c r="L12" s="10">
-        <v>0.472</v>
-      </c>
-      <c r="M12" s="10">
-        <v>0.706</v>
-      </c>
-      <c r="N12" s="10">
-        <v>0.5659999999999999</v>
-      </c>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="10">
-        <v>0.643</v>
-      </c>
-      <c r="D13" s="10">
-        <v>0.29</v>
-      </c>
-      <c r="E13" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="F13" s="10">
-        <v>0.611</v>
-      </c>
-      <c r="G13" s="10">
-        <v>0.71</v>
-      </c>
-      <c r="H13" s="10">
-        <v>0.657</v>
-      </c>
-      <c r="I13" s="10">
-        <v>0.571</v>
-      </c>
-      <c r="J13" s="10">
-        <v>0.645</v>
-      </c>
-      <c r="K13" s="10">
-        <v>0.606</v>
-      </c>
-      <c r="L13" s="10">
-        <v>0.492</v>
-      </c>
-      <c r="M13" s="10">
-        <v>0.968</v>
-      </c>
-      <c r="N13" s="10">
-        <v>0.652</v>
-      </c>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="8"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="10">
-        <v>0.646</v>
-      </c>
-      <c r="D14" s="10">
-        <v>0.614</v>
-      </c>
-      <c r="E14" s="10">
-        <v>0.63</v>
-      </c>
-      <c r="F14" s="10">
-        <v>0.584</v>
-      </c>
-      <c r="G14" s="10">
-        <v>0.542</v>
-      </c>
-      <c r="H14" s="10">
-        <v>0.5629999999999999</v>
-      </c>
-      <c r="I14" s="10">
-        <v>0.628</v>
-      </c>
-      <c r="J14" s="10">
-        <v>0.711</v>
-      </c>
-      <c r="K14" s="10">
-        <v>0.667</v>
-      </c>
-      <c r="L14" s="10">
-        <v>0.552</v>
-      </c>
-      <c r="M14" s="10">
-        <v>0.964</v>
-      </c>
-      <c r="N14" s="10">
-        <v>0.702</v>
-      </c>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="8"/>
-      <c r="B15" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C15" s="10">
-        <v>0.84</v>
-      </c>
-      <c r="D15" s="10">
-        <v>0.553</v>
-      </c>
-      <c r="E15" s="10">
-        <v>0.667</v>
-      </c>
-      <c r="F15" s="10">
-        <v>0.704</v>
-      </c>
-      <c r="G15" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="H15" s="10">
-        <v>0.585</v>
-      </c>
-      <c r="I15" s="10">
-        <v>0.667</v>
-      </c>
-      <c r="J15" s="10">
-        <v>0.632</v>
-      </c>
-      <c r="K15" s="10">
-        <v>0.649</v>
-      </c>
-      <c r="L15" s="10">
-        <v>0.441</v>
-      </c>
-      <c r="M15" s="10">
-        <v>0.6840000000000001</v>
-      </c>
-      <c r="N15" s="10">
-        <v>0.536</v>
-      </c>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="8"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="10">
-        <f>AVERAGE(C10,C11,C12,C13,C14,C15)</f>
-        <v>0.7439999999999999</v>
-      </c>
-      <c r="D16" s="10">
-        <f>AVERAGE(D10,D11,D12,D13,D14,D15)</f>
-        <v>0.4721666666666666</v>
-      </c>
-      <c r="E16" s="10">
-        <f>AVERAGE(E10,E11,E12,E13,E14,E15)</f>
-        <v>0.5649999999999999</v>
-      </c>
-      <c r="F16" s="10">
-        <f>AVERAGE(F10,F11,F12,F13,F14,F15)</f>
-        <v>0.6581666666666667</v>
-      </c>
-      <c r="G16" s="10">
-        <f>AVERAGE(G10,G11,G12,G13,G14,G15)</f>
-        <v>0.5048333333333334</v>
-      </c>
-      <c r="H16" s="10">
-        <f>AVERAGE(H10,H11,H12,H13,H14,H15)</f>
-        <v>0.5621666666666667</v>
-      </c>
-      <c r="I16" s="10">
-        <f>AVERAGE(I10,I11,I12,I13,I14,I15)</f>
-        <v>0.6558333333333333</v>
-      </c>
-      <c r="J16" s="10">
-        <f>AVERAGE(J10,J11,J12,J13,J14,J15)</f>
-        <v>0.586</v>
-      </c>
-      <c r="K16" s="10">
-        <f>AVERAGE(K10,K11,K12,K13,K14,K15)</f>
-        <v>0.613</v>
-      </c>
-      <c r="L16" s="10">
-        <f>AVERAGE(L10,L11,L12,L13,L14,L15)</f>
-        <v>0.494</v>
-      </c>
-      <c r="M16" s="10">
-        <f>AVERAGE(M10,M11,M12,M13,M14,M15)</f>
-        <v>0.8273333333333333</v>
-      </c>
-      <c r="N16" s="10">
-        <f>AVERAGE(N10,N11,N12,N13,N14,N15)</f>
-        <v>0.6173333333333334</v>
-      </c>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" t="s" s="12">
-        <v>14</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="10">
-        <v>0.765</v>
-      </c>
-      <c r="D17" s="10">
-        <v>0.22</v>
-      </c>
-      <c r="E17" s="10">
-        <v>0.342</v>
-      </c>
-      <c r="F17" s="10">
-        <v>0.613</v>
-      </c>
-      <c r="G17" s="10">
-        <v>0.322</v>
-      </c>
-      <c r="H17" s="10">
-        <v>0.422</v>
-      </c>
-      <c r="I17" s="10">
-        <v>0.596</v>
-      </c>
-      <c r="J17" s="10">
-        <v>0.475</v>
-      </c>
-      <c r="K17" s="10">
-        <v>0.528</v>
-      </c>
-      <c r="L17" s="10">
-        <v>0.554</v>
-      </c>
-      <c r="M17" s="10">
-        <v>0.864</v>
-      </c>
-      <c r="N17" s="10">
-        <v>0.675</v>
-      </c>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="8"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="10">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="D18" s="10">
-        <v>0.472</v>
-      </c>
-      <c r="E18" s="10">
-        <v>0.596</v>
-      </c>
-      <c r="F18" s="10">
-        <v>0.792</v>
-      </c>
-      <c r="G18" s="10">
-        <v>0.583</v>
-      </c>
-      <c r="H18" s="10">
-        <v>0.672</v>
-      </c>
-      <c r="I18" s="10">
-        <v>0.878</v>
-      </c>
-      <c r="J18" s="10">
-        <v>0.597</v>
-      </c>
-      <c r="K18" s="10">
-        <v>0.711</v>
-      </c>
-      <c r="L18" s="10">
-        <v>0.455</v>
-      </c>
-      <c r="M18" s="10">
-        <v>0.764</v>
-      </c>
-      <c r="N18" s="10">
-        <v>0.57</v>
-      </c>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="8"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="10">
-        <v>0.754</v>
-      </c>
-      <c r="D19" s="10">
-        <v>0.394</v>
-      </c>
-      <c r="E19" s="10">
-        <v>0.518</v>
-      </c>
-      <c r="F19" s="10">
-        <v>0.57</v>
-      </c>
-      <c r="G19" s="10">
-        <v>0.413</v>
-      </c>
-      <c r="H19" s="10">
-        <v>0.479</v>
-      </c>
-      <c r="I19" s="10">
-        <v>0.619</v>
-      </c>
-      <c r="J19" s="10">
-        <v>0.477</v>
-      </c>
-      <c r="K19" s="10">
-        <v>0.539</v>
-      </c>
-      <c r="L19" s="10">
-        <v>0.475</v>
-      </c>
-      <c r="M19" s="10">
-        <v>0.697</v>
-      </c>
-      <c r="N19" s="10">
-        <v>0.5649999999999999</v>
-      </c>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="8"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="10">
-        <v>0.611</v>
-      </c>
-      <c r="D20" s="10">
-        <v>0.355</v>
-      </c>
-      <c r="E20" s="10">
-        <v>0.449</v>
-      </c>
-      <c r="F20" s="10">
-        <v>0.611</v>
-      </c>
-      <c r="G20" s="10">
-        <v>0.71</v>
-      </c>
-      <c r="H20" s="10">
-        <v>0.657</v>
-      </c>
-      <c r="I20" s="10">
-        <v>0.571</v>
-      </c>
-      <c r="J20" s="10">
-        <v>0.645</v>
-      </c>
-      <c r="K20" s="10">
-        <v>0.606</v>
-      </c>
-      <c r="L20" s="10">
-        <v>0.492</v>
-      </c>
-      <c r="M20" s="10">
-        <v>0.968</v>
-      </c>
-      <c r="N20" s="10">
-        <v>0.652</v>
-      </c>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="8"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="10">
-        <v>0.628</v>
-      </c>
-      <c r="D21" s="10">
-        <v>0.59</v>
-      </c>
-      <c r="E21" s="10">
-        <v>0.609</v>
-      </c>
-      <c r="F21" s="10">
-        <v>0.584</v>
-      </c>
-      <c r="G21" s="10">
-        <v>0.542</v>
-      </c>
-      <c r="H21" s="10">
-        <v>0.5629999999999999</v>
-      </c>
-      <c r="I21" s="10">
-        <v>0.628</v>
-      </c>
-      <c r="J21" s="10">
-        <v>0.711</v>
-      </c>
-      <c r="K21" s="10">
-        <v>0.667</v>
-      </c>
-      <c r="L21" s="10">
-        <v>0.548</v>
-      </c>
-      <c r="M21" s="10">
-        <v>0.964</v>
-      </c>
-      <c r="N21" s="10">
-        <v>0.699</v>
-      </c>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="8"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="10">
-        <v>0.833</v>
-      </c>
-      <c r="D22" s="10">
-        <v>0.526</v>
-      </c>
-      <c r="E22" s="10">
-        <v>0.645</v>
-      </c>
-      <c r="F22" s="10">
-        <v>0.704</v>
-      </c>
-      <c r="G22" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="H22" s="10">
-        <v>0.585</v>
-      </c>
-      <c r="I22" s="10">
-        <v>0.667</v>
-      </c>
-      <c r="J22" s="10">
-        <v>0.632</v>
-      </c>
-      <c r="K22" s="10">
-        <v>0.649</v>
-      </c>
-      <c r="L22" s="10">
-        <v>0.441</v>
-      </c>
-      <c r="M22" s="10">
-        <v>0.6840000000000001</v>
-      </c>
-      <c r="N22" s="10">
-        <v>0.536</v>
-      </c>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="8"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="10">
-        <f>AVERAGE(C17,C18,C19,C20,C21,C22)</f>
+    <row r="29" ht="20.05" customHeight="1">
+      <c r="A29" s="18"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="15">
+        <f>AVERAGE(C23,C24,C25,C26,C27,C28)</f>
+        <v>0.7511666666666666</v>
+      </c>
+      <c r="D29" s="15">
+        <f>AVERAGE(D23,D24,D25,D26,D27,D28)</f>
+        <v>0.6586666666666666</v>
+      </c>
+      <c r="E29" s="15">
+        <f>AVERAGE(E23,E24,E25,E26,E27,E28)</f>
+        <v>0.6983333333333334</v>
+      </c>
+      <c r="F29" s="15">
+        <f>AVERAGE(F23,F24,F25,F26,F27,F28)</f>
         <v>0.7335000000000002</v>
       </c>
-      <c r="D23" s="10">
-        <f>AVERAGE(D17,D18,D19,D20,D21,D22)</f>
+      <c r="G29" s="15">
+        <f>AVERAGE(G23,G24,G25,G26,G27,G28)</f>
         <v>0.4261666666666666</v>
       </c>
-      <c r="E23" s="10">
-        <f>AVERAGE(E17,E18,E19,E20,E21,E22)</f>
+      <c r="H29" s="15">
+        <f>AVERAGE(H23,H24,H25,H26,H27,H28)</f>
         <v>0.5265000000000001</v>
       </c>
-      <c r="F23" s="10">
-        <f>AVERAGE(F17,F18,F19,F20,F21,F22)</f>
+      <c r="I29" s="15">
+        <f>AVERAGE(I23,I24,I25,I26,I27,I28)</f>
         <v>0.6456666666666667</v>
       </c>
-      <c r="G23" s="10">
-        <f>AVERAGE(G17,G18,G19,G20,G21,G22)</f>
+      <c r="J29" s="15">
+        <f>AVERAGE(J23,J24,J25,J26,J27,J28)</f>
         <v>0.5116666666666667</v>
       </c>
-      <c r="H23" s="10">
-        <f>AVERAGE(H17,H18,H19,H20,H21,H22)</f>
+      <c r="K29" s="15">
+        <f>AVERAGE(K23,K24,K25,K26,K27,K28)</f>
         <v>0.5630000000000001</v>
       </c>
-      <c r="I23" s="10">
-        <f>AVERAGE(I17,I18,I19,I20,I21,I22)</f>
+      <c r="L29" s="15">
+        <f>AVERAGE(L23,L24,L25,L26,L27,L28)</f>
         <v>0.6598333333333333</v>
       </c>
-      <c r="J23" s="10">
-        <f>AVERAGE(J17,J18,J19,J20,J21,J22)</f>
+      <c r="M29" s="15">
+        <f>AVERAGE(M23,M24,M25,M26,M27,M28)</f>
         <v>0.5895</v>
       </c>
-      <c r="K23" s="10">
-        <f>AVERAGE(K17,K18,K19,K20,K21,K22)</f>
+      <c r="N29" s="15">
+        <f>AVERAGE(N23,N24,N25,N26,N27,N28)</f>
         <v>0.6166666666666667</v>
       </c>
-      <c r="L23" s="10">
-        <f>AVERAGE(L17,L18,L19,L20,L21,L22)</f>
+      <c r="O29" s="15">
+        <f>AVERAGE(O23,O24,O25,O26,O27,O28)</f>
         <v>0.4941666666666666</v>
       </c>
-      <c r="M23" s="10">
-        <f>AVERAGE(M17,M18,M19,M20,M21,M22)</f>
+      <c r="P29" s="15">
+        <f>AVERAGE(P23,P24,P25,P26,P27,P28)</f>
         <v>0.8235</v>
       </c>
-      <c r="N23" s="10">
-        <f>AVERAGE(N17,N18,N19,N20,N21,N22)</f>
+      <c r="Q29" s="15">
+        <f>AVERAGE(Q23,Q24,Q25,Q26,Q27,Q28)</f>
         <v>0.6161666666666666</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:N1"/>
-  </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="16.3516" style="20" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="20" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="20" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="20" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="20" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="20" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="20" customWidth="1"/>
+    <col min="8" max="8" width="16.3516" style="20" customWidth="1"/>
+    <col min="9" max="9" width="16.3516" style="20" customWidth="1"/>
+    <col min="10" max="10" width="16.3516" style="20" customWidth="1"/>
+    <col min="11" max="11" width="16.3516" style="20" customWidth="1"/>
+    <col min="12" max="12" width="16.3516" style="20" customWidth="1"/>
+    <col min="13" max="13" width="16.3516" style="20" customWidth="1"/>
+    <col min="14" max="14" width="16.3516" style="20" customWidth="1"/>
+    <col min="15" max="256" width="16.3516" style="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20.25" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" ht="20.25" customHeight="1">
+      <c r="A2" t="s" s="5">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.727</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.542</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.621</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.727</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0.542</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0.621</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0.727</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0.542</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0.621</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0.727</v>
+      </c>
+      <c r="M2" s="7">
+        <v>0.542</v>
+      </c>
+      <c r="N2" s="7">
+        <v>0.621</v>
+      </c>
+    </row>
+    <row r="3" ht="20.05" customHeight="1">
+      <c r="A3" s="10"/>
+      <c r="B3" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0.806</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0.806</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0.806</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0.806</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0.806</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0.806</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0.806</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0.806</v>
+      </c>
+      <c r="K3" s="12">
+        <v>0.806</v>
+      </c>
+      <c r="L3" s="12">
+        <v>0.806</v>
+      </c>
+      <c r="M3" s="12">
+        <v>0.806</v>
+      </c>
+      <c r="N3" s="12">
+        <v>0.806</v>
+      </c>
+    </row>
+    <row r="4" ht="20.05" customHeight="1">
+      <c r="A4" s="10"/>
+      <c r="B4" t="s" s="11">
+        <v>11</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0.667</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.55</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.603</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0.667</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0.55</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0.603</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0.667</v>
+      </c>
+      <c r="J4" s="12">
+        <v>0.55</v>
+      </c>
+      <c r="K4" s="12">
+        <v>0.603</v>
+      </c>
+      <c r="L4" s="12">
+        <v>0.667</v>
+      </c>
+      <c r="M4" s="12">
+        <v>0.55</v>
+      </c>
+      <c r="N4" s="12">
+        <v>0.603</v>
+      </c>
+    </row>
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" s="10"/>
+      <c r="B5" t="s" s="11">
+        <v>12</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0.6919999999999999</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0.581</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.632</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.6919999999999999</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.581</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0.632</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0.6919999999999999</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0.581</v>
+      </c>
+      <c r="K5" s="12">
+        <v>0.632</v>
+      </c>
+      <c r="L5" s="12">
+        <v>0.6919999999999999</v>
+      </c>
+      <c r="M5" s="12">
+        <v>0.581</v>
+      </c>
+      <c r="N5" s="12">
+        <v>0.632</v>
+      </c>
+    </row>
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" s="10"/>
+      <c r="B6" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0.582</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0.582</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0.582</v>
+      </c>
+      <c r="J6" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="K6" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="L6" s="12">
+        <v>0.582</v>
+      </c>
+      <c r="M6" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="N6" s="12">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="7" ht="20.05" customHeight="1">
+      <c r="A7" s="10"/>
+      <c r="B7" t="s" s="11">
+        <v>14</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0.743</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0.743</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="J7" s="12">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="K7" s="12">
+        <v>0.743</v>
+      </c>
+      <c r="L7" s="12">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="M7" s="12">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="N7" s="12">
+        <v>0.743</v>
+      </c>
+    </row>
+    <row r="8" ht="20.05" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15">
+        <f>AVERAGE(C2,C3,C4,C5,C6,C7)</f>
+        <v>0.7145</v>
+      </c>
+      <c r="D8" s="15">
+        <f>AVERAGE(D2,D3,D4,D5,D6,D7)</f>
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="E8" s="15">
+        <f>AVERAGE(E2,E3,E4,E5,E6,E7)</f>
+        <v>0.6725</v>
+      </c>
+      <c r="F8" s="15">
+        <f>AVERAGE(F2,F3,F4,F5,F6,F7)</f>
+        <v>0.7145</v>
+      </c>
+      <c r="G8" s="15">
+        <f>AVERAGE(G2,G3,G4,G5,G6,G7)</f>
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="H8" s="15">
+        <f>AVERAGE(H2,H3,H4,H5,H6,H7)</f>
+        <v>0.6725</v>
+      </c>
+      <c r="I8" s="15">
+        <f>AVERAGE(I2,I3,I4,I5,I6,I7)</f>
+        <v>0.7145</v>
+      </c>
+      <c r="J8" s="15">
+        <f>AVERAGE(J2,J3,J4,J5,J6,J7)</f>
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="K8" s="15">
+        <f>AVERAGE(K2,K3,K4,K5,K6,K7)</f>
+        <v>0.6725</v>
+      </c>
+      <c r="L8" s="15">
+        <f>AVERAGE(L2,L3,L4,L5,L6,L7)</f>
+        <v>0.7145</v>
+      </c>
+      <c r="M8" s="15">
+        <f>AVERAGE(M2,M3,M4,M5,M6,M7)</f>
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="N8" s="15">
+        <f>AVERAGE(N2,N3,N4,N5,N6,N7)</f>
+        <v>0.6725</v>
+      </c>
+    </row>
+    <row r="9" ht="20.05" customHeight="1">
+      <c r="A9" t="s" s="17">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s" s="11">
+        <v>9</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0.708</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0.576</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0.636</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0.708</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0.576</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0.636</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0.714</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0.593</v>
+      </c>
+      <c r="K9" s="12">
+        <v>0.648</v>
+      </c>
+      <c r="L9" s="12">
+        <v>0.714</v>
+      </c>
+      <c r="M9" s="12">
+        <v>0.593</v>
+      </c>
+      <c r="N9" s="12">
+        <v>0.648</v>
+      </c>
+    </row>
+    <row r="10" ht="20.05" customHeight="1">
+      <c r="A10" s="10"/>
+      <c r="B10" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0.74</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.745</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0.74</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0.745</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0.74</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="K10" s="12">
+        <v>0.745</v>
+      </c>
+      <c r="L10" s="12">
+        <v>0.74</v>
+      </c>
+      <c r="M10" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="N10" s="12">
+        <v>0.745</v>
+      </c>
+    </row>
+    <row r="11" ht="20.05" customHeight="1">
+      <c r="A11" s="10"/>
+      <c r="B11" t="s" s="11">
+        <v>11</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0.571</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0.147</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.234</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0.571</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0.147</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0.234</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0.571</v>
+      </c>
+      <c r="J11" s="12">
+        <v>0.147</v>
+      </c>
+      <c r="K11" s="12">
+        <v>0.234</v>
+      </c>
+      <c r="L11" s="12">
+        <v>0.571</v>
+      </c>
+      <c r="M11" s="12">
+        <v>0.147</v>
+      </c>
+      <c r="N11" s="12">
+        <v>0.234</v>
+      </c>
+    </row>
+    <row r="12" ht="20.05" customHeight="1">
+      <c r="A12" s="10"/>
+      <c r="B12" t="s" s="11">
+        <v>12</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0.667</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0.452</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.538</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0.667</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0.452</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0.538</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0.667</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0.452</v>
+      </c>
+      <c r="K12" s="12">
+        <v>0.538</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0.667</v>
+      </c>
+      <c r="M12" s="12">
+        <v>0.452</v>
+      </c>
+      <c r="N12" s="12">
+        <v>0.538</v>
+      </c>
+    </row>
+    <row r="13" ht="20.05" customHeight="1">
+      <c r="A13" s="10"/>
+      <c r="B13" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0.67</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0.831</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0.742</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0.67</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0.831</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0.742</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0.67</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0.831</v>
+      </c>
+      <c r="K13" s="12">
+        <v>0.742</v>
+      </c>
+      <c r="L13" s="12">
+        <v>0.67</v>
+      </c>
+      <c r="M13" s="12">
+        <v>0.831</v>
+      </c>
+      <c r="N13" s="12">
+        <v>0.742</v>
+      </c>
+    </row>
+    <row r="14" ht="20.05" customHeight="1">
+      <c r="A14" s="10"/>
+      <c r="B14" t="s" s="11">
+        <v>14</v>
+      </c>
+      <c r="C14" s="12">
+        <v>0.735</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0.658</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0.694</v>
+      </c>
+      <c r="F14" s="12">
+        <v>0.735</v>
+      </c>
+      <c r="G14" s="12">
+        <v>0.658</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0.694</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0.735</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0.658</v>
+      </c>
+      <c r="K14" s="12">
+        <v>0.694</v>
+      </c>
+      <c r="L14" s="12">
+        <v>0.735</v>
+      </c>
+      <c r="M14" s="12">
+        <v>0.658</v>
+      </c>
+      <c r="N14" s="12">
+        <v>0.694</v>
+      </c>
+    </row>
+    <row r="15" ht="20.05" customHeight="1">
+      <c r="A15" s="10"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15">
+        <f>AVERAGE(C9,C10,C11,C12,C13,C14)</f>
+        <v>0.6818333333333334</v>
+      </c>
+      <c r="D15" s="15">
+        <f>AVERAGE(D9,D10,D11,D12,D13,D14)</f>
+        <v>0.5690000000000001</v>
+      </c>
+      <c r="E15" s="15">
+        <f>AVERAGE(E9,E10,E11,E12,E13,E14)</f>
+        <v>0.5981666666666666</v>
+      </c>
+      <c r="F15" s="15">
+        <f>AVERAGE(F9,F10,F11,F12,F13,F14)</f>
+        <v>0.6818333333333334</v>
+      </c>
+      <c r="G15" s="15">
+        <f>AVERAGE(G9,G10,G11,G12,G13,G14)</f>
+        <v>0.5690000000000001</v>
+      </c>
+      <c r="H15" s="15">
+        <f>AVERAGE(H9,H10,H11,H12,H13,H14)</f>
+        <v>0.5981666666666666</v>
+      </c>
+      <c r="I15" s="15">
+        <f>AVERAGE(I9,I10,I11,I12,I13,I14)</f>
+        <v>0.6828333333333334</v>
+      </c>
+      <c r="J15" s="15">
+        <f>AVERAGE(J9,J10,J11,J12,J13,J14)</f>
+        <v>0.5718333333333333</v>
+      </c>
+      <c r="K15" s="15">
+        <f>AVERAGE(K9,K10,K11,K12,K13,K14)</f>
+        <v>0.6001666666666666</v>
+      </c>
+      <c r="L15" s="15">
+        <f>AVERAGE(L9,L10,L11,L12,L13,L14)</f>
+        <v>0.6828333333333334</v>
+      </c>
+      <c r="M15" s="15">
+        <f>AVERAGE(M9,M10,M11,M12,M13,M14)</f>
+        <v>0.5718333333333333</v>
+      </c>
+      <c r="N15" s="15">
+        <f>AVERAGE(N9,N10,N11,N12,N13,N14)</f>
+        <v>0.6001666666666666</v>
+      </c>
+    </row>
+    <row r="16" ht="20.05" customHeight="1">
+      <c r="A16" t="s" s="17">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s" s="11">
+        <v>9</v>
+      </c>
+      <c r="C16" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0.508</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0.606</v>
+      </c>
+      <c r="F16" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="G16" s="12">
+        <v>0.508</v>
+      </c>
+      <c r="H16" s="12">
+        <v>0.606</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="J16" s="12">
+        <v>0.508</v>
+      </c>
+      <c r="K16" s="12">
+        <v>0.606</v>
+      </c>
+      <c r="L16" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="M16" s="12">
+        <v>0.508</v>
+      </c>
+      <c r="N16" s="12">
+        <v>0.606</v>
+      </c>
+    </row>
+    <row r="17" ht="20.05" customHeight="1">
+      <c r="A17" s="10"/>
+      <c r="B17" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0.695</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0.792</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0.74</v>
+      </c>
+      <c r="F17" s="12">
+        <v>0.695</v>
+      </c>
+      <c r="G17" s="12">
+        <v>0.792</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0.74</v>
+      </c>
+      <c r="I17" s="12">
+        <v>0.699</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0.806</v>
+      </c>
+      <c r="K17" s="12">
+        <v>0.748</v>
+      </c>
+      <c r="L17" s="12">
+        <v>0.699</v>
+      </c>
+      <c r="M17" s="12">
+        <v>0.806</v>
+      </c>
+      <c r="N17" s="12">
+        <v>0.748</v>
+      </c>
+    </row>
+    <row r="18" ht="20.05" customHeight="1">
+      <c r="A18" s="10"/>
+      <c r="B18" t="s" s="11">
+        <v>11</v>
+      </c>
+      <c r="C18" s="12">
+        <v>0.619</v>
+      </c>
+      <c r="D18" s="12">
+        <v>0.67</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0.643</v>
+      </c>
+      <c r="F18" s="12">
+        <v>0.653</v>
+      </c>
+      <c r="G18" s="12">
+        <v>0.706</v>
+      </c>
+      <c r="H18" s="12">
+        <v>0.678</v>
+      </c>
+      <c r="I18" s="12">
+        <v>0.619</v>
+      </c>
+      <c r="J18" s="12">
+        <v>0.67</v>
+      </c>
+      <c r="K18" s="12">
+        <v>0.643</v>
+      </c>
+      <c r="L18" s="12">
+        <v>0.653</v>
+      </c>
+      <c r="M18" s="12">
+        <v>0.706</v>
+      </c>
+      <c r="N18" s="12">
+        <v>0.678</v>
+      </c>
+    </row>
+    <row r="19" ht="20.05" customHeight="1">
+      <c r="A19" s="10"/>
+      <c r="B19" t="s" s="11">
+        <v>12</v>
+      </c>
+      <c r="C19" s="12">
+        <v>0.522</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0.387</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0.444</v>
+      </c>
+      <c r="F19" s="12">
+        <v>0.522</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0.387</v>
+      </c>
+      <c r="H19" s="12">
+        <v>0.444</v>
+      </c>
+      <c r="I19" s="12">
+        <v>0.522</v>
+      </c>
+      <c r="J19" s="12">
+        <v>0.387</v>
+      </c>
+      <c r="K19" s="12">
+        <v>0.444</v>
+      </c>
+      <c r="L19" s="12">
+        <v>0.522</v>
+      </c>
+      <c r="M19" s="12">
+        <v>0.387</v>
+      </c>
+      <c r="N19" s="12">
+        <v>0.444</v>
+      </c>
+    </row>
+    <row r="20" ht="20.05" customHeight="1">
+      <c r="A20" s="10"/>
+      <c r="B20" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="C20" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="E20" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="F20" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="G20" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="H20" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="I20" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="J20" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="K20" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="L20" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="M20" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="N20" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+    </row>
+    <row r="21" ht="20.05" customHeight="1">
+      <c r="A21" s="10"/>
+      <c r="B21" t="s" s="11">
+        <v>14</v>
+      </c>
+      <c r="C21" s="12">
+        <v>0.724</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0.553</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0.627</v>
+      </c>
+      <c r="F21" s="12">
+        <v>0.724</v>
+      </c>
+      <c r="G21" s="12">
+        <v>0.553</v>
+      </c>
+      <c r="H21" s="12">
+        <v>0.627</v>
+      </c>
+      <c r="I21" s="12">
+        <v>0.724</v>
+      </c>
+      <c r="J21" s="12">
+        <v>0.553</v>
+      </c>
+      <c r="K21" s="12">
+        <v>0.627</v>
+      </c>
+      <c r="L21" s="12">
+        <v>0.724</v>
+      </c>
+      <c r="M21" s="12">
+        <v>0.553</v>
+      </c>
+      <c r="N21" s="12">
+        <v>0.627</v>
+      </c>
+    </row>
+    <row r="22" ht="20.05" customHeight="1">
+      <c r="A22" s="10"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15">
+        <f>AVERAGE(C16,C17,C18,C19,C20,C21)</f>
+        <v>0.6661666666666668</v>
+      </c>
+      <c r="D22" s="15">
+        <f>AVERAGE(D16,D17,D18,D19,D20,D21)</f>
+        <v>0.5995</v>
+      </c>
+      <c r="E22" s="15">
+        <f>AVERAGE(E16,E17,E18,E19,E20,E21)</f>
+        <v>0.6244999999999999</v>
+      </c>
+      <c r="F22" s="15">
+        <f>AVERAGE(F16,F17,F18,F19,F20,F21)</f>
+        <v>0.6718333333333334</v>
+      </c>
+      <c r="G22" s="15">
+        <f>AVERAGE(G16,G17,G18,G19,G20,G21)</f>
+        <v>0.6055</v>
+      </c>
+      <c r="H22" s="15">
+        <f>AVERAGE(H16,H17,H18,H19,H20,H21)</f>
+        <v>0.6303333333333333</v>
+      </c>
+      <c r="I22" s="15">
+        <f>AVERAGE(I16,I17,I18,I19,I20,I21)</f>
+        <v>0.6668333333333334</v>
+      </c>
+      <c r="J22" s="15">
+        <f>AVERAGE(J16,J17,J18,J19,J20,J21)</f>
+        <v>0.6018333333333333</v>
+      </c>
+      <c r="K22" s="15">
+        <f>AVERAGE(K16,K17,K18,K19,K20,K21)</f>
+        <v>0.6258333333333334</v>
+      </c>
+      <c r="L22" s="15">
+        <f>AVERAGE(L16,L17,L18,L19,L20,L21)</f>
+        <v>0.6725</v>
+      </c>
+      <c r="M22" s="15">
+        <f>AVERAGE(M16,M17,M18,M19,M20,M21)</f>
+        <v>0.6078333333333333</v>
+      </c>
+      <c r="N22" s="15">
+        <f>AVERAGE(N16,N17,N18,N19,N20,N21)</f>
+        <v>0.6316666666666667</v>
+      </c>
+    </row>
+    <row r="23" ht="20.05" customHeight="1">
+      <c r="A23" t="s" s="17">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s" s="11">
+        <v>9</v>
+      </c>
+      <c r="C23" s="12">
+        <v>0.726</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0.763</v>
+      </c>
+      <c r="E23" s="12">
+        <v>0.744</v>
+      </c>
+      <c r="F23" s="12">
+        <v>0.726</v>
+      </c>
+      <c r="G23" s="12">
+        <v>0.763</v>
+      </c>
+      <c r="H23" s="12">
+        <v>0.744</v>
+      </c>
+      <c r="I23" s="12">
+        <v>0.8159999999999999</v>
+      </c>
+      <c r="J23" s="12">
+        <v>0.678</v>
+      </c>
+      <c r="K23" s="12">
+        <v>0.741</v>
+      </c>
+      <c r="L23" s="12">
+        <v>0.8159999999999999</v>
+      </c>
+      <c r="M23" s="12">
+        <v>0.678</v>
+      </c>
+      <c r="N23" s="12">
+        <v>0.741</v>
+      </c>
+    </row>
+    <row r="24" ht="20.05" customHeight="1">
+      <c r="A24" s="10"/>
+      <c r="B24" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C24" s="12">
+        <v>0.767</v>
+      </c>
+      <c r="D24" s="12">
+        <v>0.778</v>
+      </c>
+      <c r="E24" s="12">
+        <v>0.772</v>
+      </c>
+      <c r="F24" s="12">
+        <v>0.767</v>
+      </c>
+      <c r="G24" s="12">
+        <v>0.778</v>
+      </c>
+      <c r="H24" s="12">
+        <v>0.772</v>
+      </c>
+      <c r="I24" s="12">
+        <v>0.767</v>
+      </c>
+      <c r="J24" s="12">
+        <v>0.778</v>
+      </c>
+      <c r="K24" s="12">
+        <v>0.772</v>
+      </c>
+      <c r="L24" s="12">
+        <v>0.767</v>
+      </c>
+      <c r="M24" s="12">
+        <v>0.778</v>
+      </c>
+      <c r="N24" s="12">
+        <v>0.772</v>
+      </c>
+    </row>
+    <row r="25" ht="20.05" customHeight="1">
+      <c r="A25" s="10"/>
+      <c r="B25" t="s" s="11">
+        <v>11</v>
+      </c>
+      <c r="C25" s="12">
+        <v>0.756</v>
+      </c>
+      <c r="D25" s="12">
+        <v>0.596</v>
+      </c>
+      <c r="E25" s="12">
+        <v>0.667</v>
+      </c>
+      <c r="F25" s="12">
+        <v>0.756</v>
+      </c>
+      <c r="G25" s="12">
+        <v>0.596</v>
+      </c>
+      <c r="H25" s="12">
+        <v>0.667</v>
+      </c>
+      <c r="I25" s="12">
+        <v>0.756</v>
+      </c>
+      <c r="J25" s="12">
+        <v>0.596</v>
+      </c>
+      <c r="K25" s="12">
+        <v>0.667</v>
+      </c>
+      <c r="L25" s="12">
+        <v>0.756</v>
+      </c>
+      <c r="M25" s="12">
+        <v>0.596</v>
+      </c>
+      <c r="N25" s="12">
+        <v>0.667</v>
+      </c>
+    </row>
+    <row r="26" ht="20.05" customHeight="1">
+      <c r="A26" s="10"/>
+      <c r="B26" t="s" s="11">
+        <v>12</v>
+      </c>
+      <c r="C26" s="12">
+        <v>0.72</v>
+      </c>
+      <c r="D26" s="12">
+        <v>0.581</v>
+      </c>
+      <c r="E26" s="12">
+        <v>0.643</v>
+      </c>
+      <c r="F26" s="12">
+        <v>0.72</v>
+      </c>
+      <c r="G26" s="12">
+        <v>0.581</v>
+      </c>
+      <c r="H26" s="12">
+        <v>0.643</v>
+      </c>
+      <c r="I26" s="12">
+        <v>0.72</v>
+      </c>
+      <c r="J26" s="12">
+        <v>0.581</v>
+      </c>
+      <c r="K26" s="12">
+        <v>0.643</v>
+      </c>
+      <c r="L26" s="12">
+        <v>0.72</v>
+      </c>
+      <c r="M26" s="12">
+        <v>0.581</v>
+      </c>
+      <c r="N26" s="12">
+        <v>0.643</v>
+      </c>
+    </row>
+    <row r="27" ht="20.05" customHeight="1">
+      <c r="A27" s="10"/>
+      <c r="B27" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="C27" s="12">
+        <v>0.655</v>
+      </c>
+      <c r="D27" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="E27" s="12">
+        <v>0.671</v>
+      </c>
+      <c r="F27" s="12">
+        <v>0.655</v>
+      </c>
+      <c r="G27" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="H27" s="12">
+        <v>0.671</v>
+      </c>
+      <c r="I27" s="12">
+        <v>0.655</v>
+      </c>
+      <c r="J27" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="K27" s="12">
+        <v>0.671</v>
+      </c>
+      <c r="L27" s="12">
+        <v>0.655</v>
+      </c>
+      <c r="M27" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="N27" s="12">
+        <v>0.671</v>
+      </c>
+    </row>
+    <row r="28" ht="20.05" customHeight="1">
+      <c r="A28" s="10"/>
+      <c r="B28" t="s" s="11">
+        <v>14</v>
+      </c>
+      <c r="C28" s="12">
+        <v>0.652</v>
+      </c>
+      <c r="D28" s="12">
+        <v>0.395</v>
+      </c>
+      <c r="E28" s="12">
+        <v>0.492</v>
+      </c>
+      <c r="F28" s="12">
+        <v>0.652</v>
+      </c>
+      <c r="G28" s="12">
+        <v>0.395</v>
+      </c>
+      <c r="H28" s="12">
+        <v>0.492</v>
+      </c>
+      <c r="I28" s="12">
+        <v>0.652</v>
+      </c>
+      <c r="J28" s="12">
+        <v>0.395</v>
+      </c>
+      <c r="K28" s="12">
+        <v>0.492</v>
+      </c>
+      <c r="L28" s="12">
+        <v>0.652</v>
+      </c>
+      <c r="M28" s="12">
+        <v>0.395</v>
+      </c>
+      <c r="N28" s="12">
+        <v>0.492</v>
+      </c>
+    </row>
+    <row r="29" ht="20.05" customHeight="1">
+      <c r="A29" s="10"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15">
+        <f>AVERAGE(C23,C24,C25,C26,C27,C28)</f>
+        <v>0.7126666666666667</v>
+      </c>
+      <c r="D29" s="15">
+        <f>AVERAGE(D23,D24,D25,D26,D27,D28)</f>
+        <v>0.6333333333333334</v>
+      </c>
+      <c r="E29" s="15">
+        <f>AVERAGE(E23,E24,E25,E26,E27,E28)</f>
+        <v>0.6648333333333333</v>
+      </c>
+      <c r="F29" s="15">
+        <f>AVERAGE(F23,F24,F25,F26,F27,F28)</f>
+        <v>0.7126666666666667</v>
+      </c>
+      <c r="G29" s="15">
+        <f>AVERAGE(G23,G24,G25,G26,G27,G28)</f>
+        <v>0.6333333333333334</v>
+      </c>
+      <c r="H29" s="15">
+        <f>AVERAGE(H23,H24,H25,H26,H27,H28)</f>
+        <v>0.6648333333333333</v>
+      </c>
+      <c r="I29" s="15">
+        <f>AVERAGE(I23,I24,I25,I26,I27,I28)</f>
+        <v>0.7276666666666668</v>
+      </c>
+      <c r="J29" s="15">
+        <f>AVERAGE(J23,J24,J25,J26,J27,J28)</f>
+        <v>0.6191666666666668</v>
+      </c>
+      <c r="K29" s="15">
+        <f>AVERAGE(K23,K24,K25,K26,K27,K28)</f>
+        <v>0.6643333333333333</v>
+      </c>
+      <c r="L29" s="15">
+        <f>AVERAGE(L23,L24,L25,L26,L27,L28)</f>
+        <v>0.7276666666666668</v>
+      </c>
+      <c r="M29" s="15">
+        <f>AVERAGE(M23,M24,M25,M26,M27,M28)</f>
+        <v>0.6191666666666668</v>
+      </c>
+      <c r="N29" s="15">
+        <f>AVERAGE(N23,N24,N25,N26,N27,N28)</f>
+        <v>0.6643333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Experiment/TestDiff.xlsx
+++ b/Experiment/TestDiff.xlsx
@@ -8,12 +8,13 @@
   <sheets>
     <sheet name="Models" sheetId="1" r:id="rId4"/>
     <sheet name="Features" sheetId="2" r:id="rId5"/>
+    <sheet name="TopK" sheetId="3" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>Feature Set</t>
   </si>
@@ -83,13 +84,39 @@
   <si>
     <t>withoutLocation</t>
   </si>
+  <si>
+    <t>AllFeatures</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Top5</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>Top10</t>
+  </si>
+  <si>
+    <t>Top15</t>
+  </si>
+  <si>
+    <t>Top20</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="59" formatCode="0.0"/>
+    <numFmt numFmtId="60" formatCode="0.0000000000000000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -329,7 +356,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -391,6 +418,30 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4344,4 +4395,313 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="16.3516" style="21" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="21" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="21" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="21" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="21" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="21" customWidth="1"/>
+    <col min="7" max="7" width="18.1172" style="21" customWidth="1"/>
+    <col min="8" max="8" width="16.3516" style="21" customWidth="1"/>
+    <col min="9" max="9" width="16.3516" style="21" customWidth="1"/>
+    <col min="10" max="10" width="16.3516" style="21" customWidth="1"/>
+    <col min="11" max="256" width="16.3516" style="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20.25" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" ht="20.25" customHeight="1">
+      <c r="A2" s="22"/>
+      <c r="B2" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7">
+        <v>5</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="F2" s="7">
+        <v>7</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="H2" s="7">
+        <v>12</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="J2" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" ht="20.05" customHeight="1">
+      <c r="A3" s="23"/>
+      <c r="B3" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12">
+        <v>5</v>
+      </c>
+      <c r="E3" s="12">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12">
+        <v>10</v>
+      </c>
+      <c r="G3" s="24">
+        <v>1</v>
+      </c>
+      <c r="H3" s="12">
+        <v>15</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0.95</v>
+      </c>
+      <c r="J3" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" ht="20.05" customHeight="1">
+      <c r="A4" s="23"/>
+      <c r="B4" t="s" s="11">
+        <v>11</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1</v>
+      </c>
+      <c r="D4" s="12">
+        <v>5</v>
+      </c>
+      <c r="E4" s="12">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12">
+        <v>10</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="H4" s="12">
+        <v>12</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0.85</v>
+      </c>
+      <c r="J4" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" s="23"/>
+      <c r="B5" t="s" s="11">
+        <v>12</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12">
+        <v>5</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="F5" s="12">
+        <v>7</v>
+      </c>
+      <c r="G5" s="25">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="H5" s="12">
+        <v>11</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="J5" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" s="23"/>
+      <c r="B6" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="D6" s="12">
+        <v>3</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="F6" s="12">
+        <v>8</v>
+      </c>
+      <c r="G6" s="25">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="H6" s="12">
+        <v>13</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="J6" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" ht="20.05" customHeight="1">
+      <c r="A7" s="23"/>
+      <c r="B7" t="s" s="11">
+        <v>14</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="D7" s="12">
+        <v>4</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="F7" s="12">
+        <v>8</v>
+      </c>
+      <c r="G7" s="25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="H7" s="12">
+        <v>10</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="J7" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" ht="20.05" customHeight="1">
+      <c r="A8" t="s" s="26">
+        <v>30</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="15">
+        <f>AVERAGE(C2,C3,C4,C5,C6,C7)</f>
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="D8" s="15">
+        <f>AVERAGE(D2,D3,D4,D5,D6,D7)</f>
+        <v>4.5</v>
+      </c>
+      <c r="E8" s="15">
+        <f>AVERAGE(E2,E3,E4,E5,E6,E7)</f>
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="F8" s="15">
+        <f>AVERAGE(F2,F3,F4,F5,F6,F7)</f>
+        <v>8.333333333333334</v>
+      </c>
+      <c r="G8" s="15">
+        <f>AVERAGE(G2,G3,G4,G5,G6,G7)</f>
+        <v>0.8111111111111112</v>
+      </c>
+      <c r="H8" s="15">
+        <f>AVERAGE(H2,H3,H4,H5,H6,H7)</f>
+        <v>12.16666666666667</v>
+      </c>
+      <c r="I8" s="15">
+        <f>AVERAGE(I2,I3,I4,I5,I6,I7)</f>
+        <v>0.7999999999999999</v>
+      </c>
+      <c r="J8" s="15">
+        <f>AVERAGE(J2,J3,J4,J5,J6,J7)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" ht="20.05" customHeight="1">
+      <c r="A9" s="23"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" ht="20.05" customHeight="1">
+      <c r="A10" s="23"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Experiment/TestDiff.xlsx
+++ b/Experiment/TestDiff.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="1" r:id="rId4"/>
-    <sheet name="Features" sheetId="2" r:id="rId5"/>
-    <sheet name="TopK" sheetId="3" r:id="rId6"/>
+    <sheet name="Within" sheetId="2" r:id="rId5"/>
+    <sheet name="Features" sheetId="3" r:id="rId6"/>
+    <sheet name="TopK" sheetId="4" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>Feature Set</t>
   </si>
@@ -68,6 +69,18 @@
   </si>
   <si>
     <t>noParaAndGap</t>
+  </si>
+  <si>
+    <t>表格 1</t>
+  </si>
+  <si>
+    <t>Adaboost-50</t>
+  </si>
+  <si>
+    <t>Adaboost-100</t>
+  </si>
+  <si>
+    <t>WangWei</t>
   </si>
   <si>
     <t>before-Precision</t>
@@ -356,7 +369,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -415,6 +428,27 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -3109,10 +3143,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N29"/>
+  <dimension ref="A2:AG19"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
+      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3131,1264 +3165,864 @@
     <col min="12" max="12" width="16.3516" style="20" customWidth="1"/>
     <col min="13" max="13" width="16.3516" style="20" customWidth="1"/>
     <col min="14" max="14" width="16.3516" style="20" customWidth="1"/>
-    <col min="15" max="256" width="16.3516" style="20" customWidth="1"/>
+    <col min="15" max="15" width="16.3516" style="20" customWidth="1"/>
+    <col min="16" max="16" width="16.3516" style="20" customWidth="1"/>
+    <col min="17" max="17" width="16.3516" style="20" customWidth="1"/>
+    <col min="18" max="18" width="16.3516" style="20" customWidth="1"/>
+    <col min="19" max="19" width="16.3516" style="20" customWidth="1"/>
+    <col min="20" max="20" width="16.3516" style="20" customWidth="1"/>
+    <col min="21" max="21" width="16.3516" style="20" customWidth="1"/>
+    <col min="22" max="22" width="16.3516" style="20" customWidth="1"/>
+    <col min="23" max="23" width="16.3516" style="20" customWidth="1"/>
+    <col min="24" max="24" width="16.3516" style="20" customWidth="1"/>
+    <col min="25" max="25" width="16.3516" style="20" customWidth="1"/>
+    <col min="26" max="26" width="16.3516" style="20" customWidth="1"/>
+    <col min="27" max="27" width="16.3516" style="20" customWidth="1"/>
+    <col min="28" max="28" width="16.3516" style="20" customWidth="1"/>
+    <col min="29" max="29" width="16.3516" style="20" customWidth="1"/>
+    <col min="30" max="30" width="16.3516" style="20" customWidth="1"/>
+    <col min="31" max="31" width="16.3516" style="20" customWidth="1"/>
+    <col min="32" max="32" width="16.3516" style="20" customWidth="1"/>
+    <col min="33" max="33" width="16.3516" style="20" customWidth="1"/>
+    <col min="34" max="256" width="16.3516" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" t="s" s="2">
+    <row r="1" ht="31" customHeight="1">
+      <c r="A1" t="s" s="21">
         <v>18</v>
       </c>
-      <c r="D1" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="5">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="B2" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C2" s="7">
-        <v>0.727</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0.542</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0.621</v>
-      </c>
-      <c r="F2" s="7">
-        <v>0.727</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0.542</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0.621</v>
-      </c>
-      <c r="I2" s="7">
-        <v>0.727</v>
-      </c>
-      <c r="J2" s="7">
-        <v>0.542</v>
-      </c>
-      <c r="K2" s="7">
-        <v>0.621</v>
-      </c>
-      <c r="L2" s="7">
-        <v>0.727</v>
-      </c>
-      <c r="M2" s="7">
-        <v>0.542</v>
-      </c>
-      <c r="N2" s="7">
-        <v>0.621</v>
-      </c>
-    </row>
-    <row r="3" ht="20.05" customHeight="1">
-      <c r="A3" s="10"/>
-      <c r="B3" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="C3" s="12">
-        <v>0.806</v>
-      </c>
-      <c r="D3" s="12">
-        <v>0.806</v>
-      </c>
-      <c r="E3" s="12">
-        <v>0.806</v>
-      </c>
-      <c r="F3" s="12">
-        <v>0.806</v>
-      </c>
-      <c r="G3" s="12">
-        <v>0.806</v>
-      </c>
-      <c r="H3" s="12">
-        <v>0.806</v>
-      </c>
-      <c r="I3" s="12">
-        <v>0.806</v>
-      </c>
-      <c r="J3" s="12">
-        <v>0.806</v>
-      </c>
-      <c r="K3" s="12">
-        <v>0.806</v>
-      </c>
-      <c r="L3" s="12">
-        <v>0.806</v>
-      </c>
-      <c r="M3" s="12">
-        <v>0.806</v>
-      </c>
-      <c r="N3" s="12">
-        <v>0.806</v>
-      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+    </row>
+    <row r="3" ht="20.25" customHeight="1">
+      <c r="A3" s="22"/>
+      <c r="B3" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.789</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.789</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.789</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.842</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.842</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0.842</v>
+      </c>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" s="10"/>
       <c r="B4" t="s" s="11">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="12">
-        <v>0.667</v>
+        <v>0.777</v>
       </c>
       <c r="D4" s="12">
-        <v>0.55</v>
+        <v>0.88</v>
       </c>
       <c r="E4" s="12">
-        <v>0.603</v>
+        <v>0.825</v>
       </c>
       <c r="F4" s="12">
-        <v>0.667</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="G4" s="12">
-        <v>0.55</v>
+        <v>0.855</v>
       </c>
       <c r="H4" s="12">
-        <v>0.603</v>
-      </c>
-      <c r="I4" s="12">
-        <v>0.667</v>
-      </c>
-      <c r="J4" s="12">
-        <v>0.55</v>
-      </c>
-      <c r="K4" s="12">
-        <v>0.603</v>
-      </c>
-      <c r="L4" s="12">
-        <v>0.667</v>
-      </c>
-      <c r="M4" s="12">
-        <v>0.55</v>
-      </c>
-      <c r="N4" s="12">
-        <v>0.603</v>
-      </c>
+        <v>0.835</v>
+      </c>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="24"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" t="s" s="11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="12">
-        <v>0.6919999999999999</v>
+        <v>0.822</v>
       </c>
       <c r="D5" s="12">
-        <v>0.581</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="E5" s="12">
-        <v>0.632</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="F5" s="12">
-        <v>0.6919999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G5" s="12">
-        <v>0.581</v>
+        <v>0.78</v>
       </c>
       <c r="H5" s="12">
-        <v>0.632</v>
-      </c>
-      <c r="I5" s="12">
-        <v>0.6919999999999999</v>
-      </c>
-      <c r="J5" s="12">
-        <v>0.581</v>
-      </c>
-      <c r="K5" s="12">
-        <v>0.632</v>
-      </c>
-      <c r="L5" s="12">
-        <v>0.6919999999999999</v>
-      </c>
-      <c r="M5" s="12">
-        <v>0.581</v>
-      </c>
-      <c r="N5" s="12">
-        <v>0.632</v>
-      </c>
+        <v>0.794</v>
+      </c>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="24"/>
+      <c r="AA5" s="24"/>
+      <c r="AB5" s="24"/>
+      <c r="AC5" s="24"/>
+      <c r="AD5" s="24"/>
+      <c r="AE5" s="24"/>
+      <c r="AF5" s="24"/>
+      <c r="AG5" s="24"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" s="10"/>
       <c r="B6" t="s" s="11">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6" s="12">
-        <v>0.582</v>
+        <v>0.883</v>
       </c>
       <c r="D6" s="12">
-        <v>0.6870000000000001</v>
+        <v>0.944</v>
       </c>
       <c r="E6" s="12">
-        <v>0.63</v>
+        <v>0.913</v>
       </c>
       <c r="F6" s="12">
-        <v>0.582</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="G6" s="12">
-        <v>0.6870000000000001</v>
+        <v>0.944</v>
       </c>
       <c r="H6" s="12">
-        <v>0.63</v>
-      </c>
-      <c r="I6" s="12">
-        <v>0.582</v>
-      </c>
-      <c r="J6" s="12">
-        <v>0.6870000000000001</v>
-      </c>
-      <c r="K6" s="12">
-        <v>0.63</v>
-      </c>
-      <c r="L6" s="12">
-        <v>0.582</v>
-      </c>
-      <c r="M6" s="12">
-        <v>0.6870000000000001</v>
-      </c>
-      <c r="N6" s="12">
-        <v>0.63</v>
-      </c>
+        <v>0.9379999999999999</v>
+      </c>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="24"/>
+      <c r="AA6" s="24"/>
+      <c r="AB6" s="24"/>
+      <c r="AC6" s="24"/>
+      <c r="AD6" s="24"/>
+      <c r="AE6" s="24"/>
+      <c r="AF6" s="24"/>
+      <c r="AG6" s="24"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" t="s" s="11">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C7" s="12">
-        <v>0.8129999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="D7" s="12">
-        <v>0.6840000000000001</v>
+        <v>0.864</v>
       </c>
       <c r="E7" s="12">
-        <v>0.743</v>
+        <v>0.857</v>
       </c>
       <c r="F7" s="12">
-        <v>0.8129999999999999</v>
+        <v>0.847</v>
       </c>
       <c r="G7" s="12">
-        <v>0.6840000000000001</v>
+        <v>0.847</v>
       </c>
       <c r="H7" s="12">
-        <v>0.743</v>
-      </c>
-      <c r="I7" s="12">
-        <v>0.8129999999999999</v>
-      </c>
-      <c r="J7" s="12">
-        <v>0.6840000000000001</v>
-      </c>
-      <c r="K7" s="12">
-        <v>0.743</v>
-      </c>
-      <c r="L7" s="12">
-        <v>0.8129999999999999</v>
-      </c>
-      <c r="M7" s="12">
-        <v>0.6840000000000001</v>
-      </c>
-      <c r="N7" s="12">
-        <v>0.743</v>
-      </c>
+        <v>0.847</v>
+      </c>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="24"/>
+      <c r="AC7" s="24"/>
+      <c r="AD7" s="24"/>
+      <c r="AE7" s="24"/>
+      <c r="AF7" s="24"/>
+      <c r="AG7" s="24"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" s="10"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15">
-        <f>AVERAGE(C2,C3,C4,C5,C6,C7)</f>
-        <v>0.7145</v>
-      </c>
-      <c r="D8" s="15">
-        <f>AVERAGE(D2,D3,D4,D5,D6,D7)</f>
-        <v>0.6416666666666667</v>
-      </c>
-      <c r="E8" s="15">
-        <f>AVERAGE(E2,E3,E4,E5,E6,E7)</f>
-        <v>0.6725</v>
-      </c>
-      <c r="F8" s="15">
-        <f>AVERAGE(F2,F3,F4,F5,F6,F7)</f>
-        <v>0.7145</v>
-      </c>
-      <c r="G8" s="15">
-        <f>AVERAGE(G2,G3,G4,G5,G6,G7)</f>
-        <v>0.6416666666666667</v>
-      </c>
-      <c r="H8" s="15">
-        <f>AVERAGE(H2,H3,H4,H5,H6,H7)</f>
-        <v>0.6725</v>
-      </c>
-      <c r="I8" s="15">
-        <f>AVERAGE(I2,I3,I4,I5,I6,I7)</f>
-        <v>0.7145</v>
-      </c>
-      <c r="J8" s="15">
-        <f>AVERAGE(J2,J3,J4,J5,J6,J7)</f>
-        <v>0.6416666666666667</v>
-      </c>
-      <c r="K8" s="15">
-        <f>AVERAGE(K2,K3,K4,K5,K6,K7)</f>
-        <v>0.6725</v>
-      </c>
-      <c r="L8" s="15">
-        <f>AVERAGE(L2,L3,L4,L5,L6,L7)</f>
-        <v>0.7145</v>
-      </c>
-      <c r="M8" s="15">
-        <f>AVERAGE(M2,M3,M4,M5,M6,M7)</f>
-        <v>0.6416666666666667</v>
-      </c>
-      <c r="N8" s="15">
-        <f>AVERAGE(N2,N3,N4,N5,N6,N7)</f>
-        <v>0.6725</v>
-      </c>
+      <c r="B8" t="s" s="11">
+        <v>12</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0.871</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0.871</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0.871</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0.771</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0.871</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="24"/>
+      <c r="AB8" s="24"/>
+      <c r="AC8" s="24"/>
+      <c r="AD8" s="24"/>
+      <c r="AE8" s="24"/>
+      <c r="AF8" s="24"/>
+      <c r="AG8" s="24"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="17">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="C9" s="12">
-        <v>0.708</v>
-      </c>
-      <c r="D9" s="12">
-        <v>0.576</v>
-      </c>
-      <c r="E9" s="12">
-        <v>0.636</v>
-      </c>
-      <c r="F9" s="12">
-        <v>0.708</v>
-      </c>
-      <c r="G9" s="12">
-        <v>0.576</v>
-      </c>
-      <c r="H9" s="12">
-        <v>0.636</v>
-      </c>
-      <c r="I9" s="12">
-        <v>0.714</v>
-      </c>
-      <c r="J9" s="12">
-        <v>0.593</v>
-      </c>
-      <c r="K9" s="12">
-        <v>0.648</v>
-      </c>
-      <c r="L9" s="12">
-        <v>0.714</v>
-      </c>
-      <c r="M9" s="12">
-        <v>0.593</v>
-      </c>
-      <c r="N9" s="12">
-        <v>0.648</v>
-      </c>
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="15">
+        <f>AVERAGE(C3,C4,C5,C6,C7,C8)</f>
+        <v>0.8319999999999999</v>
+      </c>
+      <c r="D9" s="15">
+        <f>AVERAGE(D3,D4,D5,D6,D7,D8)</f>
+        <v>0.8591666666666665</v>
+      </c>
+      <c r="E9" s="15">
+        <f>AVERAGE(E3,E4,E5,E6,E7,E8)</f>
+        <v>0.8450000000000001</v>
+      </c>
+      <c r="F9" s="15">
+        <f>AVERAGE(F3,F4,F5,F6,F7,F8)</f>
+        <v>0.8363333333333333</v>
+      </c>
+      <c r="G9" s="15">
+        <f>AVERAGE(G3,G4,G5,G6,G7,G8)</f>
+        <v>0.8565000000000002</v>
+      </c>
+      <c r="H9" s="15">
+        <f>AVERAGE(H3,H4,H5,H6,H7,H8)</f>
+        <v>0.8456666666666667</v>
+      </c>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="25"/>
+      <c r="AD9" s="25"/>
+      <c r="AE9" s="25"/>
+      <c r="AF9" s="25"/>
+      <c r="AG9" s="25"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" s="10"/>
-      <c r="B10" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="C10" s="12">
-        <v>0.74</v>
-      </c>
-      <c r="D10" s="12">
-        <v>0.75</v>
-      </c>
-      <c r="E10" s="12">
-        <v>0.745</v>
-      </c>
-      <c r="F10" s="12">
-        <v>0.74</v>
-      </c>
-      <c r="G10" s="12">
-        <v>0.75</v>
-      </c>
-      <c r="H10" s="12">
-        <v>0.745</v>
-      </c>
-      <c r="I10" s="12">
-        <v>0.74</v>
-      </c>
-      <c r="J10" s="12">
-        <v>0.75</v>
-      </c>
-      <c r="K10" s="12">
-        <v>0.745</v>
-      </c>
-      <c r="L10" s="12">
-        <v>0.74</v>
-      </c>
-      <c r="M10" s="12">
-        <v>0.75</v>
-      </c>
-      <c r="N10" s="12">
-        <v>0.745</v>
-      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" t="s" s="26">
+        <v>21</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="24"/>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="24"/>
+      <c r="AC10" s="24"/>
+      <c r="AD10" s="24"/>
+      <c r="AE10" s="24"/>
+      <c r="AF10" s="24"/>
+      <c r="AG10" s="24"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" t="s" s="11">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C11" s="12">
-        <v>0.571</v>
+        <v>0.8</v>
       </c>
       <c r="D11" s="12">
-        <v>0.147</v>
+        <v>0.842</v>
       </c>
       <c r="E11" s="12">
-        <v>0.234</v>
-      </c>
-      <c r="F11" s="12">
-        <v>0.571</v>
-      </c>
-      <c r="G11" s="12">
-        <v>0.147</v>
-      </c>
-      <c r="H11" s="12">
-        <v>0.234</v>
-      </c>
-      <c r="I11" s="12">
-        <v>0.571</v>
-      </c>
-      <c r="J11" s="12">
-        <v>0.147</v>
-      </c>
-      <c r="K11" s="12">
-        <v>0.234</v>
-      </c>
-      <c r="L11" s="12">
-        <v>0.571</v>
-      </c>
-      <c r="M11" s="12">
-        <v>0.147</v>
-      </c>
-      <c r="N11" s="12">
-        <v>0.234</v>
-      </c>
+        <v>0.821</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="24"/>
+      <c r="AB11" s="24"/>
+      <c r="AC11" s="24"/>
+      <c r="AD11" s="24"/>
+      <c r="AE11" s="24"/>
+      <c r="AF11" s="24"/>
+      <c r="AG11" s="24"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" t="s" s="11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" s="12">
-        <v>0.667</v>
+        <v>0.872</v>
       </c>
       <c r="D12" s="12">
-        <v>0.452</v>
+        <v>0.819</v>
       </c>
       <c r="E12" s="12">
-        <v>0.538</v>
-      </c>
-      <c r="F12" s="12">
-        <v>0.667</v>
-      </c>
-      <c r="G12" s="12">
-        <v>0.452</v>
-      </c>
-      <c r="H12" s="12">
-        <v>0.538</v>
-      </c>
-      <c r="I12" s="12">
-        <v>0.667</v>
-      </c>
-      <c r="J12" s="12">
-        <v>0.452</v>
-      </c>
-      <c r="K12" s="12">
-        <v>0.538</v>
-      </c>
-      <c r="L12" s="12">
-        <v>0.667</v>
-      </c>
-      <c r="M12" s="12">
-        <v>0.452</v>
-      </c>
-      <c r="N12" s="12">
-        <v>0.538</v>
-      </c>
+        <v>0.845</v>
+      </c>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="24"/>
+      <c r="AA12" s="24"/>
+      <c r="AB12" s="24"/>
+      <c r="AC12" s="24"/>
+      <c r="AD12" s="24"/>
+      <c r="AE12" s="24"/>
+      <c r="AF12" s="24"/>
+      <c r="AG12" s="24"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" t="s" s="11">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" s="12">
-        <v>0.67</v>
+        <v>0.759</v>
       </c>
       <c r="D13" s="12">
-        <v>0.831</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="E13" s="12">
-        <v>0.742</v>
-      </c>
-      <c r="F13" s="12">
-        <v>0.67</v>
-      </c>
-      <c r="G13" s="12">
-        <v>0.831</v>
-      </c>
-      <c r="H13" s="12">
-        <v>0.742</v>
-      </c>
-      <c r="I13" s="12">
-        <v>0.67</v>
-      </c>
-      <c r="J13" s="12">
-        <v>0.831</v>
-      </c>
-      <c r="K13" s="12">
-        <v>0.742</v>
-      </c>
-      <c r="L13" s="12">
-        <v>0.67</v>
-      </c>
-      <c r="M13" s="12">
-        <v>0.831</v>
-      </c>
-      <c r="N13" s="12">
-        <v>0.742</v>
-      </c>
+        <v>0.782</v>
+      </c>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="24"/>
+      <c r="AA13" s="24"/>
+      <c r="AB13" s="24"/>
+      <c r="AC13" s="24"/>
+      <c r="AD13" s="24"/>
+      <c r="AE13" s="24"/>
+      <c r="AF13" s="24"/>
+      <c r="AG13" s="24"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" s="10"/>
       <c r="B14" t="s" s="11">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C14" s="12">
-        <v>0.735</v>
+        <v>0.829</v>
       </c>
       <c r="D14" s="12">
-        <v>0.658</v>
+        <v>0.944</v>
       </c>
       <c r="E14" s="12">
-        <v>0.694</v>
-      </c>
-      <c r="F14" s="12">
-        <v>0.735</v>
-      </c>
-      <c r="G14" s="12">
-        <v>0.658</v>
-      </c>
-      <c r="H14" s="12">
-        <v>0.694</v>
-      </c>
-      <c r="I14" s="12">
-        <v>0.735</v>
-      </c>
-      <c r="J14" s="12">
-        <v>0.658</v>
-      </c>
-      <c r="K14" s="12">
-        <v>0.694</v>
-      </c>
-      <c r="L14" s="12">
-        <v>0.735</v>
-      </c>
-      <c r="M14" s="12">
-        <v>0.658</v>
-      </c>
-      <c r="N14" s="12">
-        <v>0.694</v>
-      </c>
+        <v>0.883</v>
+      </c>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="24"/>
+      <c r="AA14" s="24"/>
+      <c r="AB14" s="24"/>
+      <c r="AC14" s="24"/>
+      <c r="AD14" s="24"/>
+      <c r="AE14" s="24"/>
+      <c r="AF14" s="24"/>
+      <c r="AG14" s="24"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" s="10"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15">
-        <f>AVERAGE(C9,C10,C11,C12,C13,C14)</f>
-        <v>0.6818333333333334</v>
-      </c>
-      <c r="D15" s="15">
-        <f>AVERAGE(D9,D10,D11,D12,D13,D14)</f>
-        <v>0.5690000000000001</v>
-      </c>
-      <c r="E15" s="15">
-        <f>AVERAGE(E9,E10,E11,E12,E13,E14)</f>
-        <v>0.5981666666666666</v>
-      </c>
-      <c r="F15" s="15">
-        <f>AVERAGE(F9,F10,F11,F12,F13,F14)</f>
-        <v>0.6818333333333334</v>
-      </c>
-      <c r="G15" s="15">
-        <f>AVERAGE(G9,G10,G11,G12,G13,G14)</f>
-        <v>0.5690000000000001</v>
-      </c>
-      <c r="H15" s="15">
-        <f>AVERAGE(H9,H10,H11,H12,H13,H14)</f>
-        <v>0.5981666666666666</v>
-      </c>
-      <c r="I15" s="15">
-        <f>AVERAGE(I9,I10,I11,I12,I13,I14)</f>
-        <v>0.6828333333333334</v>
-      </c>
-      <c r="J15" s="15">
-        <f>AVERAGE(J9,J10,J11,J12,J13,J14)</f>
-        <v>0.5718333333333333</v>
-      </c>
-      <c r="K15" s="15">
-        <f>AVERAGE(K9,K10,K11,K12,K13,K14)</f>
-        <v>0.6001666666666666</v>
-      </c>
-      <c r="L15" s="15">
-        <f>AVERAGE(L9,L10,L11,L12,L13,L14)</f>
-        <v>0.6828333333333334</v>
-      </c>
-      <c r="M15" s="15">
-        <f>AVERAGE(M9,M10,M11,M12,M13,M14)</f>
-        <v>0.5718333333333333</v>
-      </c>
-      <c r="N15" s="15">
-        <f>AVERAGE(N9,N10,N11,N12,N13,N14)</f>
-        <v>0.6001666666666666</v>
-      </c>
+      <c r="B15" t="s" s="11">
+        <v>9</v>
+      </c>
+      <c r="C15" s="12">
+        <v>0.85</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0.864</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0.857</v>
+      </c>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="24"/>
+      <c r="AA15" s="24"/>
+      <c r="AB15" s="24"/>
+      <c r="AC15" s="24"/>
+      <c r="AD15" s="24"/>
+      <c r="AE15" s="24"/>
+      <c r="AF15" s="24"/>
+      <c r="AG15" s="24"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="17">
-        <v>21</v>
-      </c>
+      <c r="A16" s="10"/>
       <c r="B16" t="s" s="11">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C16" s="12">
-        <v>0.75</v>
+        <v>0.658</v>
       </c>
       <c r="D16" s="12">
-        <v>0.508</v>
+        <v>0.806</v>
       </c>
       <c r="E16" s="12">
-        <v>0.606</v>
-      </c>
-      <c r="F16" s="12">
-        <v>0.75</v>
-      </c>
-      <c r="G16" s="12">
-        <v>0.508</v>
-      </c>
-      <c r="H16" s="12">
-        <v>0.606</v>
-      </c>
-      <c r="I16" s="12">
-        <v>0.75</v>
-      </c>
-      <c r="J16" s="12">
-        <v>0.508</v>
-      </c>
-      <c r="K16" s="12">
-        <v>0.606</v>
-      </c>
-      <c r="L16" s="12">
-        <v>0.75</v>
-      </c>
-      <c r="M16" s="12">
-        <v>0.508</v>
-      </c>
-      <c r="N16" s="12">
-        <v>0.606</v>
-      </c>
+        <v>0.725</v>
+      </c>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="24"/>
+      <c r="AB16" s="24"/>
+      <c r="AC16" s="24"/>
+      <c r="AD16" s="24"/>
+      <c r="AE16" s="24"/>
+      <c r="AF16" s="24"/>
+      <c r="AG16" s="24"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="B17" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="C17" s="12">
-        <v>0.695</v>
-      </c>
-      <c r="D17" s="12">
-        <v>0.792</v>
-      </c>
-      <c r="E17" s="12">
-        <v>0.74</v>
-      </c>
-      <c r="F17" s="12">
-        <v>0.695</v>
-      </c>
-      <c r="G17" s="12">
-        <v>0.792</v>
-      </c>
-      <c r="H17" s="12">
-        <v>0.74</v>
-      </c>
-      <c r="I17" s="12">
-        <v>0.699</v>
-      </c>
-      <c r="J17" s="12">
-        <v>0.806</v>
-      </c>
-      <c r="K17" s="12">
-        <v>0.748</v>
-      </c>
-      <c r="L17" s="12">
-        <v>0.699</v>
-      </c>
-      <c r="M17" s="12">
-        <v>0.806</v>
-      </c>
-      <c r="N17" s="12">
-        <v>0.748</v>
-      </c>
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="15">
+        <f>AVERAGE(C11,C12,C13,C14,C15,C16)</f>
+        <v>0.7946666666666666</v>
+      </c>
+      <c r="D17" s="15">
+        <f>AVERAGE(D11,D12,D13,D14,D15,D16)</f>
+        <v>0.847</v>
+      </c>
+      <c r="E17" s="15">
+        <f>AVERAGE(E11,E12,E13,E14,E15,E16)</f>
+        <v>0.8188333333333332</v>
+      </c>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="25"/>
+      <c r="AD17" s="25"/>
+      <c r="AE17" s="25"/>
+      <c r="AF17" s="25"/>
+      <c r="AG17" s="25"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" s="10"/>
-      <c r="B18" t="s" s="11">
-        <v>11</v>
-      </c>
-      <c r="C18" s="12">
-        <v>0.619</v>
-      </c>
-      <c r="D18" s="12">
-        <v>0.67</v>
-      </c>
-      <c r="E18" s="12">
-        <v>0.643</v>
-      </c>
-      <c r="F18" s="12">
-        <v>0.653</v>
-      </c>
-      <c r="G18" s="12">
-        <v>0.706</v>
-      </c>
-      <c r="H18" s="12">
-        <v>0.678</v>
-      </c>
-      <c r="I18" s="12">
-        <v>0.619</v>
-      </c>
-      <c r="J18" s="12">
-        <v>0.67</v>
-      </c>
-      <c r="K18" s="12">
-        <v>0.643</v>
-      </c>
-      <c r="L18" s="12">
-        <v>0.653</v>
-      </c>
-      <c r="M18" s="12">
-        <v>0.706</v>
-      </c>
-      <c r="N18" s="12">
-        <v>0.678</v>
-      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="24"/>
+      <c r="AA18" s="24"/>
+      <c r="AB18" s="24"/>
+      <c r="AC18" s="24"/>
+      <c r="AD18" s="24"/>
+      <c r="AE18" s="24"/>
+      <c r="AF18" s="24"/>
+      <c r="AG18" s="24"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" s="10"/>
-      <c r="B19" t="s" s="11">
-        <v>12</v>
-      </c>
-      <c r="C19" s="12">
-        <v>0.522</v>
-      </c>
-      <c r="D19" s="12">
-        <v>0.387</v>
-      </c>
-      <c r="E19" s="12">
-        <v>0.444</v>
-      </c>
-      <c r="F19" s="12">
-        <v>0.522</v>
-      </c>
-      <c r="G19" s="12">
-        <v>0.387</v>
-      </c>
-      <c r="H19" s="12">
-        <v>0.444</v>
-      </c>
-      <c r="I19" s="12">
-        <v>0.522</v>
-      </c>
-      <c r="J19" s="12">
-        <v>0.387</v>
-      </c>
-      <c r="K19" s="12">
-        <v>0.444</v>
-      </c>
-      <c r="L19" s="12">
-        <v>0.522</v>
-      </c>
-      <c r="M19" s="12">
-        <v>0.387</v>
-      </c>
-      <c r="N19" s="12">
-        <v>0.444</v>
-      </c>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" t="s" s="11">
-        <v>13</v>
-      </c>
-      <c r="C20" s="12">
-        <v>0.6870000000000001</v>
-      </c>
-      <c r="D20" s="12">
-        <v>0.6870000000000001</v>
-      </c>
-      <c r="E20" s="12">
-        <v>0.6870000000000001</v>
-      </c>
-      <c r="F20" s="12">
-        <v>0.6870000000000001</v>
-      </c>
-      <c r="G20" s="12">
-        <v>0.6870000000000001</v>
-      </c>
-      <c r="H20" s="12">
-        <v>0.6870000000000001</v>
-      </c>
-      <c r="I20" s="12">
-        <v>0.6870000000000001</v>
-      </c>
-      <c r="J20" s="12">
-        <v>0.6870000000000001</v>
-      </c>
-      <c r="K20" s="12">
-        <v>0.6870000000000001</v>
-      </c>
-      <c r="L20" s="12">
-        <v>0.6870000000000001</v>
-      </c>
-      <c r="M20" s="12">
-        <v>0.6870000000000001</v>
-      </c>
-      <c r="N20" s="12">
-        <v>0.6870000000000001</v>
-      </c>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="C21" s="12">
-        <v>0.724</v>
-      </c>
-      <c r="D21" s="12">
-        <v>0.553</v>
-      </c>
-      <c r="E21" s="12">
-        <v>0.627</v>
-      </c>
-      <c r="F21" s="12">
-        <v>0.724</v>
-      </c>
-      <c r="G21" s="12">
-        <v>0.553</v>
-      </c>
-      <c r="H21" s="12">
-        <v>0.627</v>
-      </c>
-      <c r="I21" s="12">
-        <v>0.724</v>
-      </c>
-      <c r="J21" s="12">
-        <v>0.553</v>
-      </c>
-      <c r="K21" s="12">
-        <v>0.627</v>
-      </c>
-      <c r="L21" s="12">
-        <v>0.724</v>
-      </c>
-      <c r="M21" s="12">
-        <v>0.553</v>
-      </c>
-      <c r="N21" s="12">
-        <v>0.627</v>
-      </c>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15">
-        <f>AVERAGE(C16,C17,C18,C19,C20,C21)</f>
-        <v>0.6661666666666668</v>
-      </c>
-      <c r="D22" s="15">
-        <f>AVERAGE(D16,D17,D18,D19,D20,D21)</f>
-        <v>0.5995</v>
-      </c>
-      <c r="E22" s="15">
-        <f>AVERAGE(E16,E17,E18,E19,E20,E21)</f>
-        <v>0.6244999999999999</v>
-      </c>
-      <c r="F22" s="15">
-        <f>AVERAGE(F16,F17,F18,F19,F20,F21)</f>
-        <v>0.6718333333333334</v>
-      </c>
-      <c r="G22" s="15">
-        <f>AVERAGE(G16,G17,G18,G19,G20,G21)</f>
-        <v>0.6055</v>
-      </c>
-      <c r="H22" s="15">
-        <f>AVERAGE(H16,H17,H18,H19,H20,H21)</f>
-        <v>0.6303333333333333</v>
-      </c>
-      <c r="I22" s="15">
-        <f>AVERAGE(I16,I17,I18,I19,I20,I21)</f>
-        <v>0.6668333333333334</v>
-      </c>
-      <c r="J22" s="15">
-        <f>AVERAGE(J16,J17,J18,J19,J20,J21)</f>
-        <v>0.6018333333333333</v>
-      </c>
-      <c r="K22" s="15">
-        <f>AVERAGE(K16,K17,K18,K19,K20,K21)</f>
-        <v>0.6258333333333334</v>
-      </c>
-      <c r="L22" s="15">
-        <f>AVERAGE(L16,L17,L18,L19,L20,L21)</f>
-        <v>0.6725</v>
-      </c>
-      <c r="M22" s="15">
-        <f>AVERAGE(M16,M17,M18,M19,M20,M21)</f>
-        <v>0.6078333333333333</v>
-      </c>
-      <c r="N22" s="15">
-        <f>AVERAGE(N16,N17,N18,N19,N20,N21)</f>
-        <v>0.6316666666666667</v>
-      </c>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" t="s" s="17">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="C23" s="12">
-        <v>0.726</v>
-      </c>
-      <c r="D23" s="12">
-        <v>0.763</v>
-      </c>
-      <c r="E23" s="12">
-        <v>0.744</v>
-      </c>
-      <c r="F23" s="12">
-        <v>0.726</v>
-      </c>
-      <c r="G23" s="12">
-        <v>0.763</v>
-      </c>
-      <c r="H23" s="12">
-        <v>0.744</v>
-      </c>
-      <c r="I23" s="12">
-        <v>0.8159999999999999</v>
-      </c>
-      <c r="J23" s="12">
-        <v>0.678</v>
-      </c>
-      <c r="K23" s="12">
-        <v>0.741</v>
-      </c>
-      <c r="L23" s="12">
-        <v>0.8159999999999999</v>
-      </c>
-      <c r="M23" s="12">
-        <v>0.678</v>
-      </c>
-      <c r="N23" s="12">
-        <v>0.741</v>
-      </c>
-    </row>
-    <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" s="10"/>
-      <c r="B24" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="C24" s="12">
-        <v>0.767</v>
-      </c>
-      <c r="D24" s="12">
-        <v>0.778</v>
-      </c>
-      <c r="E24" s="12">
-        <v>0.772</v>
-      </c>
-      <c r="F24" s="12">
-        <v>0.767</v>
-      </c>
-      <c r="G24" s="12">
-        <v>0.778</v>
-      </c>
-      <c r="H24" s="12">
-        <v>0.772</v>
-      </c>
-      <c r="I24" s="12">
-        <v>0.767</v>
-      </c>
-      <c r="J24" s="12">
-        <v>0.778</v>
-      </c>
-      <c r="K24" s="12">
-        <v>0.772</v>
-      </c>
-      <c r="L24" s="12">
-        <v>0.767</v>
-      </c>
-      <c r="M24" s="12">
-        <v>0.778</v>
-      </c>
-      <c r="N24" s="12">
-        <v>0.772</v>
-      </c>
-    </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" s="10"/>
-      <c r="B25" t="s" s="11">
-        <v>11</v>
-      </c>
-      <c r="C25" s="12">
-        <v>0.756</v>
-      </c>
-      <c r="D25" s="12">
-        <v>0.596</v>
-      </c>
-      <c r="E25" s="12">
-        <v>0.667</v>
-      </c>
-      <c r="F25" s="12">
-        <v>0.756</v>
-      </c>
-      <c r="G25" s="12">
-        <v>0.596</v>
-      </c>
-      <c r="H25" s="12">
-        <v>0.667</v>
-      </c>
-      <c r="I25" s="12">
-        <v>0.756</v>
-      </c>
-      <c r="J25" s="12">
-        <v>0.596</v>
-      </c>
-      <c r="K25" s="12">
-        <v>0.667</v>
-      </c>
-      <c r="L25" s="12">
-        <v>0.756</v>
-      </c>
-      <c r="M25" s="12">
-        <v>0.596</v>
-      </c>
-      <c r="N25" s="12">
-        <v>0.667</v>
-      </c>
-    </row>
-    <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" s="10"/>
-      <c r="B26" t="s" s="11">
-        <v>12</v>
-      </c>
-      <c r="C26" s="12">
-        <v>0.72</v>
-      </c>
-      <c r="D26" s="12">
-        <v>0.581</v>
-      </c>
-      <c r="E26" s="12">
-        <v>0.643</v>
-      </c>
-      <c r="F26" s="12">
-        <v>0.72</v>
-      </c>
-      <c r="G26" s="12">
-        <v>0.581</v>
-      </c>
-      <c r="H26" s="12">
-        <v>0.643</v>
-      </c>
-      <c r="I26" s="12">
-        <v>0.72</v>
-      </c>
-      <c r="J26" s="12">
-        <v>0.581</v>
-      </c>
-      <c r="K26" s="12">
-        <v>0.643</v>
-      </c>
-      <c r="L26" s="12">
-        <v>0.72</v>
-      </c>
-      <c r="M26" s="12">
-        <v>0.581</v>
-      </c>
-      <c r="N26" s="12">
-        <v>0.643</v>
-      </c>
-    </row>
-    <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" s="10"/>
-      <c r="B27" t="s" s="11">
-        <v>13</v>
-      </c>
-      <c r="C27" s="12">
-        <v>0.655</v>
-      </c>
-      <c r="D27" s="12">
-        <v>0.6870000000000001</v>
-      </c>
-      <c r="E27" s="12">
-        <v>0.671</v>
-      </c>
-      <c r="F27" s="12">
-        <v>0.655</v>
-      </c>
-      <c r="G27" s="12">
-        <v>0.6870000000000001</v>
-      </c>
-      <c r="H27" s="12">
-        <v>0.671</v>
-      </c>
-      <c r="I27" s="12">
-        <v>0.655</v>
-      </c>
-      <c r="J27" s="12">
-        <v>0.6870000000000001</v>
-      </c>
-      <c r="K27" s="12">
-        <v>0.671</v>
-      </c>
-      <c r="L27" s="12">
-        <v>0.655</v>
-      </c>
-      <c r="M27" s="12">
-        <v>0.6870000000000001</v>
-      </c>
-      <c r="N27" s="12">
-        <v>0.671</v>
-      </c>
-    </row>
-    <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" s="10"/>
-      <c r="B28" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="C28" s="12">
-        <v>0.652</v>
-      </c>
-      <c r="D28" s="12">
-        <v>0.395</v>
-      </c>
-      <c r="E28" s="12">
-        <v>0.492</v>
-      </c>
-      <c r="F28" s="12">
-        <v>0.652</v>
-      </c>
-      <c r="G28" s="12">
-        <v>0.395</v>
-      </c>
-      <c r="H28" s="12">
-        <v>0.492</v>
-      </c>
-      <c r="I28" s="12">
-        <v>0.652</v>
-      </c>
-      <c r="J28" s="12">
-        <v>0.395</v>
-      </c>
-      <c r="K28" s="12">
-        <v>0.492</v>
-      </c>
-      <c r="L28" s="12">
-        <v>0.652</v>
-      </c>
-      <c r="M28" s="12">
-        <v>0.395</v>
-      </c>
-      <c r="N28" s="12">
-        <v>0.492</v>
-      </c>
-    </row>
-    <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" s="10"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15">
-        <f>AVERAGE(C23,C24,C25,C26,C27,C28)</f>
-        <v>0.7126666666666667</v>
-      </c>
-      <c r="D29" s="15">
-        <f>AVERAGE(D23,D24,D25,D26,D27,D28)</f>
-        <v>0.6333333333333334</v>
-      </c>
-      <c r="E29" s="15">
-        <f>AVERAGE(E23,E24,E25,E26,E27,E28)</f>
-        <v>0.6648333333333333</v>
-      </c>
-      <c r="F29" s="15">
-        <f>AVERAGE(F23,F24,F25,F26,F27,F28)</f>
-        <v>0.7126666666666667</v>
-      </c>
-      <c r="G29" s="15">
-        <f>AVERAGE(G23,G24,G25,G26,G27,G28)</f>
-        <v>0.6333333333333334</v>
-      </c>
-      <c r="H29" s="15">
-        <f>AVERAGE(H23,H24,H25,H26,H27,H28)</f>
-        <v>0.6648333333333333</v>
-      </c>
-      <c r="I29" s="15">
-        <f>AVERAGE(I23,I24,I25,I26,I27,I28)</f>
-        <v>0.7276666666666668</v>
-      </c>
-      <c r="J29" s="15">
-        <f>AVERAGE(J23,J24,J25,J26,J27,J28)</f>
-        <v>0.6191666666666668</v>
-      </c>
-      <c r="K29" s="15">
-        <f>AVERAGE(K23,K24,K25,K26,K27,K28)</f>
-        <v>0.6643333333333333</v>
-      </c>
-      <c r="L29" s="15">
-        <f>AVERAGE(L23,L24,L25,L26,L27,L28)</f>
-        <v>0.7276666666666668</v>
-      </c>
-      <c r="M29" s="15">
-        <f>AVERAGE(M23,M24,M25,M26,M27,M28)</f>
-        <v>0.6191666666666668</v>
-      </c>
-      <c r="N29" s="15">
-        <f>AVERAGE(N23,N24,N25,N26,N27,N28)</f>
-        <v>0.6643333333333333</v>
-      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="24"/>
+      <c r="V19" s="24"/>
+      <c r="W19" s="24"/>
+      <c r="X19" s="24"/>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="24"/>
+      <c r="AA19" s="24"/>
+      <c r="AB19" s="24"/>
+      <c r="AC19" s="24"/>
+      <c r="AD19" s="24"/>
+      <c r="AE19" s="24"/>
+      <c r="AF19" s="24"/>
+      <c r="AG19" s="24"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:AG1"/>
+  </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
@@ -4402,6 +4036,1299 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:N29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="16.3516" style="27" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="27" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="27" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="27" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="27" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="27" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="27" customWidth="1"/>
+    <col min="8" max="8" width="16.3516" style="27" customWidth="1"/>
+    <col min="9" max="9" width="16.3516" style="27" customWidth="1"/>
+    <col min="10" max="10" width="16.3516" style="27" customWidth="1"/>
+    <col min="11" max="11" width="16.3516" style="27" customWidth="1"/>
+    <col min="12" max="12" width="16.3516" style="27" customWidth="1"/>
+    <col min="13" max="13" width="16.3516" style="27" customWidth="1"/>
+    <col min="14" max="14" width="16.3516" style="27" customWidth="1"/>
+    <col min="15" max="256" width="16.3516" style="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20.25" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" ht="20.25" customHeight="1">
+      <c r="A2" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.727</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.542</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.621</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.727</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0.542</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0.621</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0.727</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0.542</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0.621</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0.727</v>
+      </c>
+      <c r="M2" s="7">
+        <v>0.542</v>
+      </c>
+      <c r="N2" s="7">
+        <v>0.621</v>
+      </c>
+    </row>
+    <row r="3" ht="20.05" customHeight="1">
+      <c r="A3" s="10"/>
+      <c r="B3" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0.806</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0.806</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0.806</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0.806</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0.806</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0.806</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0.806</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0.806</v>
+      </c>
+      <c r="K3" s="12">
+        <v>0.806</v>
+      </c>
+      <c r="L3" s="12">
+        <v>0.806</v>
+      </c>
+      <c r="M3" s="12">
+        <v>0.806</v>
+      </c>
+      <c r="N3" s="12">
+        <v>0.806</v>
+      </c>
+    </row>
+    <row r="4" ht="20.05" customHeight="1">
+      <c r="A4" s="10"/>
+      <c r="B4" t="s" s="11">
+        <v>11</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0.667</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.55</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.603</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0.667</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0.55</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0.603</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0.667</v>
+      </c>
+      <c r="J4" s="12">
+        <v>0.55</v>
+      </c>
+      <c r="K4" s="12">
+        <v>0.603</v>
+      </c>
+      <c r="L4" s="12">
+        <v>0.667</v>
+      </c>
+      <c r="M4" s="12">
+        <v>0.55</v>
+      </c>
+      <c r="N4" s="12">
+        <v>0.603</v>
+      </c>
+    </row>
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" s="10"/>
+      <c r="B5" t="s" s="11">
+        <v>12</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0.6919999999999999</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0.581</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.632</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.6919999999999999</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.581</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0.632</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0.6919999999999999</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0.581</v>
+      </c>
+      <c r="K5" s="12">
+        <v>0.632</v>
+      </c>
+      <c r="L5" s="12">
+        <v>0.6919999999999999</v>
+      </c>
+      <c r="M5" s="12">
+        <v>0.581</v>
+      </c>
+      <c r="N5" s="12">
+        <v>0.632</v>
+      </c>
+    </row>
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" s="10"/>
+      <c r="B6" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0.582</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0.582</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0.582</v>
+      </c>
+      <c r="J6" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="K6" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="L6" s="12">
+        <v>0.582</v>
+      </c>
+      <c r="M6" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="N6" s="12">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="7" ht="20.05" customHeight="1">
+      <c r="A7" s="10"/>
+      <c r="B7" t="s" s="11">
+        <v>14</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0.743</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0.743</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="J7" s="12">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="K7" s="12">
+        <v>0.743</v>
+      </c>
+      <c r="L7" s="12">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="M7" s="12">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="N7" s="12">
+        <v>0.743</v>
+      </c>
+    </row>
+    <row r="8" ht="20.05" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15">
+        <f>AVERAGE(C2,C3,C4,C5,C6,C7)</f>
+        <v>0.7145</v>
+      </c>
+      <c r="D8" s="15">
+        <f>AVERAGE(D2,D3,D4,D5,D6,D7)</f>
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="E8" s="15">
+        <f>AVERAGE(E2,E3,E4,E5,E6,E7)</f>
+        <v>0.6725</v>
+      </c>
+      <c r="F8" s="15">
+        <f>AVERAGE(F2,F3,F4,F5,F6,F7)</f>
+        <v>0.7145</v>
+      </c>
+      <c r="G8" s="15">
+        <f>AVERAGE(G2,G3,G4,G5,G6,G7)</f>
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="H8" s="15">
+        <f>AVERAGE(H2,H3,H4,H5,H6,H7)</f>
+        <v>0.6725</v>
+      </c>
+      <c r="I8" s="15">
+        <f>AVERAGE(I2,I3,I4,I5,I6,I7)</f>
+        <v>0.7145</v>
+      </c>
+      <c r="J8" s="15">
+        <f>AVERAGE(J2,J3,J4,J5,J6,J7)</f>
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="K8" s="15">
+        <f>AVERAGE(K2,K3,K4,K5,K6,K7)</f>
+        <v>0.6725</v>
+      </c>
+      <c r="L8" s="15">
+        <f>AVERAGE(L2,L3,L4,L5,L6,L7)</f>
+        <v>0.7145</v>
+      </c>
+      <c r="M8" s="15">
+        <f>AVERAGE(M2,M3,M4,M5,M6,M7)</f>
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="N8" s="15">
+        <f>AVERAGE(N2,N3,N4,N5,N6,N7)</f>
+        <v>0.6725</v>
+      </c>
+    </row>
+    <row r="9" ht="20.05" customHeight="1">
+      <c r="A9" t="s" s="17">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s" s="11">
+        <v>9</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0.708</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0.576</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0.636</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0.708</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0.576</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0.636</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0.714</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0.593</v>
+      </c>
+      <c r="K9" s="12">
+        <v>0.648</v>
+      </c>
+      <c r="L9" s="12">
+        <v>0.714</v>
+      </c>
+      <c r="M9" s="12">
+        <v>0.593</v>
+      </c>
+      <c r="N9" s="12">
+        <v>0.648</v>
+      </c>
+    </row>
+    <row r="10" ht="20.05" customHeight="1">
+      <c r="A10" s="10"/>
+      <c r="B10" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0.74</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.745</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0.74</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0.745</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0.74</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="K10" s="12">
+        <v>0.745</v>
+      </c>
+      <c r="L10" s="12">
+        <v>0.74</v>
+      </c>
+      <c r="M10" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="N10" s="12">
+        <v>0.745</v>
+      </c>
+    </row>
+    <row r="11" ht="20.05" customHeight="1">
+      <c r="A11" s="10"/>
+      <c r="B11" t="s" s="11">
+        <v>11</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0.571</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0.147</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.234</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0.571</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0.147</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0.234</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0.571</v>
+      </c>
+      <c r="J11" s="12">
+        <v>0.147</v>
+      </c>
+      <c r="K11" s="12">
+        <v>0.234</v>
+      </c>
+      <c r="L11" s="12">
+        <v>0.571</v>
+      </c>
+      <c r="M11" s="12">
+        <v>0.147</v>
+      </c>
+      <c r="N11" s="12">
+        <v>0.234</v>
+      </c>
+    </row>
+    <row r="12" ht="20.05" customHeight="1">
+      <c r="A12" s="10"/>
+      <c r="B12" t="s" s="11">
+        <v>12</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0.667</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0.452</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.538</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0.667</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0.452</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0.538</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0.667</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0.452</v>
+      </c>
+      <c r="K12" s="12">
+        <v>0.538</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0.667</v>
+      </c>
+      <c r="M12" s="12">
+        <v>0.452</v>
+      </c>
+      <c r="N12" s="12">
+        <v>0.538</v>
+      </c>
+    </row>
+    <row r="13" ht="20.05" customHeight="1">
+      <c r="A13" s="10"/>
+      <c r="B13" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0.67</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0.831</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0.742</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0.67</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0.831</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0.742</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0.67</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0.831</v>
+      </c>
+      <c r="K13" s="12">
+        <v>0.742</v>
+      </c>
+      <c r="L13" s="12">
+        <v>0.67</v>
+      </c>
+      <c r="M13" s="12">
+        <v>0.831</v>
+      </c>
+      <c r="N13" s="12">
+        <v>0.742</v>
+      </c>
+    </row>
+    <row r="14" ht="20.05" customHeight="1">
+      <c r="A14" s="10"/>
+      <c r="B14" t="s" s="11">
+        <v>14</v>
+      </c>
+      <c r="C14" s="12">
+        <v>0.735</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0.658</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0.694</v>
+      </c>
+      <c r="F14" s="12">
+        <v>0.735</v>
+      </c>
+      <c r="G14" s="12">
+        <v>0.658</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0.694</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0.735</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0.658</v>
+      </c>
+      <c r="K14" s="12">
+        <v>0.694</v>
+      </c>
+      <c r="L14" s="12">
+        <v>0.735</v>
+      </c>
+      <c r="M14" s="12">
+        <v>0.658</v>
+      </c>
+      <c r="N14" s="12">
+        <v>0.694</v>
+      </c>
+    </row>
+    <row r="15" ht="20.05" customHeight="1">
+      <c r="A15" s="10"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15">
+        <f>AVERAGE(C9,C10,C11,C12,C13,C14)</f>
+        <v>0.6818333333333334</v>
+      </c>
+      <c r="D15" s="15">
+        <f>AVERAGE(D9,D10,D11,D12,D13,D14)</f>
+        <v>0.5690000000000001</v>
+      </c>
+      <c r="E15" s="15">
+        <f>AVERAGE(E9,E10,E11,E12,E13,E14)</f>
+        <v>0.5981666666666666</v>
+      </c>
+      <c r="F15" s="15">
+        <f>AVERAGE(F9,F10,F11,F12,F13,F14)</f>
+        <v>0.6818333333333334</v>
+      </c>
+      <c r="G15" s="15">
+        <f>AVERAGE(G9,G10,G11,G12,G13,G14)</f>
+        <v>0.5690000000000001</v>
+      </c>
+      <c r="H15" s="15">
+        <f>AVERAGE(H9,H10,H11,H12,H13,H14)</f>
+        <v>0.5981666666666666</v>
+      </c>
+      <c r="I15" s="15">
+        <f>AVERAGE(I9,I10,I11,I12,I13,I14)</f>
+        <v>0.6828333333333334</v>
+      </c>
+      <c r="J15" s="15">
+        <f>AVERAGE(J9,J10,J11,J12,J13,J14)</f>
+        <v>0.5718333333333333</v>
+      </c>
+      <c r="K15" s="15">
+        <f>AVERAGE(K9,K10,K11,K12,K13,K14)</f>
+        <v>0.6001666666666666</v>
+      </c>
+      <c r="L15" s="15">
+        <f>AVERAGE(L9,L10,L11,L12,L13,L14)</f>
+        <v>0.6828333333333334</v>
+      </c>
+      <c r="M15" s="15">
+        <f>AVERAGE(M9,M10,M11,M12,M13,M14)</f>
+        <v>0.5718333333333333</v>
+      </c>
+      <c r="N15" s="15">
+        <f>AVERAGE(N9,N10,N11,N12,N13,N14)</f>
+        <v>0.6001666666666666</v>
+      </c>
+    </row>
+    <row r="16" ht="20.05" customHeight="1">
+      <c r="A16" t="s" s="17">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s" s="11">
+        <v>9</v>
+      </c>
+      <c r="C16" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0.508</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0.606</v>
+      </c>
+      <c r="F16" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="G16" s="12">
+        <v>0.508</v>
+      </c>
+      <c r="H16" s="12">
+        <v>0.606</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="J16" s="12">
+        <v>0.508</v>
+      </c>
+      <c r="K16" s="12">
+        <v>0.606</v>
+      </c>
+      <c r="L16" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="M16" s="12">
+        <v>0.508</v>
+      </c>
+      <c r="N16" s="12">
+        <v>0.606</v>
+      </c>
+    </row>
+    <row r="17" ht="20.05" customHeight="1">
+      <c r="A17" s="10"/>
+      <c r="B17" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0.695</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0.792</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0.74</v>
+      </c>
+      <c r="F17" s="12">
+        <v>0.695</v>
+      </c>
+      <c r="G17" s="12">
+        <v>0.792</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0.74</v>
+      </c>
+      <c r="I17" s="12">
+        <v>0.699</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0.806</v>
+      </c>
+      <c r="K17" s="12">
+        <v>0.748</v>
+      </c>
+      <c r="L17" s="12">
+        <v>0.699</v>
+      </c>
+      <c r="M17" s="12">
+        <v>0.806</v>
+      </c>
+      <c r="N17" s="12">
+        <v>0.748</v>
+      </c>
+    </row>
+    <row r="18" ht="20.05" customHeight="1">
+      <c r="A18" s="10"/>
+      <c r="B18" t="s" s="11">
+        <v>11</v>
+      </c>
+      <c r="C18" s="12">
+        <v>0.619</v>
+      </c>
+      <c r="D18" s="12">
+        <v>0.67</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0.643</v>
+      </c>
+      <c r="F18" s="12">
+        <v>0.653</v>
+      </c>
+      <c r="G18" s="12">
+        <v>0.706</v>
+      </c>
+      <c r="H18" s="12">
+        <v>0.678</v>
+      </c>
+      <c r="I18" s="12">
+        <v>0.619</v>
+      </c>
+      <c r="J18" s="12">
+        <v>0.67</v>
+      </c>
+      <c r="K18" s="12">
+        <v>0.643</v>
+      </c>
+      <c r="L18" s="12">
+        <v>0.653</v>
+      </c>
+      <c r="M18" s="12">
+        <v>0.706</v>
+      </c>
+      <c r="N18" s="12">
+        <v>0.678</v>
+      </c>
+    </row>
+    <row r="19" ht="20.05" customHeight="1">
+      <c r="A19" s="10"/>
+      <c r="B19" t="s" s="11">
+        <v>12</v>
+      </c>
+      <c r="C19" s="12">
+        <v>0.522</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0.387</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0.444</v>
+      </c>
+      <c r="F19" s="12">
+        <v>0.522</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0.387</v>
+      </c>
+      <c r="H19" s="12">
+        <v>0.444</v>
+      </c>
+      <c r="I19" s="12">
+        <v>0.522</v>
+      </c>
+      <c r="J19" s="12">
+        <v>0.387</v>
+      </c>
+      <c r="K19" s="12">
+        <v>0.444</v>
+      </c>
+      <c r="L19" s="12">
+        <v>0.522</v>
+      </c>
+      <c r="M19" s="12">
+        <v>0.387</v>
+      </c>
+      <c r="N19" s="12">
+        <v>0.444</v>
+      </c>
+    </row>
+    <row r="20" ht="20.05" customHeight="1">
+      <c r="A20" s="10"/>
+      <c r="B20" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="C20" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="E20" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="F20" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="G20" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="H20" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="I20" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="J20" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="K20" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="L20" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="M20" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="N20" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+    </row>
+    <row r="21" ht="20.05" customHeight="1">
+      <c r="A21" s="10"/>
+      <c r="B21" t="s" s="11">
+        <v>14</v>
+      </c>
+      <c r="C21" s="12">
+        <v>0.724</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0.553</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0.627</v>
+      </c>
+      <c r="F21" s="12">
+        <v>0.724</v>
+      </c>
+      <c r="G21" s="12">
+        <v>0.553</v>
+      </c>
+      <c r="H21" s="12">
+        <v>0.627</v>
+      </c>
+      <c r="I21" s="12">
+        <v>0.724</v>
+      </c>
+      <c r="J21" s="12">
+        <v>0.553</v>
+      </c>
+      <c r="K21" s="12">
+        <v>0.627</v>
+      </c>
+      <c r="L21" s="12">
+        <v>0.724</v>
+      </c>
+      <c r="M21" s="12">
+        <v>0.553</v>
+      </c>
+      <c r="N21" s="12">
+        <v>0.627</v>
+      </c>
+    </row>
+    <row r="22" ht="20.05" customHeight="1">
+      <c r="A22" s="10"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15">
+        <f>AVERAGE(C16,C17,C18,C19,C20,C21)</f>
+        <v>0.6661666666666668</v>
+      </c>
+      <c r="D22" s="15">
+        <f>AVERAGE(D16,D17,D18,D19,D20,D21)</f>
+        <v>0.5995</v>
+      </c>
+      <c r="E22" s="15">
+        <f>AVERAGE(E16,E17,E18,E19,E20,E21)</f>
+        <v>0.6244999999999999</v>
+      </c>
+      <c r="F22" s="15">
+        <f>AVERAGE(F16,F17,F18,F19,F20,F21)</f>
+        <v>0.6718333333333334</v>
+      </c>
+      <c r="G22" s="15">
+        <f>AVERAGE(G16,G17,G18,G19,G20,G21)</f>
+        <v>0.6055</v>
+      </c>
+      <c r="H22" s="15">
+        <f>AVERAGE(H16,H17,H18,H19,H20,H21)</f>
+        <v>0.6303333333333333</v>
+      </c>
+      <c r="I22" s="15">
+        <f>AVERAGE(I16,I17,I18,I19,I20,I21)</f>
+        <v>0.6668333333333334</v>
+      </c>
+      <c r="J22" s="15">
+        <f>AVERAGE(J16,J17,J18,J19,J20,J21)</f>
+        <v>0.6018333333333333</v>
+      </c>
+      <c r="K22" s="15">
+        <f>AVERAGE(K16,K17,K18,K19,K20,K21)</f>
+        <v>0.6258333333333334</v>
+      </c>
+      <c r="L22" s="15">
+        <f>AVERAGE(L16,L17,L18,L19,L20,L21)</f>
+        <v>0.6725</v>
+      </c>
+      <c r="M22" s="15">
+        <f>AVERAGE(M16,M17,M18,M19,M20,M21)</f>
+        <v>0.6078333333333333</v>
+      </c>
+      <c r="N22" s="15">
+        <f>AVERAGE(N16,N17,N18,N19,N20,N21)</f>
+        <v>0.6316666666666667</v>
+      </c>
+    </row>
+    <row r="23" ht="20.05" customHeight="1">
+      <c r="A23" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s" s="11">
+        <v>9</v>
+      </c>
+      <c r="C23" s="12">
+        <v>0.726</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0.763</v>
+      </c>
+      <c r="E23" s="12">
+        <v>0.744</v>
+      </c>
+      <c r="F23" s="12">
+        <v>0.726</v>
+      </c>
+      <c r="G23" s="12">
+        <v>0.763</v>
+      </c>
+      <c r="H23" s="12">
+        <v>0.744</v>
+      </c>
+      <c r="I23" s="12">
+        <v>0.8159999999999999</v>
+      </c>
+      <c r="J23" s="12">
+        <v>0.678</v>
+      </c>
+      <c r="K23" s="12">
+        <v>0.741</v>
+      </c>
+      <c r="L23" s="12">
+        <v>0.8159999999999999</v>
+      </c>
+      <c r="M23" s="12">
+        <v>0.678</v>
+      </c>
+      <c r="N23" s="12">
+        <v>0.741</v>
+      </c>
+    </row>
+    <row r="24" ht="20.05" customHeight="1">
+      <c r="A24" s="10"/>
+      <c r="B24" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C24" s="12">
+        <v>0.767</v>
+      </c>
+      <c r="D24" s="12">
+        <v>0.778</v>
+      </c>
+      <c r="E24" s="12">
+        <v>0.772</v>
+      </c>
+      <c r="F24" s="12">
+        <v>0.767</v>
+      </c>
+      <c r="G24" s="12">
+        <v>0.778</v>
+      </c>
+      <c r="H24" s="12">
+        <v>0.772</v>
+      </c>
+      <c r="I24" s="12">
+        <v>0.767</v>
+      </c>
+      <c r="J24" s="12">
+        <v>0.778</v>
+      </c>
+      <c r="K24" s="12">
+        <v>0.772</v>
+      </c>
+      <c r="L24" s="12">
+        <v>0.767</v>
+      </c>
+      <c r="M24" s="12">
+        <v>0.778</v>
+      </c>
+      <c r="N24" s="12">
+        <v>0.772</v>
+      </c>
+    </row>
+    <row r="25" ht="20.05" customHeight="1">
+      <c r="A25" s="10"/>
+      <c r="B25" t="s" s="11">
+        <v>11</v>
+      </c>
+      <c r="C25" s="12">
+        <v>0.756</v>
+      </c>
+      <c r="D25" s="12">
+        <v>0.596</v>
+      </c>
+      <c r="E25" s="12">
+        <v>0.667</v>
+      </c>
+      <c r="F25" s="12">
+        <v>0.756</v>
+      </c>
+      <c r="G25" s="12">
+        <v>0.596</v>
+      </c>
+      <c r="H25" s="12">
+        <v>0.667</v>
+      </c>
+      <c r="I25" s="12">
+        <v>0.756</v>
+      </c>
+      <c r="J25" s="12">
+        <v>0.596</v>
+      </c>
+      <c r="K25" s="12">
+        <v>0.667</v>
+      </c>
+      <c r="L25" s="12">
+        <v>0.756</v>
+      </c>
+      <c r="M25" s="12">
+        <v>0.596</v>
+      </c>
+      <c r="N25" s="12">
+        <v>0.667</v>
+      </c>
+    </row>
+    <row r="26" ht="20.05" customHeight="1">
+      <c r="A26" s="10"/>
+      <c r="B26" t="s" s="11">
+        <v>12</v>
+      </c>
+      <c r="C26" s="12">
+        <v>0.72</v>
+      </c>
+      <c r="D26" s="12">
+        <v>0.581</v>
+      </c>
+      <c r="E26" s="12">
+        <v>0.643</v>
+      </c>
+      <c r="F26" s="12">
+        <v>0.72</v>
+      </c>
+      <c r="G26" s="12">
+        <v>0.581</v>
+      </c>
+      <c r="H26" s="12">
+        <v>0.643</v>
+      </c>
+      <c r="I26" s="12">
+        <v>0.72</v>
+      </c>
+      <c r="J26" s="12">
+        <v>0.581</v>
+      </c>
+      <c r="K26" s="12">
+        <v>0.643</v>
+      </c>
+      <c r="L26" s="12">
+        <v>0.72</v>
+      </c>
+      <c r="M26" s="12">
+        <v>0.581</v>
+      </c>
+      <c r="N26" s="12">
+        <v>0.643</v>
+      </c>
+    </row>
+    <row r="27" ht="20.05" customHeight="1">
+      <c r="A27" s="10"/>
+      <c r="B27" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="C27" s="12">
+        <v>0.655</v>
+      </c>
+      <c r="D27" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="E27" s="12">
+        <v>0.671</v>
+      </c>
+      <c r="F27" s="12">
+        <v>0.655</v>
+      </c>
+      <c r="G27" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="H27" s="12">
+        <v>0.671</v>
+      </c>
+      <c r="I27" s="12">
+        <v>0.655</v>
+      </c>
+      <c r="J27" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="K27" s="12">
+        <v>0.671</v>
+      </c>
+      <c r="L27" s="12">
+        <v>0.655</v>
+      </c>
+      <c r="M27" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="N27" s="12">
+        <v>0.671</v>
+      </c>
+    </row>
+    <row r="28" ht="20.05" customHeight="1">
+      <c r="A28" s="10"/>
+      <c r="B28" t="s" s="11">
+        <v>14</v>
+      </c>
+      <c r="C28" s="12">
+        <v>0.652</v>
+      </c>
+      <c r="D28" s="12">
+        <v>0.395</v>
+      </c>
+      <c r="E28" s="12">
+        <v>0.492</v>
+      </c>
+      <c r="F28" s="12">
+        <v>0.652</v>
+      </c>
+      <c r="G28" s="12">
+        <v>0.395</v>
+      </c>
+      <c r="H28" s="12">
+        <v>0.492</v>
+      </c>
+      <c r="I28" s="12">
+        <v>0.652</v>
+      </c>
+      <c r="J28" s="12">
+        <v>0.395</v>
+      </c>
+      <c r="K28" s="12">
+        <v>0.492</v>
+      </c>
+      <c r="L28" s="12">
+        <v>0.652</v>
+      </c>
+      <c r="M28" s="12">
+        <v>0.395</v>
+      </c>
+      <c r="N28" s="12">
+        <v>0.492</v>
+      </c>
+    </row>
+    <row r="29" ht="20.05" customHeight="1">
+      <c r="A29" s="10"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15">
+        <f>AVERAGE(C23,C24,C25,C26,C27,C28)</f>
+        <v>0.7126666666666667</v>
+      </c>
+      <c r="D29" s="15">
+        <f>AVERAGE(D23,D24,D25,D26,D27,D28)</f>
+        <v>0.6333333333333334</v>
+      </c>
+      <c r="E29" s="15">
+        <f>AVERAGE(E23,E24,E25,E26,E27,E28)</f>
+        <v>0.6648333333333333</v>
+      </c>
+      <c r="F29" s="15">
+        <f>AVERAGE(F23,F24,F25,F26,F27,F28)</f>
+        <v>0.7126666666666667</v>
+      </c>
+      <c r="G29" s="15">
+        <f>AVERAGE(G23,G24,G25,G26,G27,G28)</f>
+        <v>0.6333333333333334</v>
+      </c>
+      <c r="H29" s="15">
+        <f>AVERAGE(H23,H24,H25,H26,H27,H28)</f>
+        <v>0.6648333333333333</v>
+      </c>
+      <c r="I29" s="15">
+        <f>AVERAGE(I23,I24,I25,I26,I27,I28)</f>
+        <v>0.7276666666666668</v>
+      </c>
+      <c r="J29" s="15">
+        <f>AVERAGE(J23,J24,J25,J26,J27,J28)</f>
+        <v>0.6191666666666668</v>
+      </c>
+      <c r="K29" s="15">
+        <f>AVERAGE(K23,K24,K25,K26,K27,K28)</f>
+        <v>0.6643333333333333</v>
+      </c>
+      <c r="L29" s="15">
+        <f>AVERAGE(L23,L24,L25,L26,L27,L28)</f>
+        <v>0.7276666666666668</v>
+      </c>
+      <c r="M29" s="15">
+        <f>AVERAGE(M23,M24,M25,M26,M27,M28)</f>
+        <v>0.6191666666666668</v>
+      </c>
+      <c r="N29" s="15">
+        <f>AVERAGE(N23,N24,N25,N26,N27,N28)</f>
+        <v>0.6643333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
@@ -4410,53 +5337,53 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="21" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="21" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="21" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="21" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="21" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="21" customWidth="1"/>
-    <col min="7" max="7" width="18.1172" style="21" customWidth="1"/>
-    <col min="8" max="8" width="16.3516" style="21" customWidth="1"/>
-    <col min="9" max="9" width="16.3516" style="21" customWidth="1"/>
-    <col min="10" max="10" width="16.3516" style="21" customWidth="1"/>
-    <col min="11" max="256" width="16.3516" style="21" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="28" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="28" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="28" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="28" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="28" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="28" customWidth="1"/>
+    <col min="7" max="7" width="18.125" style="28" customWidth="1"/>
+    <col min="8" max="8" width="16.3516" style="28" customWidth="1"/>
+    <col min="9" max="9" width="16.3516" style="28" customWidth="1"/>
+    <col min="10" max="10" width="16.3516" style="28" customWidth="1"/>
+    <col min="11" max="256" width="16.3516" style="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s" s="2">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s" s="2">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s" s="2">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s" s="2">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G1" t="s" s="2">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H1" t="s" s="2">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I1" t="s" s="2">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J1" t="s" s="2">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="22"/>
+      <c r="A2" s="29"/>
       <c r="B2" t="s" s="6">
         <v>9</v>
       </c>
@@ -4486,7 +5413,7 @@
       </c>
     </row>
     <row r="3" ht="20.05" customHeight="1">
-      <c r="A3" s="23"/>
+      <c r="A3" s="30"/>
       <c r="B3" t="s" s="11">
         <v>10</v>
       </c>
@@ -4502,7 +5429,7 @@
       <c r="F3" s="12">
         <v>10</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="31">
         <v>1</v>
       </c>
       <c r="H3" s="12">
@@ -4516,7 +5443,7 @@
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="23"/>
+      <c r="A4" s="30"/>
       <c r="B4" t="s" s="11">
         <v>11</v>
       </c>
@@ -4546,7 +5473,7 @@
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="23"/>
+      <c r="A5" s="30"/>
       <c r="B5" t="s" s="11">
         <v>12</v>
       </c>
@@ -4562,7 +5489,7 @@
       <c r="F5" s="12">
         <v>7</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="32">
         <v>0.7333333333333333</v>
       </c>
       <c r="H5" s="12">
@@ -4576,7 +5503,7 @@
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="23"/>
+      <c r="A6" s="30"/>
       <c r="B6" t="s" s="11">
         <v>13</v>
       </c>
@@ -4592,7 +5519,7 @@
       <c r="F6" s="12">
         <v>8</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="32">
         <v>0.8666666666666667</v>
       </c>
       <c r="H6" s="12">
@@ -4606,7 +5533,7 @@
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="23"/>
+      <c r="A7" s="30"/>
       <c r="B7" t="s" s="11">
         <v>14</v>
       </c>
@@ -4622,7 +5549,7 @@
       <c r="F7" s="12">
         <v>8</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="32">
         <v>0.6666666666666666</v>
       </c>
       <c r="H7" s="12">
@@ -4636,10 +5563,10 @@
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="26">
-        <v>30</v>
-      </c>
-      <c r="B8" s="27"/>
+      <c r="A8" t="s" s="33">
+        <v>34</v>
+      </c>
+      <c r="B8" s="34"/>
       <c r="C8" s="15">
         <f>AVERAGE(C2,C3,C4,C5,C6,C7)</f>
         <v>0.8999999999999999</v>
@@ -4674,8 +5601,8 @@
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="23"/>
-      <c r="B9" s="28"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
@@ -4686,8 +5613,8 @@
       <c r="J9" s="12"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="23"/>
-      <c r="B10" s="28"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>

--- a/Experiment/TestDiff.xlsx
+++ b/Experiment/TestDiff.xlsx
@@ -8,14 +8,15 @@
   <sheets>
     <sheet name="Models" sheetId="1" r:id="rId4"/>
     <sheet name="Within" sheetId="2" r:id="rId5"/>
-    <sheet name="Features" sheetId="3" r:id="rId6"/>
-    <sheet name="TopK" sheetId="4" r:id="rId7"/>
+    <sheet name="TestHistory" sheetId="3" r:id="rId6"/>
+    <sheet name="Features" sheetId="4" r:id="rId7"/>
+    <sheet name="TopK" sheetId="5" r:id="rId8"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>Feature Set</t>
   </si>
@@ -74,6 +75,9 @@
     <t>表格 1</t>
   </si>
   <si>
+    <t>10-folder</t>
+  </si>
+  <si>
     <t>Adaboost-50</t>
   </si>
   <si>
@@ -81,6 +85,30 @@
   </si>
   <si>
     <t>WangWei</t>
+  </si>
+  <si>
+    <t>90past predict 10 future</t>
+  </si>
+  <si>
+    <t>Adaboost</t>
+  </si>
+  <si>
+    <t>Wangwei</t>
+  </si>
+  <si>
+    <t>Wangwei+his</t>
+  </si>
+  <si>
+    <t>C4.5</t>
+  </si>
+  <si>
+    <t>lucent</t>
+  </si>
+  <si>
+    <t>Wangwei+cochange</t>
+  </si>
+  <si>
+    <t>Wangwei+his+cochange</t>
   </si>
   <si>
     <t>before-Precision</t>
@@ -369,7 +397,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -449,6 +477,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -3143,7 +3174,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AG19"/>
+  <dimension ref="A2:AG27"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -3225,15 +3256,17 @@
       <c r="AG1" s="21"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="3"/>
+      <c r="A2" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="B2" s="3"/>
       <c r="C2" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -3614,7 +3647,7 @@
       <c r="A10" s="10"/>
       <c r="B10" s="14"/>
       <c r="C10" t="s" s="26">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
@@ -3949,13 +3982,19 @@
       <c r="AF17" s="25"/>
       <c r="AG17" s="25"/>
     </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="10"/>
+    <row r="18" ht="32.05" customHeight="1">
+      <c r="A18" t="s" s="17">
+        <v>23</v>
+      </c>
       <c r="B18" s="14"/>
-      <c r="C18" s="24"/>
+      <c r="C18" t="s" s="26">
+        <v>24</v>
+      </c>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
+      <c r="F18" t="s" s="26">
+        <v>25</v>
+      </c>
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -3986,13 +4025,27 @@
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" s="10"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
+      <c r="B19" t="s" s="11">
+        <v>14</v>
+      </c>
+      <c r="C19" s="12">
+        <v>0</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0</v>
+      </c>
+      <c r="F19" s="12">
+        <v>1</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0.333</v>
+      </c>
+      <c r="H19" s="12">
+        <v>0.5</v>
+      </c>
       <c r="I19" s="24"/>
       <c r="J19" s="24"/>
       <c r="K19" s="24"/>
@@ -4019,6 +4072,374 @@
       <c r="AF19" s="24"/>
       <c r="AG19" s="24"/>
     </row>
+    <row r="20" ht="20.05" customHeight="1">
+      <c r="A20" s="10"/>
+      <c r="B20" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="C20" s="12">
+        <v>0.667</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="E20" s="12">
+        <v>0.364</v>
+      </c>
+      <c r="F20" s="12">
+        <v>0.667</v>
+      </c>
+      <c r="G20" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="H20" s="12">
+        <v>0.706</v>
+      </c>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="24"/>
+      <c r="V20" s="24"/>
+      <c r="W20" s="24"/>
+      <c r="X20" s="24"/>
+      <c r="Y20" s="24"/>
+      <c r="Z20" s="24"/>
+      <c r="AA20" s="24"/>
+      <c r="AB20" s="24"/>
+      <c r="AC20" s="24"/>
+      <c r="AD20" s="24"/>
+      <c r="AE20" s="24"/>
+      <c r="AF20" s="24"/>
+      <c r="AG20" s="24"/>
+    </row>
+    <row r="21" ht="20.05" customHeight="1">
+      <c r="A21" s="10"/>
+      <c r="B21" t="s" s="11">
+        <v>11</v>
+      </c>
+      <c r="C21" s="12">
+        <v>0.909</v>
+      </c>
+      <c r="D21" s="12">
+        <v>1</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0.952</v>
+      </c>
+      <c r="F21" s="12">
+        <v>0.833</v>
+      </c>
+      <c r="G21" s="12">
+        <v>1</v>
+      </c>
+      <c r="H21" s="12">
+        <v>0.909</v>
+      </c>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="24"/>
+      <c r="AA21" s="24"/>
+      <c r="AB21" s="24"/>
+      <c r="AC21" s="24"/>
+      <c r="AD21" s="24"/>
+      <c r="AE21" s="24"/>
+      <c r="AF21" s="24"/>
+      <c r="AG21" s="24"/>
+    </row>
+    <row r="22" ht="20.05" customHeight="1">
+      <c r="A22" s="10"/>
+      <c r="B22" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C22" s="12">
+        <v>1</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0.714</v>
+      </c>
+      <c r="E22" s="12">
+        <v>0.833</v>
+      </c>
+      <c r="F22" s="12">
+        <v>1</v>
+      </c>
+      <c r="G22" s="12">
+        <v>0.429</v>
+      </c>
+      <c r="H22" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="24"/>
+      <c r="X22" s="24"/>
+      <c r="Y22" s="24"/>
+      <c r="Z22" s="24"/>
+      <c r="AA22" s="24"/>
+      <c r="AB22" s="24"/>
+      <c r="AC22" s="24"/>
+      <c r="AD22" s="24"/>
+      <c r="AE22" s="24"/>
+      <c r="AF22" s="24"/>
+      <c r="AG22" s="24"/>
+    </row>
+    <row r="23" ht="20.05" customHeight="1">
+      <c r="A23" s="10"/>
+      <c r="B23" t="s" s="11">
+        <v>9</v>
+      </c>
+      <c r="C23" s="12">
+        <v>1</v>
+      </c>
+      <c r="D23" s="12">
+        <v>1</v>
+      </c>
+      <c r="E23" s="12">
+        <v>1</v>
+      </c>
+      <c r="F23" s="12">
+        <v>0.833</v>
+      </c>
+      <c r="G23" s="12">
+        <v>1</v>
+      </c>
+      <c r="H23" s="12">
+        <v>0.909</v>
+      </c>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="24"/>
+      <c r="W23" s="24"/>
+      <c r="X23" s="24"/>
+      <c r="Y23" s="24"/>
+      <c r="Z23" s="24"/>
+      <c r="AA23" s="24"/>
+      <c r="AB23" s="24"/>
+      <c r="AC23" s="24"/>
+      <c r="AD23" s="24"/>
+      <c r="AE23" s="24"/>
+      <c r="AF23" s="24"/>
+      <c r="AG23" s="24"/>
+    </row>
+    <row r="24" ht="20.05" customHeight="1">
+      <c r="A24" s="10"/>
+      <c r="B24" t="s" s="11">
+        <v>12</v>
+      </c>
+      <c r="C24" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="12">
+        <v>0.667</v>
+      </c>
+      <c r="E24" s="12">
+        <v>0.571</v>
+      </c>
+      <c r="F24" s="12">
+        <v>0</v>
+      </c>
+      <c r="G24" s="12">
+        <v>0</v>
+      </c>
+      <c r="H24" s="12">
+        <v>0</v>
+      </c>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="24"/>
+      <c r="X24" s="24"/>
+      <c r="Y24" s="24"/>
+      <c r="Z24" s="24"/>
+      <c r="AA24" s="24"/>
+      <c r="AB24" s="24"/>
+      <c r="AC24" s="24"/>
+      <c r="AD24" s="24"/>
+      <c r="AE24" s="24"/>
+      <c r="AF24" s="24"/>
+      <c r="AG24" s="24"/>
+    </row>
+    <row r="25" ht="20.05" customHeight="1">
+      <c r="A25" s="10"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="12">
+        <f>AVERAGE(C19,C20,C21,C22,C23,C24)</f>
+        <v>0.6793333333333335</v>
+      </c>
+      <c r="D25" s="12">
+        <f>AVERAGE(D19,D20,D21,D22,D23,D24)</f>
+        <v>0.6051666666666667</v>
+      </c>
+      <c r="E25" s="12">
+        <f>AVERAGE(E19,E20,E21,E22,E23,E24)</f>
+        <v>0.62</v>
+      </c>
+      <c r="F25" s="12">
+        <f>AVERAGE(F19,F20,F21,F22,F23,F24)</f>
+        <v>0.7221666666666667</v>
+      </c>
+      <c r="G25" s="12">
+        <f>AVERAGE(G19,G20,G21,G22,G23,G24)</f>
+        <v>0.5853333333333334</v>
+      </c>
+      <c r="H25" s="12">
+        <f>AVERAGE(H19,H20,H21,H22,H23,H24)</f>
+        <v>0.6040000000000001</v>
+      </c>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="24"/>
+      <c r="W25" s="24"/>
+      <c r="X25" s="24"/>
+      <c r="Y25" s="24"/>
+      <c r="Z25" s="24"/>
+      <c r="AA25" s="24"/>
+      <c r="AB25" s="24"/>
+      <c r="AC25" s="24"/>
+      <c r="AD25" s="24"/>
+      <c r="AE25" s="24"/>
+      <c r="AF25" s="24"/>
+      <c r="AG25" s="24"/>
+    </row>
+    <row r="26" ht="20.05" customHeight="1">
+      <c r="A26" s="10"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="24"/>
+      <c r="V26" s="24"/>
+      <c r="W26" s="24"/>
+      <c r="X26" s="24"/>
+      <c r="Y26" s="24"/>
+      <c r="Z26" s="24"/>
+      <c r="AA26" s="24"/>
+      <c r="AB26" s="24"/>
+      <c r="AC26" s="24"/>
+      <c r="AD26" s="24"/>
+      <c r="AE26" s="24"/>
+      <c r="AF26" s="24"/>
+      <c r="AG26" s="24"/>
+    </row>
+    <row r="27" ht="20.05" customHeight="1">
+      <c r="A27" s="10"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="24"/>
+      <c r="V27" s="24"/>
+      <c r="W27" s="24"/>
+      <c r="X27" s="24"/>
+      <c r="Y27" s="24"/>
+      <c r="Z27" s="24"/>
+      <c r="AA27" s="24"/>
+      <c r="AB27" s="24"/>
+      <c r="AC27" s="24"/>
+      <c r="AD27" s="24"/>
+      <c r="AE27" s="24"/>
+      <c r="AF27" s="24"/>
+      <c r="AG27" s="24"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:AG1"/>
@@ -4036,7 +4457,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -4044,7 +4465,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="27" customWidth="1"/>
+    <col min="1" max="1" width="20.9453" style="27" customWidth="1"/>
     <col min="2" max="2" width="16.3516" style="27" customWidth="1"/>
     <col min="3" max="3" width="16.3516" style="27" customWidth="1"/>
     <col min="4" max="4" width="16.3516" style="27" customWidth="1"/>
@@ -4052,129 +4473,71 @@
     <col min="6" max="6" width="16.3516" style="27" customWidth="1"/>
     <col min="7" max="7" width="16.3516" style="27" customWidth="1"/>
     <col min="8" max="8" width="16.3516" style="27" customWidth="1"/>
-    <col min="9" max="9" width="16.3516" style="27" customWidth="1"/>
-    <col min="10" max="10" width="16.3516" style="27" customWidth="1"/>
-    <col min="11" max="11" width="16.3516" style="27" customWidth="1"/>
-    <col min="12" max="12" width="16.3516" style="27" customWidth="1"/>
-    <col min="13" max="13" width="16.3516" style="27" customWidth="1"/>
-    <col min="14" max="14" width="16.3516" style="27" customWidth="1"/>
-    <col min="15" max="256" width="16.3516" style="27" customWidth="1"/>
+    <col min="9" max="256" width="16.3516" style="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s" s="2">
-        <v>3</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
       <c r="F1" t="s" s="2">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-      <c r="I1" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="5">
-        <v>23</v>
-      </c>
+      <c r="A2" s="22"/>
       <c r="B2" t="s" s="6">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C2" s="7">
-        <v>0.727</v>
+        <v>0.73</v>
       </c>
       <c r="D2" s="7">
-        <v>0.542</v>
+        <v>0.711</v>
       </c>
       <c r="E2" s="7">
-        <v>0.621</v>
+        <v>0.72</v>
       </c>
       <c r="F2" s="7">
-        <v>0.727</v>
+        <v>0.586</v>
       </c>
       <c r="G2" s="7">
-        <v>0.542</v>
+        <v>0.447</v>
       </c>
       <c r="H2" s="7">
-        <v>0.621</v>
-      </c>
-      <c r="I2" s="7">
-        <v>0.727</v>
-      </c>
-      <c r="J2" s="7">
-        <v>0.542</v>
-      </c>
-      <c r="K2" s="7">
-        <v>0.621</v>
-      </c>
-      <c r="L2" s="7">
-        <v>0.727</v>
-      </c>
-      <c r="M2" s="7">
-        <v>0.542</v>
-      </c>
-      <c r="N2" s="7">
-        <v>0.621</v>
+        <v>0.507</v>
       </c>
     </row>
     <row r="3" ht="20.05" customHeight="1">
       <c r="A3" s="10"/>
       <c r="B3" t="s" s="11">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" s="12">
-        <v>0.806</v>
+        <v>0.613</v>
       </c>
       <c r="D3" s="12">
-        <v>0.806</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="E3" s="12">
-        <v>0.806</v>
+        <v>0.648</v>
       </c>
       <c r="F3" s="12">
-        <v>0.806</v>
+        <v>0.64</v>
       </c>
       <c r="G3" s="12">
-        <v>0.806</v>
+        <v>0.578</v>
       </c>
       <c r="H3" s="12">
-        <v>0.806</v>
-      </c>
-      <c r="I3" s="12">
-        <v>0.806</v>
-      </c>
-      <c r="J3" s="12">
-        <v>0.806</v>
-      </c>
-      <c r="K3" s="12">
-        <v>0.806</v>
-      </c>
-      <c r="L3" s="12">
-        <v>0.806</v>
-      </c>
-      <c r="M3" s="12">
-        <v>0.806</v>
-      </c>
-      <c r="N3" s="12">
-        <v>0.806</v>
+        <v>0.608</v>
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
@@ -4183,1136 +4546,490 @@
         <v>11</v>
       </c>
       <c r="C4" s="12">
-        <v>0.667</v>
+        <v>0.59</v>
       </c>
       <c r="D4" s="12">
-        <v>0.55</v>
+        <v>0.211</v>
       </c>
       <c r="E4" s="12">
-        <v>0.603</v>
+        <v>0.311</v>
       </c>
       <c r="F4" s="12">
-        <v>0.667</v>
+        <v>0.597</v>
       </c>
       <c r="G4" s="12">
-        <v>0.55</v>
+        <v>0.339</v>
       </c>
       <c r="H4" s="12">
-        <v>0.603</v>
-      </c>
-      <c r="I4" s="12">
-        <v>0.667</v>
-      </c>
-      <c r="J4" s="12">
-        <v>0.55</v>
-      </c>
-      <c r="K4" s="12">
-        <v>0.603</v>
-      </c>
-      <c r="L4" s="12">
-        <v>0.667</v>
-      </c>
-      <c r="M4" s="12">
-        <v>0.55</v>
-      </c>
-      <c r="N4" s="12">
-        <v>0.603</v>
+        <v>0.433</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" t="s" s="11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="12">
-        <v>0.6919999999999999</v>
+        <v>0.731</v>
       </c>
       <c r="D5" s="12">
-        <v>0.581</v>
+        <v>0.792</v>
       </c>
       <c r="E5" s="12">
-        <v>0.632</v>
+        <v>0.76</v>
       </c>
       <c r="F5" s="12">
-        <v>0.6919999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="G5" s="12">
-        <v>0.581</v>
+        <v>0.542</v>
       </c>
       <c r="H5" s="12">
-        <v>0.632</v>
-      </c>
-      <c r="I5" s="12">
-        <v>0.6919999999999999</v>
-      </c>
-      <c r="J5" s="12">
-        <v>0.581</v>
-      </c>
-      <c r="K5" s="12">
-        <v>0.632</v>
-      </c>
-      <c r="L5" s="12">
-        <v>0.6919999999999999</v>
-      </c>
-      <c r="M5" s="12">
-        <v>0.581</v>
-      </c>
-      <c r="N5" s="12">
-        <v>0.632</v>
+        <v>0.639</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" s="10"/>
       <c r="B6" t="s" s="11">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C6" s="12">
-        <v>0.582</v>
+        <v>0.607</v>
       </c>
       <c r="D6" s="12">
-        <v>0.6870000000000001</v>
+        <v>0.576</v>
       </c>
       <c r="E6" s="12">
-        <v>0.63</v>
+        <v>0.591</v>
       </c>
       <c r="F6" s="12">
-        <v>0.582</v>
+        <v>0.615</v>
       </c>
       <c r="G6" s="12">
-        <v>0.6870000000000001</v>
+        <v>0.407</v>
       </c>
       <c r="H6" s="12">
-        <v>0.63</v>
-      </c>
-      <c r="I6" s="12">
-        <v>0.582</v>
-      </c>
-      <c r="J6" s="12">
-        <v>0.6870000000000001</v>
-      </c>
-      <c r="K6" s="12">
-        <v>0.63</v>
-      </c>
-      <c r="L6" s="12">
-        <v>0.582</v>
-      </c>
-      <c r="M6" s="12">
-        <v>0.6870000000000001</v>
-      </c>
-      <c r="N6" s="12">
-        <v>0.63</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" t="s" s="11">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" s="12">
-        <v>0.8129999999999999</v>
+        <v>0.733</v>
       </c>
       <c r="D7" s="12">
-        <v>0.6840000000000001</v>
+        <v>0.355</v>
       </c>
       <c r="E7" s="12">
-        <v>0.743</v>
+        <v>0.478</v>
       </c>
       <c r="F7" s="12">
-        <v>0.8129999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="G7" s="12">
-        <v>0.6840000000000001</v>
+        <v>0.548</v>
       </c>
       <c r="H7" s="12">
-        <v>0.743</v>
-      </c>
-      <c r="I7" s="12">
-        <v>0.8129999999999999</v>
-      </c>
-      <c r="J7" s="12">
-        <v>0.6840000000000001</v>
-      </c>
-      <c r="K7" s="12">
-        <v>0.743</v>
-      </c>
-      <c r="L7" s="12">
-        <v>0.8129999999999999</v>
-      </c>
-      <c r="M7" s="12">
-        <v>0.6840000000000001</v>
-      </c>
-      <c r="N7" s="12">
-        <v>0.743</v>
+        <v>0.607</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="14"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="15">
         <f>AVERAGE(C2,C3,C4,C5,C6,C7)</f>
-        <v>0.7145</v>
+        <v>0.6673333333333332</v>
       </c>
       <c r="D8" s="15">
         <f>AVERAGE(D2,D3,D4,D5,D6,D7)</f>
-        <v>0.6416666666666667</v>
+        <v>0.5553333333333333</v>
       </c>
       <c r="E8" s="15">
         <f>AVERAGE(E2,E3,E4,E5,E6,E7)</f>
-        <v>0.6725</v>
+        <v>0.5846666666666667</v>
       </c>
       <c r="F8" s="15">
         <f>AVERAGE(F2,F3,F4,F5,F6,F7)</f>
-        <v>0.7145</v>
+        <v>0.6496666666666667</v>
       </c>
       <c r="G8" s="15">
         <f>AVERAGE(G2,G3,G4,G5,G6,G7)</f>
-        <v>0.6416666666666667</v>
+        <v>0.4768333333333333</v>
       </c>
       <c r="H8" s="15">
         <f>AVERAGE(H2,H3,H4,H5,H6,H7)</f>
-        <v>0.6725</v>
-      </c>
-      <c r="I8" s="15">
-        <f>AVERAGE(I2,I3,I4,I5,I6,I7)</f>
-        <v>0.7145</v>
-      </c>
-      <c r="J8" s="15">
-        <f>AVERAGE(J2,J3,J4,J5,J6,J7)</f>
-        <v>0.6416666666666667</v>
-      </c>
-      <c r="K8" s="15">
-        <f>AVERAGE(K2,K3,K4,K5,K6,K7)</f>
-        <v>0.6725</v>
-      </c>
-      <c r="L8" s="15">
-        <f>AVERAGE(L2,L3,L4,L5,L6,L7)</f>
-        <v>0.7145</v>
-      </c>
-      <c r="M8" s="15">
-        <f>AVERAGE(M2,M3,M4,M5,M6,M7)</f>
-        <v>0.6416666666666667</v>
-      </c>
-      <c r="N8" s="15">
-        <f>AVERAGE(N2,N3,N4,N5,N6,N7)</f>
-        <v>0.6725</v>
+        <v>0.5473333333333334</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" t="s" s="17">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="C9" s="12">
-        <v>0.708</v>
-      </c>
-      <c r="D9" s="12">
-        <v>0.576</v>
-      </c>
-      <c r="E9" s="12">
-        <v>0.636</v>
-      </c>
-      <c r="F9" s="12">
-        <v>0.708</v>
-      </c>
-      <c r="G9" s="12">
-        <v>0.576</v>
-      </c>
-      <c r="H9" s="12">
-        <v>0.636</v>
-      </c>
-      <c r="I9" s="12">
-        <v>0.714</v>
-      </c>
-      <c r="J9" s="12">
-        <v>0.593</v>
-      </c>
-      <c r="K9" s="12">
-        <v>0.648</v>
-      </c>
-      <c r="L9" s="12">
-        <v>0.714</v>
-      </c>
-      <c r="M9" s="12">
-        <v>0.593</v>
-      </c>
-      <c r="N9" s="12">
-        <v>0.648</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" t="s" s="11">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C10" s="12">
-        <v>0.74</v>
+        <v>0.839</v>
       </c>
       <c r="D10" s="12">
-        <v>0.75</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="E10" s="12">
-        <v>0.745</v>
+        <v>0.754</v>
       </c>
       <c r="F10" s="12">
-        <v>0.74</v>
+        <v>0.838</v>
       </c>
       <c r="G10" s="12">
-        <v>0.75</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="H10" s="12">
-        <v>0.745</v>
-      </c>
-      <c r="I10" s="12">
-        <v>0.74</v>
-      </c>
-      <c r="J10" s="12">
-        <v>0.75</v>
-      </c>
-      <c r="K10" s="12">
-        <v>0.745</v>
-      </c>
-      <c r="L10" s="12">
-        <v>0.74</v>
-      </c>
-      <c r="M10" s="12">
-        <v>0.75</v>
-      </c>
-      <c r="N10" s="12">
-        <v>0.745</v>
+        <v>0.827</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" t="s" s="11">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C11" s="12">
-        <v>0.571</v>
+        <v>0.649</v>
       </c>
       <c r="D11" s="12">
-        <v>0.147</v>
+        <v>0.578</v>
       </c>
       <c r="E11" s="12">
-        <v>0.234</v>
+        <v>0.611</v>
       </c>
       <c r="F11" s="12">
-        <v>0.571</v>
+        <v>0.598</v>
       </c>
       <c r="G11" s="12">
-        <v>0.147</v>
+        <v>0.627</v>
       </c>
       <c r="H11" s="12">
-        <v>0.234</v>
-      </c>
-      <c r="I11" s="12">
-        <v>0.571</v>
-      </c>
-      <c r="J11" s="12">
-        <v>0.147</v>
-      </c>
-      <c r="K11" s="12">
-        <v>0.234</v>
-      </c>
-      <c r="L11" s="12">
-        <v>0.571</v>
-      </c>
-      <c r="M11" s="12">
-        <v>0.147</v>
-      </c>
-      <c r="N11" s="12">
-        <v>0.234</v>
+        <v>0.612</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" t="s" s="11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="12">
+        <v>0.664</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0.67</v>
+      </c>
+      <c r="E12" s="12">
         <v>0.667</v>
       </c>
-      <c r="D12" s="12">
-        <v>0.452</v>
-      </c>
-      <c r="E12" s="12">
-        <v>0.538</v>
-      </c>
       <c r="F12" s="12">
-        <v>0.667</v>
+        <v>0.571</v>
       </c>
       <c r="G12" s="12">
-        <v>0.452</v>
+        <v>0.33</v>
       </c>
       <c r="H12" s="12">
-        <v>0.538</v>
-      </c>
-      <c r="I12" s="12">
-        <v>0.667</v>
-      </c>
-      <c r="J12" s="12">
-        <v>0.452</v>
-      </c>
-      <c r="K12" s="12">
-        <v>0.538</v>
-      </c>
-      <c r="L12" s="12">
-        <v>0.667</v>
-      </c>
-      <c r="M12" s="12">
-        <v>0.452</v>
-      </c>
-      <c r="N12" s="12">
-        <v>0.538</v>
+        <v>0.419</v>
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" t="s" s="11">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C13" s="12">
-        <v>0.67</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="D13" s="12">
-        <v>0.831</v>
+        <v>0.861</v>
       </c>
       <c r="E13" s="12">
-        <v>0.742</v>
+        <v>0.765</v>
       </c>
       <c r="F13" s="12">
-        <v>0.67</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="G13" s="12">
-        <v>0.831</v>
+        <v>0.653</v>
       </c>
       <c r="H13" s="12">
-        <v>0.742</v>
-      </c>
-      <c r="I13" s="12">
-        <v>0.67</v>
-      </c>
-      <c r="J13" s="12">
-        <v>0.831</v>
-      </c>
-      <c r="K13" s="12">
-        <v>0.742</v>
-      </c>
-      <c r="L13" s="12">
-        <v>0.67</v>
-      </c>
-      <c r="M13" s="12">
-        <v>0.831</v>
-      </c>
-      <c r="N13" s="12">
-        <v>0.742</v>
+        <v>0.671</v>
       </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" s="10"/>
       <c r="B14" t="s" s="11">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C14" s="12">
-        <v>0.735</v>
+        <v>0.681</v>
       </c>
       <c r="D14" s="12">
-        <v>0.658</v>
+        <v>0.542</v>
       </c>
       <c r="E14" s="12">
-        <v>0.694</v>
+        <v>0.604</v>
       </c>
       <c r="F14" s="12">
-        <v>0.735</v>
+        <v>0.485</v>
       </c>
       <c r="G14" s="12">
-        <v>0.658</v>
+        <v>0.271</v>
       </c>
       <c r="H14" s="12">
-        <v>0.694</v>
-      </c>
-      <c r="I14" s="12">
-        <v>0.735</v>
-      </c>
-      <c r="J14" s="12">
-        <v>0.658</v>
-      </c>
-      <c r="K14" s="12">
-        <v>0.694</v>
-      </c>
-      <c r="L14" s="12">
-        <v>0.735</v>
-      </c>
-      <c r="M14" s="12">
-        <v>0.658</v>
-      </c>
-      <c r="N14" s="12">
-        <v>0.694</v>
+        <v>0.348</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" s="10"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15">
-        <f>AVERAGE(C9,C10,C11,C12,C13,C14)</f>
-        <v>0.6818333333333334</v>
-      </c>
-      <c r="D15" s="15">
-        <f>AVERAGE(D9,D10,D11,D12,D13,D14)</f>
-        <v>0.5690000000000001</v>
-      </c>
-      <c r="E15" s="15">
-        <f>AVERAGE(E9,E10,E11,E12,E13,E14)</f>
-        <v>0.5981666666666666</v>
-      </c>
-      <c r="F15" s="15">
-        <f>AVERAGE(F9,F10,F11,F12,F13,F14)</f>
-        <v>0.6818333333333334</v>
-      </c>
-      <c r="G15" s="15">
-        <f>AVERAGE(G9,G10,G11,G12,G13,G14)</f>
-        <v>0.5690000000000001</v>
-      </c>
-      <c r="H15" s="15">
-        <f>AVERAGE(H9,H10,H11,H12,H13,H14)</f>
-        <v>0.5981666666666666</v>
-      </c>
-      <c r="I15" s="15">
-        <f>AVERAGE(I9,I10,I11,I12,I13,I14)</f>
-        <v>0.6828333333333334</v>
-      </c>
-      <c r="J15" s="15">
-        <f>AVERAGE(J9,J10,J11,J12,J13,J14)</f>
-        <v>0.5718333333333333</v>
-      </c>
-      <c r="K15" s="15">
-        <f>AVERAGE(K9,K10,K11,K12,K13,K14)</f>
-        <v>0.6001666666666666</v>
-      </c>
-      <c r="L15" s="15">
-        <f>AVERAGE(L9,L10,L11,L12,L13,L14)</f>
-        <v>0.6828333333333334</v>
-      </c>
-      <c r="M15" s="15">
-        <f>AVERAGE(M9,M10,M11,M12,M13,M14)</f>
-        <v>0.5718333333333333</v>
-      </c>
-      <c r="N15" s="15">
-        <f>AVERAGE(N9,N10,N11,N12,N13,N14)</f>
-        <v>0.6001666666666666</v>
+      <c r="B15" t="s" s="11">
+        <v>12</v>
+      </c>
+      <c r="C15" s="12">
+        <v>0.526</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0.323</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="F15" s="12">
+        <v>0.529</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0.29</v>
+      </c>
+      <c r="H15" s="12">
+        <v>0.375</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="17">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="C16" s="12">
-        <v>0.75</v>
-      </c>
-      <c r="D16" s="12">
-        <v>0.508</v>
-      </c>
-      <c r="E16" s="12">
-        <v>0.606</v>
-      </c>
-      <c r="F16" s="12">
-        <v>0.75</v>
-      </c>
-      <c r="G16" s="12">
-        <v>0.508</v>
-      </c>
-      <c r="H16" s="12">
-        <v>0.606</v>
-      </c>
-      <c r="I16" s="12">
-        <v>0.75</v>
-      </c>
-      <c r="J16" s="12">
-        <v>0.508</v>
-      </c>
-      <c r="K16" s="12">
-        <v>0.606</v>
-      </c>
-      <c r="L16" s="12">
-        <v>0.75</v>
-      </c>
-      <c r="M16" s="12">
-        <v>0.508</v>
-      </c>
-      <c r="N16" s="12">
-        <v>0.606</v>
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="15">
+        <f>AVERAGE(C10,C11,C12,C13,C14,C15)</f>
+        <v>0.6746666666666666</v>
+      </c>
+      <c r="D16" s="15">
+        <f>AVERAGE(D10,D11,D12,D13,D14,D15)</f>
+        <v>0.6096666666666667</v>
+      </c>
+      <c r="E16" s="15">
+        <f>AVERAGE(E10,E11,E12,E13,E14,E15)</f>
+        <v>0.6335000000000001</v>
+      </c>
+      <c r="F16" s="15">
+        <f>AVERAGE(F10,F11,F12,F13,F14,F15)</f>
+        <v>0.6186666666666666</v>
+      </c>
+      <c r="G16" s="15">
+        <f>AVERAGE(G10,G11,G12,G13,G14,G15)</f>
+        <v>0.4978333333333333</v>
+      </c>
+      <c r="H16" s="15">
+        <f>AVERAGE(H10,H11,H12,H13,H14,H15)</f>
+        <v>0.5419999999999999</v>
       </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="B17" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="C17" s="12">
-        <v>0.695</v>
-      </c>
-      <c r="D17" s="12">
-        <v>0.792</v>
-      </c>
-      <c r="E17" s="12">
-        <v>0.74</v>
-      </c>
-      <c r="F17" s="12">
-        <v>0.695</v>
-      </c>
-      <c r="G17" s="12">
-        <v>0.792</v>
-      </c>
-      <c r="H17" s="12">
-        <v>0.74</v>
-      </c>
-      <c r="I17" s="12">
-        <v>0.699</v>
-      </c>
-      <c r="J17" s="12">
-        <v>0.806</v>
-      </c>
-      <c r="K17" s="12">
-        <v>0.748</v>
-      </c>
-      <c r="L17" s="12">
-        <v>0.699</v>
-      </c>
-      <c r="M17" s="12">
-        <v>0.806</v>
-      </c>
-      <c r="N17" s="12">
-        <v>0.748</v>
-      </c>
+      <c r="A17" t="s" s="17">
+        <v>30</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" s="10"/>
       <c r="B18" t="s" s="11">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C18" s="12">
-        <v>0.619</v>
+        <v>0.794</v>
       </c>
       <c r="D18" s="12">
-        <v>0.67</v>
+        <v>0.711</v>
       </c>
       <c r="E18" s="12">
-        <v>0.643</v>
+        <v>0.75</v>
       </c>
       <c r="F18" s="12">
-        <v>0.653</v>
+        <v>0.905</v>
       </c>
       <c r="G18" s="12">
-        <v>0.706</v>
+        <v>0.5</v>
       </c>
       <c r="H18" s="12">
-        <v>0.678</v>
-      </c>
-      <c r="I18" s="12">
-        <v>0.619</v>
-      </c>
-      <c r="J18" s="12">
-        <v>0.67</v>
-      </c>
-      <c r="K18" s="12">
-        <v>0.643</v>
-      </c>
-      <c r="L18" s="12">
-        <v>0.653</v>
-      </c>
-      <c r="M18" s="12">
-        <v>0.706</v>
-      </c>
-      <c r="N18" s="12">
-        <v>0.678</v>
+        <v>0.644</v>
       </c>
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" s="10"/>
       <c r="B19" t="s" s="11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C19" s="12">
-        <v>0.522</v>
+        <v>0.656</v>
       </c>
       <c r="D19" s="12">
-        <v>0.387</v>
+        <v>0.735</v>
       </c>
       <c r="E19" s="12">
-        <v>0.444</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="F19" s="12">
-        <v>0.522</v>
+        <v>0.646</v>
       </c>
       <c r="G19" s="12">
-        <v>0.387</v>
+        <v>0.614</v>
       </c>
       <c r="H19" s="12">
-        <v>0.444</v>
-      </c>
-      <c r="I19" s="12">
-        <v>0.522</v>
-      </c>
-      <c r="J19" s="12">
-        <v>0.387</v>
-      </c>
-      <c r="K19" s="12">
-        <v>0.444</v>
-      </c>
-      <c r="L19" s="12">
-        <v>0.522</v>
-      </c>
-      <c r="M19" s="12">
-        <v>0.387</v>
-      </c>
-      <c r="N19" s="12">
-        <v>0.444</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" s="10"/>
       <c r="B20" t="s" s="11">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C20" s="12">
-        <v>0.6870000000000001</v>
+        <v>0.698</v>
       </c>
       <c r="D20" s="12">
-        <v>0.6870000000000001</v>
+        <v>0.615</v>
       </c>
       <c r="E20" s="12">
-        <v>0.6870000000000001</v>
+        <v>0.654</v>
       </c>
       <c r="F20" s="12">
-        <v>0.6870000000000001</v>
+        <v>0.643</v>
       </c>
       <c r="G20" s="12">
-        <v>0.6870000000000001</v>
+        <v>0.248</v>
       </c>
       <c r="H20" s="12">
-        <v>0.6870000000000001</v>
-      </c>
-      <c r="I20" s="12">
-        <v>0.6870000000000001</v>
-      </c>
-      <c r="J20" s="12">
-        <v>0.6870000000000001</v>
-      </c>
-      <c r="K20" s="12">
-        <v>0.6870000000000001</v>
-      </c>
-      <c r="L20" s="12">
-        <v>0.6870000000000001</v>
-      </c>
-      <c r="M20" s="12">
-        <v>0.6870000000000001</v>
-      </c>
-      <c r="N20" s="12">
-        <v>0.6870000000000001</v>
+        <v>0.358</v>
       </c>
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" s="10"/>
       <c r="B21" t="s" s="11">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C21" s="12">
-        <v>0.724</v>
+        <v>0.763</v>
       </c>
       <c r="D21" s="12">
-        <v>0.553</v>
+        <v>0.806</v>
       </c>
       <c r="E21" s="12">
-        <v>0.627</v>
+        <v>0.784</v>
       </c>
       <c r="F21" s="12">
-        <v>0.724</v>
+        <v>0.744</v>
       </c>
       <c r="G21" s="12">
-        <v>0.553</v>
+        <v>0.444</v>
       </c>
       <c r="H21" s="12">
-        <v>0.627</v>
-      </c>
-      <c r="I21" s="12">
-        <v>0.724</v>
-      </c>
-      <c r="J21" s="12">
-        <v>0.553</v>
-      </c>
-      <c r="K21" s="12">
-        <v>0.627</v>
-      </c>
-      <c r="L21" s="12">
-        <v>0.724</v>
-      </c>
-      <c r="M21" s="12">
-        <v>0.553</v>
-      </c>
-      <c r="N21" s="12">
-        <v>0.627</v>
+        <v>0.5570000000000001</v>
       </c>
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" s="10"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15">
-        <f>AVERAGE(C16,C17,C18,C19,C20,C21)</f>
-        <v>0.6661666666666668</v>
-      </c>
-      <c r="D22" s="15">
-        <f>AVERAGE(D16,D17,D18,D19,D20,D21)</f>
-        <v>0.5995</v>
-      </c>
-      <c r="E22" s="15">
-        <f>AVERAGE(E16,E17,E18,E19,E20,E21)</f>
-        <v>0.6244999999999999</v>
-      </c>
-      <c r="F22" s="15">
-        <f>AVERAGE(F16,F17,F18,F19,F20,F21)</f>
-        <v>0.6718333333333334</v>
-      </c>
-      <c r="G22" s="15">
-        <f>AVERAGE(G16,G17,G18,G19,G20,G21)</f>
-        <v>0.6055</v>
-      </c>
-      <c r="H22" s="15">
-        <f>AVERAGE(H16,H17,H18,H19,H20,H21)</f>
-        <v>0.6303333333333333</v>
-      </c>
-      <c r="I22" s="15">
-        <f>AVERAGE(I16,I17,I18,I19,I20,I21)</f>
-        <v>0.6668333333333334</v>
-      </c>
-      <c r="J22" s="15">
-        <f>AVERAGE(J16,J17,J18,J19,J20,J21)</f>
-        <v>0.6018333333333333</v>
-      </c>
-      <c r="K22" s="15">
-        <f>AVERAGE(K16,K17,K18,K19,K20,K21)</f>
-        <v>0.6258333333333334</v>
-      </c>
-      <c r="L22" s="15">
-        <f>AVERAGE(L16,L17,L18,L19,L20,L21)</f>
-        <v>0.6725</v>
-      </c>
-      <c r="M22" s="15">
-        <f>AVERAGE(M16,M17,M18,M19,M20,M21)</f>
-        <v>0.6078333333333333</v>
-      </c>
-      <c r="N22" s="15">
-        <f>AVERAGE(N16,N17,N18,N19,N20,N21)</f>
-        <v>0.6316666666666667</v>
+      <c r="B22" t="s" s="11">
+        <v>28</v>
+      </c>
+      <c r="C22" s="12">
+        <v>0.681</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0.542</v>
+      </c>
+      <c r="E22" s="12">
+        <v>0.604</v>
+      </c>
+      <c r="F22" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="G22" s="12">
+        <v>0.339</v>
+      </c>
+      <c r="H22" s="12">
+        <v>0.404</v>
       </c>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" t="s" s="17">
-        <v>26</v>
-      </c>
+      <c r="A23" s="10"/>
       <c r="B23" t="s" s="11">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C23" s="12">
-        <v>0.726</v>
+        <v>0.5</v>
       </c>
       <c r="D23" s="12">
-        <v>0.763</v>
+        <v>0.226</v>
       </c>
       <c r="E23" s="12">
-        <v>0.744</v>
+        <v>0.311</v>
       </c>
       <c r="F23" s="12">
-        <v>0.726</v>
+        <v>0.606</v>
       </c>
       <c r="G23" s="12">
-        <v>0.763</v>
+        <v>0.645</v>
       </c>
       <c r="H23" s="12">
-        <v>0.744</v>
-      </c>
-      <c r="I23" s="12">
-        <v>0.8159999999999999</v>
-      </c>
-      <c r="J23" s="12">
-        <v>0.678</v>
-      </c>
-      <c r="K23" s="12">
-        <v>0.741</v>
-      </c>
-      <c r="L23" s="12">
-        <v>0.8159999999999999</v>
-      </c>
-      <c r="M23" s="12">
-        <v>0.678</v>
-      </c>
-      <c r="N23" s="12">
-        <v>0.741</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" s="10"/>
-      <c r="B24" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="C24" s="12">
-        <v>0.767</v>
-      </c>
-      <c r="D24" s="12">
-        <v>0.778</v>
-      </c>
-      <c r="E24" s="12">
-        <v>0.772</v>
-      </c>
-      <c r="F24" s="12">
-        <v>0.767</v>
-      </c>
-      <c r="G24" s="12">
-        <v>0.778</v>
-      </c>
-      <c r="H24" s="12">
-        <v>0.772</v>
-      </c>
-      <c r="I24" s="12">
-        <v>0.767</v>
-      </c>
-      <c r="J24" s="12">
-        <v>0.778</v>
-      </c>
-      <c r="K24" s="12">
-        <v>0.772</v>
-      </c>
-      <c r="L24" s="12">
-        <v>0.767</v>
-      </c>
-      <c r="M24" s="12">
-        <v>0.778</v>
-      </c>
-      <c r="N24" s="12">
-        <v>0.772</v>
-      </c>
-    </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" s="10"/>
-      <c r="B25" t="s" s="11">
-        <v>11</v>
-      </c>
-      <c r="C25" s="12">
-        <v>0.756</v>
-      </c>
-      <c r="D25" s="12">
-        <v>0.596</v>
-      </c>
-      <c r="E25" s="12">
-        <v>0.667</v>
-      </c>
-      <c r="F25" s="12">
-        <v>0.756</v>
-      </c>
-      <c r="G25" s="12">
-        <v>0.596</v>
-      </c>
-      <c r="H25" s="12">
-        <v>0.667</v>
-      </c>
-      <c r="I25" s="12">
-        <v>0.756</v>
-      </c>
-      <c r="J25" s="12">
-        <v>0.596</v>
-      </c>
-      <c r="K25" s="12">
-        <v>0.667</v>
-      </c>
-      <c r="L25" s="12">
-        <v>0.756</v>
-      </c>
-      <c r="M25" s="12">
-        <v>0.596</v>
-      </c>
-      <c r="N25" s="12">
-        <v>0.667</v>
-      </c>
-    </row>
-    <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" s="10"/>
-      <c r="B26" t="s" s="11">
-        <v>12</v>
-      </c>
-      <c r="C26" s="12">
-        <v>0.72</v>
-      </c>
-      <c r="D26" s="12">
-        <v>0.581</v>
-      </c>
-      <c r="E26" s="12">
-        <v>0.643</v>
-      </c>
-      <c r="F26" s="12">
-        <v>0.72</v>
-      </c>
-      <c r="G26" s="12">
-        <v>0.581</v>
-      </c>
-      <c r="H26" s="12">
-        <v>0.643</v>
-      </c>
-      <c r="I26" s="12">
-        <v>0.72</v>
-      </c>
-      <c r="J26" s="12">
-        <v>0.581</v>
-      </c>
-      <c r="K26" s="12">
-        <v>0.643</v>
-      </c>
-      <c r="L26" s="12">
-        <v>0.72</v>
-      </c>
-      <c r="M26" s="12">
-        <v>0.581</v>
-      </c>
-      <c r="N26" s="12">
-        <v>0.643</v>
-      </c>
-    </row>
-    <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" s="10"/>
-      <c r="B27" t="s" s="11">
-        <v>13</v>
-      </c>
-      <c r="C27" s="12">
-        <v>0.655</v>
-      </c>
-      <c r="D27" s="12">
-        <v>0.6870000000000001</v>
-      </c>
-      <c r="E27" s="12">
-        <v>0.671</v>
-      </c>
-      <c r="F27" s="12">
-        <v>0.655</v>
-      </c>
-      <c r="G27" s="12">
-        <v>0.6870000000000001</v>
-      </c>
-      <c r="H27" s="12">
-        <v>0.671</v>
-      </c>
-      <c r="I27" s="12">
-        <v>0.655</v>
-      </c>
-      <c r="J27" s="12">
-        <v>0.6870000000000001</v>
-      </c>
-      <c r="K27" s="12">
-        <v>0.671</v>
-      </c>
-      <c r="L27" s="12">
-        <v>0.655</v>
-      </c>
-      <c r="M27" s="12">
-        <v>0.6870000000000001</v>
-      </c>
-      <c r="N27" s="12">
-        <v>0.671</v>
-      </c>
-    </row>
-    <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" s="10"/>
-      <c r="B28" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="C28" s="12">
-        <v>0.652</v>
-      </c>
-      <c r="D28" s="12">
-        <v>0.395</v>
-      </c>
-      <c r="E28" s="12">
-        <v>0.492</v>
-      </c>
-      <c r="F28" s="12">
-        <v>0.652</v>
-      </c>
-      <c r="G28" s="12">
-        <v>0.395</v>
-      </c>
-      <c r="H28" s="12">
-        <v>0.492</v>
-      </c>
-      <c r="I28" s="12">
-        <v>0.652</v>
-      </c>
-      <c r="J28" s="12">
-        <v>0.395</v>
-      </c>
-      <c r="K28" s="12">
-        <v>0.492</v>
-      </c>
-      <c r="L28" s="12">
-        <v>0.652</v>
-      </c>
-      <c r="M28" s="12">
-        <v>0.395</v>
-      </c>
-      <c r="N28" s="12">
-        <v>0.492</v>
-      </c>
-    </row>
-    <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" s="10"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15">
-        <f>AVERAGE(C23,C24,C25,C26,C27,C28)</f>
-        <v>0.7126666666666667</v>
-      </c>
-      <c r="D29" s="15">
-        <f>AVERAGE(D23,D24,D25,D26,D27,D28)</f>
-        <v>0.6333333333333334</v>
-      </c>
-      <c r="E29" s="15">
-        <f>AVERAGE(E23,E24,E25,E26,E27,E28)</f>
-        <v>0.6648333333333333</v>
-      </c>
-      <c r="F29" s="15">
-        <f>AVERAGE(F23,F24,F25,F26,F27,F28)</f>
-        <v>0.7126666666666667</v>
-      </c>
-      <c r="G29" s="15">
-        <f>AVERAGE(G23,G24,G25,G26,G27,G28)</f>
-        <v>0.6333333333333334</v>
-      </c>
-      <c r="H29" s="15">
-        <f>AVERAGE(H23,H24,H25,H26,H27,H28)</f>
-        <v>0.6648333333333333</v>
-      </c>
-      <c r="I29" s="15">
-        <f>AVERAGE(I23,I24,I25,I26,I27,I28)</f>
-        <v>0.7276666666666668</v>
-      </c>
-      <c r="J29" s="15">
-        <f>AVERAGE(J23,J24,J25,J26,J27,J28)</f>
-        <v>0.6191666666666668</v>
-      </c>
-      <c r="K29" s="15">
-        <f>AVERAGE(K23,K24,K25,K26,K27,K28)</f>
-        <v>0.6643333333333333</v>
-      </c>
-      <c r="L29" s="15">
-        <f>AVERAGE(L23,L24,L25,L26,L27,L28)</f>
-        <v>0.7276666666666668</v>
-      </c>
-      <c r="M29" s="15">
-        <f>AVERAGE(M23,M24,M25,M26,M27,M28)</f>
-        <v>0.6191666666666668</v>
-      </c>
-      <c r="N29" s="15">
-        <f>AVERAGE(N23,N24,N25,N26,N27,N28)</f>
-        <v>0.6643333333333333</v>
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="15">
+        <f>AVERAGE(C18,C19,C20,C21,C22,C23)</f>
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="D24" s="15">
+        <f>AVERAGE(D18,D19,D20,D21,D22,D23)</f>
+        <v>0.6058333333333333</v>
+      </c>
+      <c r="E24" s="15">
+        <f>AVERAGE(E18,E19,E20,E21,E22,E23)</f>
+        <v>0.6326666666666667</v>
+      </c>
+      <c r="F24" s="15">
+        <f>AVERAGE(F18,F19,F20,F21,F22,F23)</f>
+        <v>0.6739999999999999</v>
+      </c>
+      <c r="G24" s="15">
+        <f>AVERAGE(G18,G19,G20,G21,G22,G23)</f>
+        <v>0.465</v>
+      </c>
+      <c r="H24" s="15">
+        <f>AVERAGE(H18,H19,H20,H21,H22,H23)</f>
+        <v>0.5363333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -5329,7 +5046,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -5343,51 +5060,1344 @@
     <col min="4" max="4" width="16.3516" style="28" customWidth="1"/>
     <col min="5" max="5" width="16.3516" style="28" customWidth="1"/>
     <col min="6" max="6" width="16.3516" style="28" customWidth="1"/>
-    <col min="7" max="7" width="18.125" style="28" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="28" customWidth="1"/>
     <col min="8" max="8" width="16.3516" style="28" customWidth="1"/>
     <col min="9" max="9" width="16.3516" style="28" customWidth="1"/>
     <col min="10" max="10" width="16.3516" style="28" customWidth="1"/>
-    <col min="11" max="256" width="16.3516" style="28" customWidth="1"/>
+    <col min="11" max="11" width="16.3516" style="28" customWidth="1"/>
+    <col min="12" max="12" width="16.3516" style="28" customWidth="1"/>
+    <col min="13" max="13" width="16.3516" style="28" customWidth="1"/>
+    <col min="14" max="14" width="16.3516" style="28" customWidth="1"/>
+    <col min="15" max="256" width="16.3516" style="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
       <c r="C1" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s" s="2">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s" s="2">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="G1" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" ht="20.25" customHeight="1">
+      <c r="A2" t="s" s="5">
         <v>32</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="29"/>
       <c r="B2" t="s" s="6">
         <v>9</v>
       </c>
       <c r="C2" s="7">
+        <v>0.727</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.542</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.621</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.727</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0.542</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0.621</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0.727</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0.542</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0.621</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0.727</v>
+      </c>
+      <c r="M2" s="7">
+        <v>0.542</v>
+      </c>
+      <c r="N2" s="7">
+        <v>0.621</v>
+      </c>
+    </row>
+    <row r="3" ht="20.05" customHeight="1">
+      <c r="A3" s="10"/>
+      <c r="B3" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0.806</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0.806</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0.806</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0.806</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0.806</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0.806</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0.806</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0.806</v>
+      </c>
+      <c r="K3" s="12">
+        <v>0.806</v>
+      </c>
+      <c r="L3" s="12">
+        <v>0.806</v>
+      </c>
+      <c r="M3" s="12">
+        <v>0.806</v>
+      </c>
+      <c r="N3" s="12">
+        <v>0.806</v>
+      </c>
+    </row>
+    <row r="4" ht="20.05" customHeight="1">
+      <c r="A4" s="10"/>
+      <c r="B4" t="s" s="11">
+        <v>11</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0.667</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.55</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.603</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0.667</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0.55</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0.603</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0.667</v>
+      </c>
+      <c r="J4" s="12">
+        <v>0.55</v>
+      </c>
+      <c r="K4" s="12">
+        <v>0.603</v>
+      </c>
+      <c r="L4" s="12">
+        <v>0.667</v>
+      </c>
+      <c r="M4" s="12">
+        <v>0.55</v>
+      </c>
+      <c r="N4" s="12">
+        <v>0.603</v>
+      </c>
+    </row>
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" s="10"/>
+      <c r="B5" t="s" s="11">
+        <v>12</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0.6919999999999999</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0.581</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.632</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.6919999999999999</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.581</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0.632</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0.6919999999999999</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0.581</v>
+      </c>
+      <c r="K5" s="12">
+        <v>0.632</v>
+      </c>
+      <c r="L5" s="12">
+        <v>0.6919999999999999</v>
+      </c>
+      <c r="M5" s="12">
+        <v>0.581</v>
+      </c>
+      <c r="N5" s="12">
+        <v>0.632</v>
+      </c>
+    </row>
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" s="10"/>
+      <c r="B6" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0.582</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0.582</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0.582</v>
+      </c>
+      <c r="J6" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="K6" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="L6" s="12">
+        <v>0.582</v>
+      </c>
+      <c r="M6" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="N6" s="12">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="7" ht="20.05" customHeight="1">
+      <c r="A7" s="10"/>
+      <c r="B7" t="s" s="11">
+        <v>14</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0.743</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0.743</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="J7" s="12">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="K7" s="12">
+        <v>0.743</v>
+      </c>
+      <c r="L7" s="12">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="M7" s="12">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="N7" s="12">
+        <v>0.743</v>
+      </c>
+    </row>
+    <row r="8" ht="20.05" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15">
+        <f>AVERAGE(C2,C3,C4,C5,C6,C7)</f>
+        <v>0.7145</v>
+      </c>
+      <c r="D8" s="15">
+        <f>AVERAGE(D2,D3,D4,D5,D6,D7)</f>
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="E8" s="15">
+        <f>AVERAGE(E2,E3,E4,E5,E6,E7)</f>
+        <v>0.6725</v>
+      </c>
+      <c r="F8" s="15">
+        <f>AVERAGE(F2,F3,F4,F5,F6,F7)</f>
+        <v>0.7145</v>
+      </c>
+      <c r="G8" s="15">
+        <f>AVERAGE(G2,G3,G4,G5,G6,G7)</f>
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="H8" s="15">
+        <f>AVERAGE(H2,H3,H4,H5,H6,H7)</f>
+        <v>0.6725</v>
+      </c>
+      <c r="I8" s="15">
+        <f>AVERAGE(I2,I3,I4,I5,I6,I7)</f>
+        <v>0.7145</v>
+      </c>
+      <c r="J8" s="15">
+        <f>AVERAGE(J2,J3,J4,J5,J6,J7)</f>
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="K8" s="15">
+        <f>AVERAGE(K2,K3,K4,K5,K6,K7)</f>
+        <v>0.6725</v>
+      </c>
+      <c r="L8" s="15">
+        <f>AVERAGE(L2,L3,L4,L5,L6,L7)</f>
+        <v>0.7145</v>
+      </c>
+      <c r="M8" s="15">
+        <f>AVERAGE(M2,M3,M4,M5,M6,M7)</f>
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="N8" s="15">
+        <f>AVERAGE(N2,N3,N4,N5,N6,N7)</f>
+        <v>0.6725</v>
+      </c>
+    </row>
+    <row r="9" ht="20.05" customHeight="1">
+      <c r="A9" t="s" s="17">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s" s="11">
+        <v>9</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0.708</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0.576</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0.636</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0.708</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0.576</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0.636</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0.714</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0.593</v>
+      </c>
+      <c r="K9" s="12">
+        <v>0.648</v>
+      </c>
+      <c r="L9" s="12">
+        <v>0.714</v>
+      </c>
+      <c r="M9" s="12">
+        <v>0.593</v>
+      </c>
+      <c r="N9" s="12">
+        <v>0.648</v>
+      </c>
+    </row>
+    <row r="10" ht="20.05" customHeight="1">
+      <c r="A10" s="10"/>
+      <c r="B10" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0.74</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.745</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0.74</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0.745</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0.74</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="K10" s="12">
+        <v>0.745</v>
+      </c>
+      <c r="L10" s="12">
+        <v>0.74</v>
+      </c>
+      <c r="M10" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="N10" s="12">
+        <v>0.745</v>
+      </c>
+    </row>
+    <row r="11" ht="20.05" customHeight="1">
+      <c r="A11" s="10"/>
+      <c r="B11" t="s" s="11">
+        <v>11</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0.571</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0.147</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.234</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0.571</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0.147</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0.234</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0.571</v>
+      </c>
+      <c r="J11" s="12">
+        <v>0.147</v>
+      </c>
+      <c r="K11" s="12">
+        <v>0.234</v>
+      </c>
+      <c r="L11" s="12">
+        <v>0.571</v>
+      </c>
+      <c r="M11" s="12">
+        <v>0.147</v>
+      </c>
+      <c r="N11" s="12">
+        <v>0.234</v>
+      </c>
+    </row>
+    <row r="12" ht="20.05" customHeight="1">
+      <c r="A12" s="10"/>
+      <c r="B12" t="s" s="11">
+        <v>12</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0.667</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0.452</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.538</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0.667</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0.452</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0.538</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0.667</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0.452</v>
+      </c>
+      <c r="K12" s="12">
+        <v>0.538</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0.667</v>
+      </c>
+      <c r="M12" s="12">
+        <v>0.452</v>
+      </c>
+      <c r="N12" s="12">
+        <v>0.538</v>
+      </c>
+    </row>
+    <row r="13" ht="20.05" customHeight="1">
+      <c r="A13" s="10"/>
+      <c r="B13" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0.67</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0.831</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0.742</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0.67</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0.831</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0.742</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0.67</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0.831</v>
+      </c>
+      <c r="K13" s="12">
+        <v>0.742</v>
+      </c>
+      <c r="L13" s="12">
+        <v>0.67</v>
+      </c>
+      <c r="M13" s="12">
+        <v>0.831</v>
+      </c>
+      <c r="N13" s="12">
+        <v>0.742</v>
+      </c>
+    </row>
+    <row r="14" ht="20.05" customHeight="1">
+      <c r="A14" s="10"/>
+      <c r="B14" t="s" s="11">
+        <v>14</v>
+      </c>
+      <c r="C14" s="12">
+        <v>0.735</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0.658</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0.694</v>
+      </c>
+      <c r="F14" s="12">
+        <v>0.735</v>
+      </c>
+      <c r="G14" s="12">
+        <v>0.658</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0.694</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0.735</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0.658</v>
+      </c>
+      <c r="K14" s="12">
+        <v>0.694</v>
+      </c>
+      <c r="L14" s="12">
+        <v>0.735</v>
+      </c>
+      <c r="M14" s="12">
+        <v>0.658</v>
+      </c>
+      <c r="N14" s="12">
+        <v>0.694</v>
+      </c>
+    </row>
+    <row r="15" ht="20.05" customHeight="1">
+      <c r="A15" s="10"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15">
+        <f>AVERAGE(C9,C10,C11,C12,C13,C14)</f>
+        <v>0.6818333333333334</v>
+      </c>
+      <c r="D15" s="15">
+        <f>AVERAGE(D9,D10,D11,D12,D13,D14)</f>
+        <v>0.5690000000000001</v>
+      </c>
+      <c r="E15" s="15">
+        <f>AVERAGE(E9,E10,E11,E12,E13,E14)</f>
+        <v>0.5981666666666666</v>
+      </c>
+      <c r="F15" s="15">
+        <f>AVERAGE(F9,F10,F11,F12,F13,F14)</f>
+        <v>0.6818333333333334</v>
+      </c>
+      <c r="G15" s="15">
+        <f>AVERAGE(G9,G10,G11,G12,G13,G14)</f>
+        <v>0.5690000000000001</v>
+      </c>
+      <c r="H15" s="15">
+        <f>AVERAGE(H9,H10,H11,H12,H13,H14)</f>
+        <v>0.5981666666666666</v>
+      </c>
+      <c r="I15" s="15">
+        <f>AVERAGE(I9,I10,I11,I12,I13,I14)</f>
+        <v>0.6828333333333334</v>
+      </c>
+      <c r="J15" s="15">
+        <f>AVERAGE(J9,J10,J11,J12,J13,J14)</f>
+        <v>0.5718333333333333</v>
+      </c>
+      <c r="K15" s="15">
+        <f>AVERAGE(K9,K10,K11,K12,K13,K14)</f>
+        <v>0.6001666666666666</v>
+      </c>
+      <c r="L15" s="15">
+        <f>AVERAGE(L9,L10,L11,L12,L13,L14)</f>
+        <v>0.6828333333333334</v>
+      </c>
+      <c r="M15" s="15">
+        <f>AVERAGE(M9,M10,M11,M12,M13,M14)</f>
+        <v>0.5718333333333333</v>
+      </c>
+      <c r="N15" s="15">
+        <f>AVERAGE(N9,N10,N11,N12,N13,N14)</f>
+        <v>0.6001666666666666</v>
+      </c>
+    </row>
+    <row r="16" ht="20.05" customHeight="1">
+      <c r="A16" t="s" s="17">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s" s="11">
+        <v>9</v>
+      </c>
+      <c r="C16" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0.508</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0.606</v>
+      </c>
+      <c r="F16" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="G16" s="12">
+        <v>0.508</v>
+      </c>
+      <c r="H16" s="12">
+        <v>0.606</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="J16" s="12">
+        <v>0.508</v>
+      </c>
+      <c r="K16" s="12">
+        <v>0.606</v>
+      </c>
+      <c r="L16" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="M16" s="12">
+        <v>0.508</v>
+      </c>
+      <c r="N16" s="12">
+        <v>0.606</v>
+      </c>
+    </row>
+    <row r="17" ht="20.05" customHeight="1">
+      <c r="A17" s="10"/>
+      <c r="B17" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0.695</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0.792</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0.74</v>
+      </c>
+      <c r="F17" s="12">
+        <v>0.695</v>
+      </c>
+      <c r="G17" s="12">
+        <v>0.792</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0.74</v>
+      </c>
+      <c r="I17" s="12">
+        <v>0.699</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0.806</v>
+      </c>
+      <c r="K17" s="12">
+        <v>0.748</v>
+      </c>
+      <c r="L17" s="12">
+        <v>0.699</v>
+      </c>
+      <c r="M17" s="12">
+        <v>0.806</v>
+      </c>
+      <c r="N17" s="12">
+        <v>0.748</v>
+      </c>
+    </row>
+    <row r="18" ht="20.05" customHeight="1">
+      <c r="A18" s="10"/>
+      <c r="B18" t="s" s="11">
+        <v>11</v>
+      </c>
+      <c r="C18" s="12">
+        <v>0.619</v>
+      </c>
+      <c r="D18" s="12">
+        <v>0.67</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0.643</v>
+      </c>
+      <c r="F18" s="12">
+        <v>0.653</v>
+      </c>
+      <c r="G18" s="12">
+        <v>0.706</v>
+      </c>
+      <c r="H18" s="12">
+        <v>0.678</v>
+      </c>
+      <c r="I18" s="12">
+        <v>0.619</v>
+      </c>
+      <c r="J18" s="12">
+        <v>0.67</v>
+      </c>
+      <c r="K18" s="12">
+        <v>0.643</v>
+      </c>
+      <c r="L18" s="12">
+        <v>0.653</v>
+      </c>
+      <c r="M18" s="12">
+        <v>0.706</v>
+      </c>
+      <c r="N18" s="12">
+        <v>0.678</v>
+      </c>
+    </row>
+    <row r="19" ht="20.05" customHeight="1">
+      <c r="A19" s="10"/>
+      <c r="B19" t="s" s="11">
+        <v>12</v>
+      </c>
+      <c r="C19" s="12">
+        <v>0.522</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0.387</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0.444</v>
+      </c>
+      <c r="F19" s="12">
+        <v>0.522</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0.387</v>
+      </c>
+      <c r="H19" s="12">
+        <v>0.444</v>
+      </c>
+      <c r="I19" s="12">
+        <v>0.522</v>
+      </c>
+      <c r="J19" s="12">
+        <v>0.387</v>
+      </c>
+      <c r="K19" s="12">
+        <v>0.444</v>
+      </c>
+      <c r="L19" s="12">
+        <v>0.522</v>
+      </c>
+      <c r="M19" s="12">
+        <v>0.387</v>
+      </c>
+      <c r="N19" s="12">
+        <v>0.444</v>
+      </c>
+    </row>
+    <row r="20" ht="20.05" customHeight="1">
+      <c r="A20" s="10"/>
+      <c r="B20" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="C20" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="E20" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="F20" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="G20" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="H20" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="I20" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="J20" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="K20" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="L20" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="M20" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="N20" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+    </row>
+    <row r="21" ht="20.05" customHeight="1">
+      <c r="A21" s="10"/>
+      <c r="B21" t="s" s="11">
+        <v>14</v>
+      </c>
+      <c r="C21" s="12">
+        <v>0.724</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0.553</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0.627</v>
+      </c>
+      <c r="F21" s="12">
+        <v>0.724</v>
+      </c>
+      <c r="G21" s="12">
+        <v>0.553</v>
+      </c>
+      <c r="H21" s="12">
+        <v>0.627</v>
+      </c>
+      <c r="I21" s="12">
+        <v>0.724</v>
+      </c>
+      <c r="J21" s="12">
+        <v>0.553</v>
+      </c>
+      <c r="K21" s="12">
+        <v>0.627</v>
+      </c>
+      <c r="L21" s="12">
+        <v>0.724</v>
+      </c>
+      <c r="M21" s="12">
+        <v>0.553</v>
+      </c>
+      <c r="N21" s="12">
+        <v>0.627</v>
+      </c>
+    </row>
+    <row r="22" ht="20.05" customHeight="1">
+      <c r="A22" s="10"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15">
+        <f>AVERAGE(C16,C17,C18,C19,C20,C21)</f>
+        <v>0.6661666666666668</v>
+      </c>
+      <c r="D22" s="15">
+        <f>AVERAGE(D16,D17,D18,D19,D20,D21)</f>
+        <v>0.5995</v>
+      </c>
+      <c r="E22" s="15">
+        <f>AVERAGE(E16,E17,E18,E19,E20,E21)</f>
+        <v>0.6244999999999999</v>
+      </c>
+      <c r="F22" s="15">
+        <f>AVERAGE(F16,F17,F18,F19,F20,F21)</f>
+        <v>0.6718333333333334</v>
+      </c>
+      <c r="G22" s="15">
+        <f>AVERAGE(G16,G17,G18,G19,G20,G21)</f>
+        <v>0.6055</v>
+      </c>
+      <c r="H22" s="15">
+        <f>AVERAGE(H16,H17,H18,H19,H20,H21)</f>
+        <v>0.6303333333333333</v>
+      </c>
+      <c r="I22" s="15">
+        <f>AVERAGE(I16,I17,I18,I19,I20,I21)</f>
+        <v>0.6668333333333334</v>
+      </c>
+      <c r="J22" s="15">
+        <f>AVERAGE(J16,J17,J18,J19,J20,J21)</f>
+        <v>0.6018333333333333</v>
+      </c>
+      <c r="K22" s="15">
+        <f>AVERAGE(K16,K17,K18,K19,K20,K21)</f>
+        <v>0.6258333333333334</v>
+      </c>
+      <c r="L22" s="15">
+        <f>AVERAGE(L16,L17,L18,L19,L20,L21)</f>
+        <v>0.6725</v>
+      </c>
+      <c r="M22" s="15">
+        <f>AVERAGE(M16,M17,M18,M19,M20,M21)</f>
+        <v>0.6078333333333333</v>
+      </c>
+      <c r="N22" s="15">
+        <f>AVERAGE(N16,N17,N18,N19,N20,N21)</f>
+        <v>0.6316666666666667</v>
+      </c>
+    </row>
+    <row r="23" ht="20.05" customHeight="1">
+      <c r="A23" t="s" s="17">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s" s="11">
+        <v>9</v>
+      </c>
+      <c r="C23" s="12">
+        <v>0.726</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0.763</v>
+      </c>
+      <c r="E23" s="12">
+        <v>0.744</v>
+      </c>
+      <c r="F23" s="12">
+        <v>0.726</v>
+      </c>
+      <c r="G23" s="12">
+        <v>0.763</v>
+      </c>
+      <c r="H23" s="12">
+        <v>0.744</v>
+      </c>
+      <c r="I23" s="12">
+        <v>0.8159999999999999</v>
+      </c>
+      <c r="J23" s="12">
+        <v>0.678</v>
+      </c>
+      <c r="K23" s="12">
+        <v>0.741</v>
+      </c>
+      <c r="L23" s="12">
+        <v>0.8159999999999999</v>
+      </c>
+      <c r="M23" s="12">
+        <v>0.678</v>
+      </c>
+      <c r="N23" s="12">
+        <v>0.741</v>
+      </c>
+    </row>
+    <row r="24" ht="20.05" customHeight="1">
+      <c r="A24" s="10"/>
+      <c r="B24" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C24" s="12">
+        <v>0.767</v>
+      </c>
+      <c r="D24" s="12">
+        <v>0.778</v>
+      </c>
+      <c r="E24" s="12">
+        <v>0.772</v>
+      </c>
+      <c r="F24" s="12">
+        <v>0.767</v>
+      </c>
+      <c r="G24" s="12">
+        <v>0.778</v>
+      </c>
+      <c r="H24" s="12">
+        <v>0.772</v>
+      </c>
+      <c r="I24" s="12">
+        <v>0.767</v>
+      </c>
+      <c r="J24" s="12">
+        <v>0.778</v>
+      </c>
+      <c r="K24" s="12">
+        <v>0.772</v>
+      </c>
+      <c r="L24" s="12">
+        <v>0.767</v>
+      </c>
+      <c r="M24" s="12">
+        <v>0.778</v>
+      </c>
+      <c r="N24" s="12">
+        <v>0.772</v>
+      </c>
+    </row>
+    <row r="25" ht="20.05" customHeight="1">
+      <c r="A25" s="10"/>
+      <c r="B25" t="s" s="11">
+        <v>11</v>
+      </c>
+      <c r="C25" s="12">
+        <v>0.756</v>
+      </c>
+      <c r="D25" s="12">
+        <v>0.596</v>
+      </c>
+      <c r="E25" s="12">
+        <v>0.667</v>
+      </c>
+      <c r="F25" s="12">
+        <v>0.756</v>
+      </c>
+      <c r="G25" s="12">
+        <v>0.596</v>
+      </c>
+      <c r="H25" s="12">
+        <v>0.667</v>
+      </c>
+      <c r="I25" s="12">
+        <v>0.756</v>
+      </c>
+      <c r="J25" s="12">
+        <v>0.596</v>
+      </c>
+      <c r="K25" s="12">
+        <v>0.667</v>
+      </c>
+      <c r="L25" s="12">
+        <v>0.756</v>
+      </c>
+      <c r="M25" s="12">
+        <v>0.596</v>
+      </c>
+      <c r="N25" s="12">
+        <v>0.667</v>
+      </c>
+    </row>
+    <row r="26" ht="20.05" customHeight="1">
+      <c r="A26" s="10"/>
+      <c r="B26" t="s" s="11">
+        <v>12</v>
+      </c>
+      <c r="C26" s="12">
+        <v>0.72</v>
+      </c>
+      <c r="D26" s="12">
+        <v>0.581</v>
+      </c>
+      <c r="E26" s="12">
+        <v>0.643</v>
+      </c>
+      <c r="F26" s="12">
+        <v>0.72</v>
+      </c>
+      <c r="G26" s="12">
+        <v>0.581</v>
+      </c>
+      <c r="H26" s="12">
+        <v>0.643</v>
+      </c>
+      <c r="I26" s="12">
+        <v>0.72</v>
+      </c>
+      <c r="J26" s="12">
+        <v>0.581</v>
+      </c>
+      <c r="K26" s="12">
+        <v>0.643</v>
+      </c>
+      <c r="L26" s="12">
+        <v>0.72</v>
+      </c>
+      <c r="M26" s="12">
+        <v>0.581</v>
+      </c>
+      <c r="N26" s="12">
+        <v>0.643</v>
+      </c>
+    </row>
+    <row r="27" ht="20.05" customHeight="1">
+      <c r="A27" s="10"/>
+      <c r="B27" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="C27" s="12">
+        <v>0.655</v>
+      </c>
+      <c r="D27" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="E27" s="12">
+        <v>0.671</v>
+      </c>
+      <c r="F27" s="12">
+        <v>0.655</v>
+      </c>
+      <c r="G27" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="H27" s="12">
+        <v>0.671</v>
+      </c>
+      <c r="I27" s="12">
+        <v>0.655</v>
+      </c>
+      <c r="J27" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="K27" s="12">
+        <v>0.671</v>
+      </c>
+      <c r="L27" s="12">
+        <v>0.655</v>
+      </c>
+      <c r="M27" s="12">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="N27" s="12">
+        <v>0.671</v>
+      </c>
+    </row>
+    <row r="28" ht="20.05" customHeight="1">
+      <c r="A28" s="10"/>
+      <c r="B28" t="s" s="11">
+        <v>14</v>
+      </c>
+      <c r="C28" s="12">
+        <v>0.652</v>
+      </c>
+      <c r="D28" s="12">
+        <v>0.395</v>
+      </c>
+      <c r="E28" s="12">
+        <v>0.492</v>
+      </c>
+      <c r="F28" s="12">
+        <v>0.652</v>
+      </c>
+      <c r="G28" s="12">
+        <v>0.395</v>
+      </c>
+      <c r="H28" s="12">
+        <v>0.492</v>
+      </c>
+      <c r="I28" s="12">
+        <v>0.652</v>
+      </c>
+      <c r="J28" s="12">
+        <v>0.395</v>
+      </c>
+      <c r="K28" s="12">
+        <v>0.492</v>
+      </c>
+      <c r="L28" s="12">
+        <v>0.652</v>
+      </c>
+      <c r="M28" s="12">
+        <v>0.395</v>
+      </c>
+      <c r="N28" s="12">
+        <v>0.492</v>
+      </c>
+    </row>
+    <row r="29" ht="20.05" customHeight="1">
+      <c r="A29" s="10"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15">
+        <f>AVERAGE(C23,C24,C25,C26,C27,C28)</f>
+        <v>0.7126666666666667</v>
+      </c>
+      <c r="D29" s="15">
+        <f>AVERAGE(D23,D24,D25,D26,D27,D28)</f>
+        <v>0.6333333333333334</v>
+      </c>
+      <c r="E29" s="15">
+        <f>AVERAGE(E23,E24,E25,E26,E27,E28)</f>
+        <v>0.6648333333333333</v>
+      </c>
+      <c r="F29" s="15">
+        <f>AVERAGE(F23,F24,F25,F26,F27,F28)</f>
+        <v>0.7126666666666667</v>
+      </c>
+      <c r="G29" s="15">
+        <f>AVERAGE(G23,G24,G25,G26,G27,G28)</f>
+        <v>0.6333333333333334</v>
+      </c>
+      <c r="H29" s="15">
+        <f>AVERAGE(H23,H24,H25,H26,H27,H28)</f>
+        <v>0.6648333333333333</v>
+      </c>
+      <c r="I29" s="15">
+        <f>AVERAGE(I23,I24,I25,I26,I27,I28)</f>
+        <v>0.7276666666666668</v>
+      </c>
+      <c r="J29" s="15">
+        <f>AVERAGE(J23,J24,J25,J26,J27,J28)</f>
+        <v>0.6191666666666668</v>
+      </c>
+      <c r="K29" s="15">
+        <f>AVERAGE(K23,K24,K25,K26,K27,K28)</f>
+        <v>0.6643333333333333</v>
+      </c>
+      <c r="L29" s="15">
+        <f>AVERAGE(L23,L24,L25,L26,L27,L28)</f>
+        <v>0.7276666666666668</v>
+      </c>
+      <c r="M29" s="15">
+        <f>AVERAGE(M23,M24,M25,M26,M27,M28)</f>
+        <v>0.6191666666666668</v>
+      </c>
+      <c r="N29" s="15">
+        <f>AVERAGE(N23,N24,N25,N26,N27,N28)</f>
+        <v>0.6643333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="16.3516" style="29" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="29" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="29" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="29" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="29" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="29" customWidth="1"/>
+    <col min="7" max="7" width="18.125" style="29" customWidth="1"/>
+    <col min="8" max="8" width="16.3516" style="29" customWidth="1"/>
+    <col min="9" max="9" width="16.3516" style="29" customWidth="1"/>
+    <col min="10" max="10" width="16.3516" style="29" customWidth="1"/>
+    <col min="11" max="256" width="16.3516" style="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20.25" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" ht="20.25" customHeight="1">
+      <c r="A2" s="30"/>
+      <c r="B2" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="C2" s="7">
         <v>1</v>
       </c>
       <c r="D2" s="7">
@@ -5413,7 +6423,7 @@
       </c>
     </row>
     <row r="3" ht="20.05" customHeight="1">
-      <c r="A3" s="30"/>
+      <c r="A3" s="31"/>
       <c r="B3" t="s" s="11">
         <v>10</v>
       </c>
@@ -5429,7 +6439,7 @@
       <c r="F3" s="12">
         <v>10</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G3" s="32">
         <v>1</v>
       </c>
       <c r="H3" s="12">
@@ -5443,7 +6453,7 @@
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="30"/>
+      <c r="A4" s="31"/>
       <c r="B4" t="s" s="11">
         <v>11</v>
       </c>
@@ -5473,7 +6483,7 @@
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="30"/>
+      <c r="A5" s="31"/>
       <c r="B5" t="s" s="11">
         <v>12</v>
       </c>
@@ -5489,7 +6499,7 @@
       <c r="F5" s="12">
         <v>7</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="33">
         <v>0.7333333333333333</v>
       </c>
       <c r="H5" s="12">
@@ -5503,7 +6513,7 @@
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="30"/>
+      <c r="A6" s="31"/>
       <c r="B6" t="s" s="11">
         <v>13</v>
       </c>
@@ -5519,7 +6529,7 @@
       <c r="F6" s="12">
         <v>8</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="33">
         <v>0.8666666666666667</v>
       </c>
       <c r="H6" s="12">
@@ -5533,7 +6543,7 @@
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="30"/>
+      <c r="A7" s="31"/>
       <c r="B7" t="s" s="11">
         <v>14</v>
       </c>
@@ -5549,7 +6559,7 @@
       <c r="F7" s="12">
         <v>8</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="33">
         <v>0.6666666666666666</v>
       </c>
       <c r="H7" s="12">
@@ -5563,10 +6573,10 @@
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="B8" s="34"/>
+      <c r="A8" t="s" s="34">
+        <v>43</v>
+      </c>
+      <c r="B8" s="35"/>
       <c r="C8" s="15">
         <f>AVERAGE(C2,C3,C4,C5,C6,C7)</f>
         <v>0.8999999999999999</v>
@@ -5601,8 +6611,8 @@
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="30"/>
-      <c r="B9" s="35"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
@@ -5613,8 +6623,8 @@
       <c r="J9" s="12"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="30"/>
-      <c r="B10" s="35"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>

--- a/Experiment/TestDiff.xlsx
+++ b/Experiment/TestDiff.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>Feature Set</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>Wangwei+his+cochange</t>
+  </si>
+  <si>
+    <t>Within</t>
   </si>
   <si>
     <t>before-Precision</t>
@@ -482,6 +485,9 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -498,9 +504,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="60" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -4457,7 +4460,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -5030,6 +5033,550 @@
       <c r="H24" s="15">
         <f>AVERAGE(H18,H19,H20,H21,H22,H23)</f>
         <v>0.5363333333333333</v>
+      </c>
+    </row>
+    <row r="25" ht="20.05" customHeight="1">
+      <c r="A25" s="18"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+    </row>
+    <row r="26" ht="20.05" customHeight="1">
+      <c r="A26" t="s" s="28">
+        <v>31</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+    </row>
+    <row r="27" ht="20.05" customHeight="1">
+      <c r="A27" t="s" s="28">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s" s="11">
+        <v>14</v>
+      </c>
+      <c r="C27" s="12">
+        <v>0.806</v>
+      </c>
+      <c r="D27" s="12">
+        <v>0.763</v>
+      </c>
+      <c r="E27" s="12">
+        <v>0.784</v>
+      </c>
+      <c r="F27" s="12">
+        <v>0.789</v>
+      </c>
+      <c r="G27" s="12">
+        <v>0.789</v>
+      </c>
+      <c r="H27" s="12">
+        <v>0.789</v>
+      </c>
+    </row>
+    <row r="28" ht="20.05" customHeight="1">
+      <c r="A28" s="18"/>
+      <c r="B28" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="C28" s="12">
+        <v>0.819</v>
+      </c>
+      <c r="D28" s="12">
+        <v>0.819</v>
+      </c>
+      <c r="E28" s="12">
+        <v>0.819</v>
+      </c>
+      <c r="F28" s="12">
+        <v>0.841</v>
+      </c>
+      <c r="G28" s="12">
+        <v>0.831</v>
+      </c>
+      <c r="H28" s="12">
+        <v>0.836</v>
+      </c>
+    </row>
+    <row r="29" ht="20.05" customHeight="1">
+      <c r="A29" s="18"/>
+      <c r="B29" t="s" s="11">
+        <v>11</v>
+      </c>
+      <c r="C29" s="12">
+        <v>0.794</v>
+      </c>
+      <c r="D29" s="12">
+        <v>0.743</v>
+      </c>
+      <c r="E29" s="12">
+        <v>0.768</v>
+      </c>
+      <c r="F29" s="12">
+        <v>0.821</v>
+      </c>
+      <c r="G29" s="12">
+        <v>0.798</v>
+      </c>
+      <c r="H29" s="12">
+        <v>0.8090000000000001</v>
+      </c>
+    </row>
+    <row r="30" ht="20.05" customHeight="1">
+      <c r="A30" s="18"/>
+      <c r="B30" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C30" s="12">
+        <v>0.882</v>
+      </c>
+      <c r="D30" s="12">
+        <v>0.931</v>
+      </c>
+      <c r="E30" s="12">
+        <v>0.905</v>
+      </c>
+      <c r="F30" s="12">
+        <v>0.877</v>
+      </c>
+      <c r="G30" s="12">
+        <v>0.889</v>
+      </c>
+      <c r="H30" s="12">
+        <v>0.883</v>
+      </c>
+    </row>
+    <row r="31" ht="20.05" customHeight="1">
+      <c r="A31" s="18"/>
+      <c r="B31" t="s" s="11">
+        <v>28</v>
+      </c>
+      <c r="C31" s="12">
+        <v>0.828</v>
+      </c>
+      <c r="D31" s="12">
+        <v>0.8139999999999999</v>
+      </c>
+      <c r="E31" s="12">
+        <v>0.821</v>
+      </c>
+      <c r="F31" s="12">
+        <v>0.8139999999999999</v>
+      </c>
+      <c r="G31" s="12">
+        <v>0.8139999999999999</v>
+      </c>
+      <c r="H31" s="12">
+        <v>0.8139999999999999</v>
+      </c>
+    </row>
+    <row r="32" ht="20.05" customHeight="1">
+      <c r="A32" s="18"/>
+      <c r="B32" t="s" s="11">
+        <v>12</v>
+      </c>
+      <c r="C32" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="D32" s="12">
+        <v>0.677</v>
+      </c>
+      <c r="E32" s="12">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="F32" s="12">
+        <v>0.767</v>
+      </c>
+      <c r="G32" s="12">
+        <v>0.742</v>
+      </c>
+      <c r="H32" s="12">
+        <v>0.754</v>
+      </c>
+    </row>
+    <row r="33" ht="20.05" customHeight="1">
+      <c r="A33" s="18"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="15">
+        <f>AVERAGE(C27,C28,C29,C30,C31,C32)</f>
+        <v>0.8048333333333334</v>
+      </c>
+      <c r="D33" s="15">
+        <f>AVERAGE(D27,D28,D29,D30,D31,D32)</f>
+        <v>0.7911666666666667</v>
+      </c>
+      <c r="E33" s="15">
+        <f>AVERAGE(E27,E28,E29,E30,E31,E32)</f>
+        <v>0.7976666666666666</v>
+      </c>
+      <c r="F33" s="15">
+        <f>AVERAGE(F27,F28,F29,F30,F31,F32)</f>
+        <v>0.8181666666666666</v>
+      </c>
+      <c r="G33" s="15">
+        <f>AVERAGE(G27,G28,G29,G30,G31,G32)</f>
+        <v>0.8105000000000001</v>
+      </c>
+      <c r="H33" s="15">
+        <f>AVERAGE(H27,H28,H29,H30,H31,H32)</f>
+        <v>0.8141666666666666</v>
+      </c>
+    </row>
+    <row r="34" ht="20.05" customHeight="1">
+      <c r="A34" t="s" s="28">
+        <v>29</v>
+      </c>
+      <c r="B34" t="s" s="11">
+        <v>14</v>
+      </c>
+      <c r="C34" s="12">
+        <v>0.821</v>
+      </c>
+      <c r="D34" s="12">
+        <v>0.842</v>
+      </c>
+      <c r="E34" s="12">
+        <v>0.831</v>
+      </c>
+      <c r="F34" s="12">
+        <v>0.756</v>
+      </c>
+      <c r="G34" s="12">
+        <v>0.8159999999999999</v>
+      </c>
+      <c r="H34" s="12">
+        <v>0.785</v>
+      </c>
+    </row>
+    <row r="35" ht="20.05" customHeight="1">
+      <c r="A35" s="18"/>
+      <c r="B35" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="C35" s="12">
+        <v>0.824</v>
+      </c>
+      <c r="D35" s="12">
+        <v>0.843</v>
+      </c>
+      <c r="E35" s="12">
+        <v>0.833</v>
+      </c>
+      <c r="F35" s="12">
+        <v>0.872</v>
+      </c>
+      <c r="G35" s="12">
+        <v>0.819</v>
+      </c>
+      <c r="H35" s="12">
+        <v>0.845</v>
+      </c>
+    </row>
+    <row r="36" ht="20.05" customHeight="1">
+      <c r="A36" s="18"/>
+      <c r="B36" t="s" s="11">
+        <v>11</v>
+      </c>
+      <c r="C36" s="12">
+        <v>0.743</v>
+      </c>
+      <c r="D36" s="12">
+        <v>0.771</v>
+      </c>
+      <c r="E36" s="12">
+        <v>0.757</v>
+      </c>
+      <c r="F36" s="12">
+        <v>0.757</v>
+      </c>
+      <c r="G36" s="12">
+        <v>0.771</v>
+      </c>
+      <c r="H36" s="12">
+        <v>0.764</v>
+      </c>
+    </row>
+    <row r="37" ht="20.05" customHeight="1">
+      <c r="A37" s="18"/>
+      <c r="B37" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C37" s="12">
+        <v>0.835</v>
+      </c>
+      <c r="D37" s="12">
+        <v>0.917</v>
+      </c>
+      <c r="E37" s="12">
+        <v>0.874</v>
+      </c>
+      <c r="F37" s="12">
+        <v>0.851</v>
+      </c>
+      <c r="G37" s="12">
+        <v>0.875</v>
+      </c>
+      <c r="H37" s="12">
+        <v>0.863</v>
+      </c>
+    </row>
+    <row r="38" ht="20.05" customHeight="1">
+      <c r="A38" s="18"/>
+      <c r="B38" t="s" s="11">
+        <v>28</v>
+      </c>
+      <c r="C38" s="12">
+        <v>0.769</v>
+      </c>
+      <c r="D38" s="12">
+        <v>0.847</v>
+      </c>
+      <c r="E38" s="12">
+        <v>0.806</v>
+      </c>
+      <c r="F38" s="12">
+        <v>0.772</v>
+      </c>
+      <c r="G38" s="12">
+        <v>0.746</v>
+      </c>
+      <c r="H38" s="12">
+        <v>0.759</v>
+      </c>
+    </row>
+    <row r="39" ht="20.05" customHeight="1">
+      <c r="A39" s="18"/>
+      <c r="B39" t="s" s="11">
+        <v>12</v>
+      </c>
+      <c r="C39" s="12">
+        <v>0.733</v>
+      </c>
+      <c r="D39" s="12">
+        <v>0.71</v>
+      </c>
+      <c r="E39" s="12">
+        <v>0.721</v>
+      </c>
+      <c r="F39" s="12">
+        <v>0.679</v>
+      </c>
+      <c r="G39" s="12">
+        <v>0.613</v>
+      </c>
+      <c r="H39" s="12">
+        <v>0.644</v>
+      </c>
+    </row>
+    <row r="40" ht="20.05" customHeight="1">
+      <c r="A40" s="18"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="15">
+        <f>AVERAGE(C34,C35,C36,C37,C38,C39)</f>
+        <v>0.7875</v>
+      </c>
+      <c r="D40" s="15">
+        <f>AVERAGE(D34,D35,D36,D37,D38,D39)</f>
+        <v>0.8216666666666668</v>
+      </c>
+      <c r="E40" s="15">
+        <f>AVERAGE(E34,E35,E36,E37,E38,E39)</f>
+        <v>0.8036666666666666</v>
+      </c>
+      <c r="F40" s="15">
+        <f>AVERAGE(F34,F35,F36,F37,F38,F39)</f>
+        <v>0.7811666666666667</v>
+      </c>
+      <c r="G40" s="15">
+        <f>AVERAGE(G34,G35,G36,G37,G38,G39)</f>
+        <v>0.7733333333333331</v>
+      </c>
+      <c r="H40" s="15">
+        <f>AVERAGE(H34,H35,H36,H37,H38,H39)</f>
+        <v>0.7766666666666667</v>
+      </c>
+    </row>
+    <row r="41" ht="20.05" customHeight="1">
+      <c r="A41" t="s" s="28">
+        <v>30</v>
+      </c>
+      <c r="B41" t="s" s="11">
+        <v>14</v>
+      </c>
+      <c r="C41" s="12">
+        <v>0.8159999999999999</v>
+      </c>
+      <c r="D41" s="12">
+        <v>0.8159999999999999</v>
+      </c>
+      <c r="E41" s="12">
+        <v>0.8159999999999999</v>
+      </c>
+      <c r="F41" s="12">
+        <v>0.8159999999999999</v>
+      </c>
+      <c r="G41" s="12">
+        <v>0.8159999999999999</v>
+      </c>
+      <c r="H41" s="12">
+        <v>0.8159999999999999</v>
+      </c>
+    </row>
+    <row r="42" ht="20.05" customHeight="1">
+      <c r="A42" s="18"/>
+      <c r="B42" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="C42" s="12">
+        <v>0.8139999999999999</v>
+      </c>
+      <c r="D42" s="12">
+        <v>0.843</v>
+      </c>
+      <c r="E42" s="12">
+        <v>0.828</v>
+      </c>
+      <c r="F42" s="12">
+        <v>0.872</v>
+      </c>
+      <c r="G42" s="12">
+        <v>0.819</v>
+      </c>
+      <c r="H42" s="12">
+        <v>0.845</v>
+      </c>
+    </row>
+    <row r="43" ht="20.05" customHeight="1">
+      <c r="A43" s="18"/>
+      <c r="B43" t="s" s="11">
+        <v>11</v>
+      </c>
+      <c r="C43" s="12">
+        <v>0.806</v>
+      </c>
+      <c r="D43" s="12">
+        <v>0.725</v>
+      </c>
+      <c r="E43" s="12">
+        <v>0.763</v>
+      </c>
+      <c r="F43" s="12">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="G43" s="12">
+        <v>0.826</v>
+      </c>
+      <c r="H43" s="12">
+        <v>0.822</v>
+      </c>
+    </row>
+    <row r="44" ht="20.05" customHeight="1">
+      <c r="A44" s="18"/>
+      <c r="B44" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C44" s="12">
+        <v>0.905</v>
+      </c>
+      <c r="D44" s="12">
+        <v>0.931</v>
+      </c>
+      <c r="E44" s="12">
+        <v>0.918</v>
+      </c>
+      <c r="F44" s="12">
+        <v>0.844</v>
+      </c>
+      <c r="G44" s="12">
+        <v>0.903</v>
+      </c>
+      <c r="H44" s="12">
+        <v>0.872</v>
+      </c>
+    </row>
+    <row r="45" ht="20.05" customHeight="1">
+      <c r="A45" s="18"/>
+      <c r="B45" t="s" s="11">
+        <v>28</v>
+      </c>
+      <c r="C45" s="12">
+        <v>0.8139999999999999</v>
+      </c>
+      <c r="D45" s="12">
+        <v>0.8139999999999999</v>
+      </c>
+      <c r="E45" s="12">
+        <v>0.8139999999999999</v>
+      </c>
+      <c r="F45" s="12">
+        <v>0.803</v>
+      </c>
+      <c r="G45" s="12">
+        <v>0.831</v>
+      </c>
+      <c r="H45" s="12">
+        <v>0.8169999999999999</v>
+      </c>
+    </row>
+    <row r="46" ht="20.05" customHeight="1">
+      <c r="A46" s="18"/>
+      <c r="B46" t="s" s="11">
+        <v>12</v>
+      </c>
+      <c r="C46" s="12">
+        <v>0.676</v>
+      </c>
+      <c r="D46" s="12">
+        <v>0.742</v>
+      </c>
+      <c r="E46" s="12">
+        <v>0.708</v>
+      </c>
+      <c r="F46" s="12">
+        <v>0.719</v>
+      </c>
+      <c r="G46" s="12">
+        <v>0.742</v>
+      </c>
+      <c r="H46" s="12">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="47" ht="20.05" customHeight="1">
+      <c r="A47" s="18"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="15">
+        <f>AVERAGE(C41,C42,C43,C44,C45,C46)</f>
+        <v>0.8051666666666667</v>
+      </c>
+      <c r="D47" s="15">
+        <f>AVERAGE(D41,D42,D43,D44,D45,D46)</f>
+        <v>0.8118333333333333</v>
+      </c>
+      <c r="E47" s="15">
+        <f>AVERAGE(E41,E42,E43,E44,E45,E46)</f>
+        <v>0.8078333333333334</v>
+      </c>
+      <c r="F47" s="15">
+        <f>AVERAGE(F41,F42,F43,F44,F45,F46)</f>
+        <v>0.8119999999999999</v>
+      </c>
+      <c r="G47" s="15">
+        <f>AVERAGE(G41,G42,G43,G44,G45,G46)</f>
+        <v>0.8228333333333334</v>
+      </c>
+      <c r="H47" s="15">
+        <f>AVERAGE(H41,H42,H43,H44,H45,H46)</f>
+        <v>0.8169999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -5054,21 +5601,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="28" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="28" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="28" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="28" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="28" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="28" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="28" customWidth="1"/>
-    <col min="8" max="8" width="16.3516" style="28" customWidth="1"/>
-    <col min="9" max="9" width="16.3516" style="28" customWidth="1"/>
-    <col min="10" max="10" width="16.3516" style="28" customWidth="1"/>
-    <col min="11" max="11" width="16.3516" style="28" customWidth="1"/>
-    <col min="12" max="12" width="16.3516" style="28" customWidth="1"/>
-    <col min="13" max="13" width="16.3516" style="28" customWidth="1"/>
-    <col min="14" max="14" width="16.3516" style="28" customWidth="1"/>
-    <col min="15" max="256" width="16.3516" style="28" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="29" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="29" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="29" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="29" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="29" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="29" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="29" customWidth="1"/>
+    <col min="8" max="8" width="16.3516" style="29" customWidth="1"/>
+    <col min="9" max="9" width="16.3516" style="29" customWidth="1"/>
+    <col min="10" max="10" width="16.3516" style="29" customWidth="1"/>
+    <col min="11" max="11" width="16.3516" style="29" customWidth="1"/>
+    <col min="12" max="12" width="16.3516" style="29" customWidth="1"/>
+    <col min="13" max="13" width="16.3516" style="29" customWidth="1"/>
+    <col min="14" max="14" width="16.3516" style="29" customWidth="1"/>
+    <col min="15" max="256" width="16.3516" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -5077,7 +5624,7 @@
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s" s="2">
         <v>2</v>
@@ -5103,7 +5650,7 @@
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="5">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s" s="6">
         <v>9</v>
@@ -5409,7 +5956,7 @@
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" t="s" s="17">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s" s="11">
         <v>9</v>
@@ -5715,7 +6262,7 @@
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="17">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s" s="11">
         <v>9</v>
@@ -6021,7 +6568,7 @@
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" t="s" s="17">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s" s="11">
         <v>9</v>
@@ -6347,53 +6894,53 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="29" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="29" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="29" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="29" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="29" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="29" customWidth="1"/>
-    <col min="7" max="7" width="18.125" style="29" customWidth="1"/>
-    <col min="8" max="8" width="16.3516" style="29" customWidth="1"/>
-    <col min="9" max="9" width="16.3516" style="29" customWidth="1"/>
-    <col min="10" max="10" width="16.3516" style="29" customWidth="1"/>
-    <col min="11" max="256" width="16.3516" style="29" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="30" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="30" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="30" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="30" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="30" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="30" customWidth="1"/>
+    <col min="7" max="7" width="18.125" style="30" customWidth="1"/>
+    <col min="8" max="8" width="16.3516" style="30" customWidth="1"/>
+    <col min="9" max="9" width="16.3516" style="30" customWidth="1"/>
+    <col min="10" max="10" width="16.3516" style="30" customWidth="1"/>
+    <col min="11" max="256" width="16.3516" style="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="F1" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="G1" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I1" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="30"/>
+      <c r="A2" s="31"/>
       <c r="B2" t="s" s="6">
         <v>9</v>
       </c>
@@ -6423,7 +6970,7 @@
       </c>
     </row>
     <row r="3" ht="20.05" customHeight="1">
-      <c r="A3" s="31"/>
+      <c r="A3" s="32"/>
       <c r="B3" t="s" s="11">
         <v>10</v>
       </c>
@@ -6439,7 +6986,7 @@
       <c r="F3" s="12">
         <v>10</v>
       </c>
-      <c r="G3" s="32">
+      <c r="G3" s="33">
         <v>1</v>
       </c>
       <c r="H3" s="12">
@@ -6453,7 +7000,7 @@
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="31"/>
+      <c r="A4" s="32"/>
       <c r="B4" t="s" s="11">
         <v>11</v>
       </c>
@@ -6483,7 +7030,7 @@
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="31"/>
+      <c r="A5" s="32"/>
       <c r="B5" t="s" s="11">
         <v>12</v>
       </c>
@@ -6499,7 +7046,7 @@
       <c r="F5" s="12">
         <v>7</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="34">
         <v>0.7333333333333333</v>
       </c>
       <c r="H5" s="12">
@@ -6513,7 +7060,7 @@
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="31"/>
+      <c r="A6" s="32"/>
       <c r="B6" t="s" s="11">
         <v>13</v>
       </c>
@@ -6529,7 +7076,7 @@
       <c r="F6" s="12">
         <v>8</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="34">
         <v>0.8666666666666667</v>
       </c>
       <c r="H6" s="12">
@@ -6543,7 +7090,7 @@
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="31"/>
+      <c r="A7" s="32"/>
       <c r="B7" t="s" s="11">
         <v>14</v>
       </c>
@@ -6559,7 +7106,7 @@
       <c r="F7" s="12">
         <v>8</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="34">
         <v>0.6666666666666666</v>
       </c>
       <c r="H7" s="12">
@@ -6573,8 +7120,8 @@
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="34">
-        <v>43</v>
+      <c r="A8" t="s" s="28">
+        <v>44</v>
       </c>
       <c r="B8" s="35"/>
       <c r="C8" s="15">
@@ -6611,7 +7158,7 @@
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="31"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="36"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -6623,7 +7170,7 @@
       <c r="J9" s="12"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="31"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="36"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
